--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -667,49 +667,49 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H2" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
         <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
         <v>2.18</v>
@@ -718,13 +718,13 @@
         <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X2" t="n">
         <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
         <v>24</v>
@@ -745,7 +745,7 @@
         <v>40</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
@@ -754,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
         <v>46</v>
@@ -763,7 +763,7 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -808,10 +808,10 @@
         <v>3.3</v>
       </c>
       <c r="H3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.24</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.26</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -826,22 +826,22 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="Q3" t="n">
         <v>1.47</v>
       </c>
       <c r="R3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T3" t="n">
         <v>1.45</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
         <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
@@ -880,31 +880,31 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="n">
         <v>65</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>8.800000000000001</v>
@@ -1084,7 +1084,7 @@
         <v>4.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>3.6</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" t="n">
         <v>2.12</v>
@@ -1219,7 +1219,7 @@
         <v>2.08</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
         <v>3.95</v>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
         <v>3.6</v>
@@ -1387,7 +1387,7 @@
         <v>1.99</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>110</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AK7" t="n">
         <v>19</v>
@@ -1519,7 +1519,7 @@
         <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="n">
         <v>1.7</v>
@@ -1615,7 +1615,7 @@
         <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H9" t="n">
         <v>2.28</v>
@@ -1624,7 +1624,7 @@
         <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
         <v>3.7</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -670,13 +670,13 @@
         <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H2" t="n">
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
@@ -685,7 +685,7 @@
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -700,7 +700,7 @@
         <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
         <v>1.38</v>
@@ -715,7 +715,7 @@
         <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
         <v>1.61</v>
@@ -856,55 +856,55 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ3" t="n">
         <v>65</v>
       </c>
       <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
         <v>36</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>38</v>
       </c>
       <c r="AM3" t="n">
         <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO3" t="n">
         <v>8.800000000000001</v>
@@ -1246,10 +1246,10 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
         <v>2.34</v>
@@ -1426,13 +1426,13 @@
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>110</v>
       </c>
       <c r="AJ7" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>19</v>
@@ -1519,7 +1519,7 @@
         <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="U8" t="n">
         <v>1.7</v>
@@ -1618,13 +1618,13 @@
         <v>3.95</v>
       </c>
       <c r="H9" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="I9" t="n">
         <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>3.7</v>
@@ -1753,7 +1753,7 @@
         <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
         <v>3.7</v>
@@ -1762,7 +1762,7 @@
         <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H2" t="n">
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="J2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.41</v>
@@ -715,16 +715,16 @@
         <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X2" t="n">
         <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
         <v>24</v>
@@ -745,34 +745,34 @@
         <v>40</v>
       </c>
       <c r="AF2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
       </c>
       <c r="AI2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>48</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>46</v>
-      </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -808,7 +808,7 @@
         <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I3" t="n">
         <v>2.24</v>
@@ -874,7 +874,7 @@
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -883,7 +883,7 @@
         <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>14.5</v>
@@ -904,7 +904,7 @@
         <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
         <v>8.800000000000001</v>
@@ -1357,7 +1357,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1420,7 +1420,7 @@
         <v>120</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
@@ -1432,10 +1432,10 @@
         <v>110</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>44</v>
@@ -1480,7 +1480,7 @@
         <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -1504,7 +1504,7 @@
         <v>2.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
         <v>1.48</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.64</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
         <v>2.96</v>
@@ -682,7 +682,7 @@
         <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.41</v>
@@ -697,10 +697,10 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
         <v>1.38</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Gandzasar Kapan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>BKMA Yerevan</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>2.36</v>
       </c>
       <c r="H3" t="n">
-        <v>2.22</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.24</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>2.98</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.47</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>2.14</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>3.05</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO3" t="n">
         <v>65</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Port FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>2.64</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.01</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Lokomotiv Sofia</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>2.86</v>
       </c>
       <c r="I5" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,66 +1193,66 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.75</v>
+        <v>1.6</v>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>2.04</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.08</v>
+        <v>8.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,64 +1261,64 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,66 +1328,66 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.68</v>
+        <v>3.2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>2.22</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>2.24</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>2.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>2.14</v>
       </c>
       <c r="T7" t="n">
-        <v>1.99</v>
+        <v>1.45</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>3.05</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,64 +1396,64 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH7" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AI7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM7" t="n">
         <v>55</v>
       </c>
-      <c r="AA7" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>170</v>
-      </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>150</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,66 +1463,66 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,37 +1598,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.6</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,135 +1723,675 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>2025-11-28</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Vasco da Gama</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F14" t="n">
         <v>2.14</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G14" t="n">
         <v>2.2</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H14" t="n">
         <v>3.5</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I14" t="n">
         <v>3.7</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J14" t="n">
         <v>3.6</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K14" t="n">
         <v>4.1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J2" t="n">
         <v>3.55</v>
@@ -685,7 +685,7 @@
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -697,13 +697,13 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q2" t="n">
         <v>1.94</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
@@ -724,61 +724,61 @@
         <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Armenian Premier League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gandzasar Kapan</t>
+          <t>Kapaz Ganja</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BKMA Yerevan</t>
+          <t>Zira</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.36</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.01</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.86</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,72 +923,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Gandzasar Kapan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port FC</t>
+          <t>BKMA Yerevan</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="H4" t="n">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>2.02</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Port FC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.6</v>
       </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>Lokomotiv Sofia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.6</v>
+        <v>2.34</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>2.28</v>
       </c>
       <c r="I6" t="n">
-        <v>8.6</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>1.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>1.79</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>1.98</v>
       </c>
       <c r="H7" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.24</v>
+        <v>4.9</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.98</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.14</v>
+        <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG7" t="n">
         <v>13</v>
       </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>17</v>
-      </c>
       <c r="AH7" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.800000000000001</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>PFK Turan Tovuz</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.08</v>
+        <v>1.47</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>5.3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,66 +1733,66 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.75</v>
+        <v>1.39</v>
       </c>
       <c r="G10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I10" t="n">
+        <v>980</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.9</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
+        <v>980</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>2.08</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.26</v>
-      </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,64 +1801,64 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,66 +1868,66 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.68</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>6.2</v>
+        <v>2.24</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>1.94</v>
+        <v>2.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="R11" t="n">
-        <v>1.35</v>
+        <v>1.83</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>2.14</v>
       </c>
       <c r="T11" t="n">
-        <v>1.99</v>
+        <v>1.45</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>3.15</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
         <v>23</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>55</v>
       </c>
-      <c r="AA11" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>19</v>
-      </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
         <v>44</v>
       </c>
-      <c r="AM11" t="n">
-        <v>170</v>
-      </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.14</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,135 +2263,675 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>2025-11-28</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Vasco da Gama</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F18" t="n">
         <v>2.14</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G18" t="n">
         <v>2.2</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.7</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J18" t="n">
         <v>3.6</v>
       </c>
-      <c r="K14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="K18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="Q18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
@@ -706,13 +706,13 @@
         <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
         <v>1.51</v>
@@ -940,7 +940,7 @@
         <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -949,13 +949,13 @@
         <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -970,7 +970,7 @@
         <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
@@ -985,10 +985,10 @@
         <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G5" t="n">
         <v>2.6</v>
@@ -1084,10 +1084,10 @@
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1099,25 +1099,25 @@
         <v>5.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R5" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U5" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="V5" t="n">
         <v>1.5</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="G6" t="n">
         <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
         <v>3.55</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2</v>
+        <v>2.48</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>1.79</v>
       </c>
       <c r="G7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
         <v>4.9</v>
@@ -1378,7 +1378,7 @@
         <v>1.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
         <v>2.56</v>
@@ -1393,7 +1393,7 @@
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
@@ -1480,7 +1480,7 @@
         <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
         <v>2.66</v>
@@ -1492,7 +1492,7 @@
         <v>2.64</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>980</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>1.47</v>
       </c>
       <c r="G9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H9" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="I9" t="n">
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.39</v>
+        <v>1.66</v>
       </c>
       <c r="G10" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>2.44</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X10" t="n">
         <v>980</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="Y10" t="n">
         <v>980</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Kolos Kovalyovka</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="I11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J11" t="n">
-        <v>3.95</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>2.62</v>
       </c>
       <c r="O11" t="n">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="P11" t="n">
-        <v>2.96</v>
+        <v>1.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.47</v>
+        <v>2.32</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>2.14</v>
+        <v>3.45</v>
       </c>
       <c r="T11" t="n">
-        <v>1.45</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
-        <v>3.15</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.75</v>
+        <v>1.46</v>
       </c>
       <c r="G14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.9</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.85</v>
-      </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="O14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.25</v>
       </c>
-      <c r="P14" t="n">
-        <v>2.24</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.22</v>
       </c>
       <c r="R14" t="n">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="S14" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.69</v>
+        <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>6.2</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.34</v>
       </c>
-      <c r="P15" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>1.34</v>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.1</v>
+        <v>980</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="O16" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.96</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>6.4</v>
+        <v>2.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,260 +2678,1475 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>SC Austria Lustenau</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.55</v>
+        <v>2.1</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>2.78</v>
       </c>
       <c r="H17" t="n">
-        <v>2.14</v>
+        <v>2.86</v>
       </c>
       <c r="I17" t="n">
-        <v>2.32</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Austrian Erste Liga</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FC Liefering</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Austria Klagenfurt</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X18" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Austrian Erste Liga</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Admira Wacker</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mgladbach</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Polish Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sporting Gijon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Andorra CF</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>2025-11-28</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Vasco da Gama</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F27" t="n">
         <v>2.14</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G27" t="n">
         <v>2.2</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H27" t="n">
         <v>3.55</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I27" t="n">
         <v>3.7</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J27" t="n">
         <v>3.6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K27" t="n">
         <v>3.75</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
+      <c r="Q27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
@@ -706,7 +706,7 @@
         <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
         <v>1.68</v>
@@ -811,7 +811,7 @@
         <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
         <v>1.01</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
@@ -964,7 +964,7 @@
         <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
         <v>1.98</v>
@@ -1078,7 +1078,7 @@
         <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -1087,13 +1087,13 @@
         <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>5.1</v>
@@ -1219,7 +1219,7 @@
         <v>3.55</v>
       </c>
       <c r="J6" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q6" t="n">
         <v>2.04</v>
@@ -1624,7 +1624,7 @@
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.14</v>
       </c>
       <c r="K9" t="n">
         <v>4.9</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,118 +1738,118 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Kolos Kovalyovka</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.66</v>
+        <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>2.22</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>2.54</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>2.72</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="R10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.31</v>
       </c>
-      <c r="S10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.2</v>
-      </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,118 +1873,118 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Obolon-Brovar Kiev</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kolos Kovalyovka</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.7</v>
+        <v>1.69</v>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>1.86</v>
       </c>
       <c r="H11" t="n">
-        <v>2.04</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.26</v>
+        <v>6.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.19</v>
       </c>
       <c r="W11" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H12" t="n">
         <v>2.7</v>
@@ -2047,7 +2047,7 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q12" t="n">
         <v>1.57</v>
@@ -2068,7 +2068,7 @@
         <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>SC Austria Lustenau</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>1.98</v>
+        <v>2.76</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>2.02</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>9.6</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>980</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,22 +2311,22 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.22</v>
+        <v>1.66</v>
       </c>
       <c r="R14" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="W14" t="n">
-        <v>2.48</v>
+        <v>1.53</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,103 +2413,103 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>FC Liefering</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>2.14</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>1.96</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>2.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="V15" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
         <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2521,19 +2521,19 @@
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.34</v>
       </c>
-      <c r="G16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K16" t="n">
-        <v>980</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S16" t="n">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,55 +2683,55 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SC Austria Lustenau</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="G17" t="n">
-        <v>2.78</v>
+        <v>1.58</v>
       </c>
       <c r="H17" t="n">
-        <v>2.86</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>9.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="K17" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>1.76</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>2.72</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2770,10 +2770,10 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FC Liefering</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G18" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
         <v>5.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>1.96</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>2.68</v>
+        <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.51</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="W18" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="X18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>23</v>
       </c>
-      <c r="Y18" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>980</v>
-      </c>
       <c r="AK18" t="n">
         <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="G19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.15</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.05</v>
-      </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.25</v>
+        <v>1.66</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>1.74</v>
       </c>
       <c r="H20" t="n">
-        <v>2.22</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.24</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>2.96</v>
+        <v>2.58</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="S20" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X20" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG20" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>16.5</v>
+        <v>7.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.96</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
-        <v>3.35</v>
+        <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>2.36</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
-        <v>2.64</v>
+        <v>3.15</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Erzgebirge</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="H22" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>980</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.12</v>
+        <v>1.71</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Hillerod Fodbold</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H23" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="I23" t="n">
-        <v>2.08</v>
+        <v>2.54</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="O23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.25</v>
       </c>
-      <c r="P23" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.49</v>
-      </c>
       <c r="S23" t="n">
-        <v>2.86</v>
+        <v>1.01</v>
       </c>
       <c r="T23" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
         <v>24</v>
       </c>
-      <c r="Y23" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI23" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ23" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>B93 Copenhagen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.69</v>
+        <v>2.12</v>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>2.62</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>2.76</v>
       </c>
       <c r="I24" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>1.94</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="R24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.35</v>
       </c>
-      <c r="S24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X24" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.28</v>
+        <v>1.41</v>
       </c>
       <c r="G25" t="n">
-        <v>2.32</v>
+        <v>1.53</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="K25" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.98</v>
+        <v>1.61</v>
       </c>
       <c r="R25" t="n">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="S25" t="n">
-        <v>6.4</v>
+        <v>2.36</v>
       </c>
       <c r="T25" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="X25" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,260 +3893,2960 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="G26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J26" t="n">
         <v>4</v>
       </c>
-      <c r="H26" t="n">
+      <c r="K26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V26" t="n">
         <v>2.14</v>
       </c>
-      <c r="I26" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rapperswil-Jona</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Jong AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K30" t="n">
+        <v>980</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FC Dordrecht</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Jong FC Utrecht</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VVV Venlo</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X32" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Dutch Eredivisie</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X33" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hungarian NB I</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Nyiregyhaza</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Debreceni VSC</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Neuchatel Xamax</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Austrian Erste Liga</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Admira Wacker</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Mgladbach</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X37" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Triestina</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Aurora Pro Patria 1919</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Polish Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Polish I Liga</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Miedz Legnica</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>GKS Tychy</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sporting Gijon</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Andorra CF</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S45" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>2025-11-28</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Vasco da Gama</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F47" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G47" t="n">
         <v>2.2</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H47" t="n">
         <v>3.55</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I47" t="n">
         <v>3.7</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J47" t="n">
         <v>3.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K47" t="n">
         <v>3.75</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q47" t="n">
         <v>1.98</v>
       </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO47"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,16 +673,16 @@
         <v>2.64</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
         <v>1.4</v>
@@ -691,31 +691,31 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
         <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
         <v>1.6</v>
@@ -733,7 +733,7 @@
         <v>60</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -808,16 +808,16 @@
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>1.31</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>3.45</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="H5" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,34 +1096,34 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="V5" t="n">
         <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
         <v>3.2</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,118 +1738,118 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Obolon-Brovar Kiev</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kolos Kovalyovka</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>1.69</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
-        <v>2.22</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.54</v>
+        <v>6.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="V10" t="n">
-        <v>1.65</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>1.31</v>
+        <v>2.16</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,118 +1873,118 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Kolos Kovalyovka</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.69</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="W11" t="n">
         <v>1.31</v>
       </c>
-      <c r="S11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.16</v>
-      </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2035,7 +2035,7 @@
         <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2068,7 +2068,7 @@
         <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SC Austria Lustenau</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>2.76</v>
+        <v>1.98</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W13" t="n">
         <v>2.02</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.56</v>
-      </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,67 +2278,67 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>1.58</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>9.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>980</v>
+        <v>5.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>2.06</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>1.53</v>
+        <v>2.72</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,103 +2413,103 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Liefering</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>1.96</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="W15" t="n">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
         <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2521,19 +2521,19 @@
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>SC Austria Lustenau</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="I16" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.31</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.41</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,67 +2683,67 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.47</v>
+        <v>2.04</v>
       </c>
       <c r="G17" t="n">
-        <v>1.58</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>2.02</v>
       </c>
       <c r="I17" t="n">
-        <v>9.6</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>980</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.04</v>
       </c>
-      <c r="N17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="W17" t="n">
-        <v>2.72</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2770,10 +2770,10 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>FC Liefering</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="H18" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="I18" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.51</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.94</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="V18" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="W18" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
         <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
         <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,118 +2953,118 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>1.66</v>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="H19" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.15</v>
+        <v>5.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>3.55</v>
+        <v>5.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>1.93</v>
+        <v>2.58</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.02</v>
+        <v>1.54</v>
       </c>
       <c r="R19" t="n">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>2.18</v>
       </c>
       <c r="T19" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="V19" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>1.53</v>
+        <v>2.36</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>22</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AI19" t="n">
         <v>60</v>
       </c>
-      <c r="AB19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
         <v>19</v>
       </c>
-      <c r="AG19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>34</v>
-      </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3088,118 +3088,118 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.66</v>
+        <v>2.7</v>
       </c>
       <c r="G20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.74</v>
       </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="U20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.54</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.34</v>
-      </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA20" t="n">
         <v>55</v>
       </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG20" t="n">
         <v>13</v>
       </c>
-      <c r="AD20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Erzgebirge</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>1.9</v>
       </c>
       <c r="G21" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S21" t="n">
         <v>2.26</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.44</v>
-      </c>
       <c r="T21" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,112 +3358,112 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Hillerod Fodbold</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Erzgebirge</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>3.35</v>
       </c>
       <c r="G22" t="n">
-        <v>2.28</v>
+        <v>4.2</v>
       </c>
       <c r="H22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J22" t="n">
         <v>3.25</v>
       </c>
-      <c r="I22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.65</v>
-      </c>
       <c r="K22" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.04</v>
       </c>
-      <c r="N22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.27</v>
+        <v>1.72</v>
       </c>
       <c r="W22" t="n">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3493,112 +3493,112 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hillerod Fodbold</t>
+          <t>B93 Copenhagen</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.35</v>
+        <v>2.12</v>
       </c>
       <c r="G23" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="H23" t="n">
-        <v>2.12</v>
+        <v>2.76</v>
       </c>
       <c r="I23" t="n">
-        <v>2.54</v>
+        <v>3.85</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.74</v>
+        <v>1.18</v>
       </c>
       <c r="R23" t="n">
         <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.64</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B93 Copenhagen</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="G24" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="H24" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="S24" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V24" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="W24" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,67 +3763,67 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.41</v>
+        <v>2.08</v>
       </c>
       <c r="G25" t="n">
-        <v>1.53</v>
+        <v>2.52</v>
       </c>
       <c r="H25" t="n">
-        <v>7.8</v>
+        <v>2.98</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.04</v>
       </c>
-      <c r="N25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="W25" t="n">
-        <v>2.76</v>
+        <v>1.66</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="G26" t="n">
-        <v>5.2</v>
+        <v>1.53</v>
       </c>
       <c r="H26" t="n">
-        <v>1.71</v>
+        <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>1.75</v>
+        <v>13.5</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="K26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3931,88 +3931,88 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S26" t="n">
         <v>2.36</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.22</v>
-      </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
-        <v>2.14</v>
+        <v>1.08</v>
       </c>
       <c r="W26" t="n">
-        <v>1.23</v>
+        <v>2.76</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.08</v>
+        <v>4.3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.52</v>
+        <v>5.2</v>
       </c>
       <c r="H27" t="n">
-        <v>2.98</v>
+        <v>1.71</v>
       </c>
       <c r="I27" t="n">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="J27" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="P27" t="n">
-        <v>1.84</v>
+        <v>2.36</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.28</v>
+        <v>2.14</v>
       </c>
       <c r="W27" t="n">
-        <v>1.66</v>
+        <v>1.23</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="n">
         <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="28">
@@ -4180,19 +4180,19 @@
         <v>1.81</v>
       </c>
       <c r="G28" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H28" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J28" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K28" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,85 +4201,85 @@
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.15</v>
       </c>
       <c r="P28" t="n">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="Q28" t="n">
         <v>1.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S28" t="n">
         <v>2.08</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W28" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4318,7 +4318,7 @@
         <v>1.68</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="I29" t="n">
         <v>12.5</v>
@@ -4327,7 +4327,7 @@
         <v>4.2</v>
       </c>
       <c r="K29" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,7 +4336,7 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O29" t="n">
         <v>1.16</v>
@@ -4348,16 +4348,16 @@
         <v>1.16</v>
       </c>
       <c r="R29" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V29" t="n">
         <v>1.11</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.89</v>
+        <v>2.58</v>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="H30" t="n">
-        <v>1.09</v>
+        <v>2.38</v>
       </c>
       <c r="I30" t="n">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,7 +4471,7 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="O30" t="n">
         <v>1.16</v>
@@ -4480,25 +4480,25 @@
         <v>2.38</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.16</v>
+        <v>1.43</v>
       </c>
       <c r="R30" t="n">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="S30" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W30" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4516,10 +4516,10 @@
         <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G31" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="n">
         <v>4.1</v>
@@ -4606,34 +4606,34 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>1.02</v>
+        <v>2.56</v>
       </c>
       <c r="O31" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="R31" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="S31" t="n">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4753,13 +4753,13 @@
         <v>1.45</v>
       </c>
       <c r="R32" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S32" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U32" t="n">
         <v>2.04</v>
@@ -4855,10 +4855,10 @@
         <v>3.8</v>
       </c>
       <c r="G33" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H33" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
         <v>2.04</v>
@@ -4876,40 +4876,40 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>2.44</v>
+        <v>5.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
         <v>2.44</v>
       </c>
       <c r="Q33" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R33" t="n">
         <v>1.58</v>
       </c>
-      <c r="R33" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S33" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="U33" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="V33" t="n">
         <v>1.96</v>
       </c>
       <c r="W33" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X33" t="n">
         <v>980</v>
       </c>
       <c r="Y33" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z33" t="n">
         <v>980</v>
@@ -4918,19 +4918,19 @@
         <v>980</v>
       </c>
       <c r="AB33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE33" t="n">
         <v>980</v>
       </c>
       <c r="AF33" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AG33" t="n">
         <v>980</v>
@@ -4948,7 +4948,7 @@
         <v>980</v>
       </c>
       <c r="AL33" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
@@ -4957,7 +4957,7 @@
         <v>980</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -4996,22 +4996,22 @@
         <v>3.05</v>
       </c>
       <c r="I34" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J34" t="n">
         <v>3.5</v>
       </c>
       <c r="K34" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
@@ -5020,28 +5020,28 @@
         <v>1.92</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R34" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="S34" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V34" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W34" t="n">
         <v>1.68</v>
       </c>
       <c r="X34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
         <v>980</v>
@@ -5053,25 +5053,25 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AD34" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE34" t="n">
         <v>980</v>
       </c>
       <c r="AF34" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG34" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH34" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI34" t="n">
         <v>70</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G35" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H35" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I35" t="n">
         <v>2.9</v>
@@ -5137,7 +5137,7 @@
         <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>5.8</v>
+        <v>500</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,7 +5146,7 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="O35" t="n">
         <v>1.21</v>
@@ -5155,25 +5155,25 @@
         <v>2.26</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R35" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="S35" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V35" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W35" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="G36" t="n">
         <v>3.15</v>
       </c>
       <c r="H36" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="I36" t="n">
         <v>3.05</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P36" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F37" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J37" t="n">
         <v>3.25</v>
       </c>
-      <c r="G37" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.1</v>
-      </c>
       <c r="K37" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>2.88</v>
       </c>
       <c r="O37" t="n">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
-        <v>2.98</v>
+        <v>1.77</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.47</v>
+        <v>2.14</v>
       </c>
       <c r="R37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U37" t="n">
         <v>1.83</v>
       </c>
-      <c r="S37" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U37" t="n">
-        <v>3.15</v>
-      </c>
       <c r="V37" t="n">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="X37" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="Y37" t="n">
         <v>18.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="AA37" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AE37" t="n">
-        <v>19.5</v>
+        <v>65</v>
       </c>
       <c r="AF37" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="AI37" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AK37" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL37" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AM37" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,31 +5518,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Miedz Legnica</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.94</v>
+        <v>1.79</v>
       </c>
       <c r="G38" t="n">
-        <v>3.15</v>
+        <v>1.97</v>
       </c>
       <c r="H38" t="n">
-        <v>2.76</v>
+        <v>3.85</v>
       </c>
       <c r="I38" t="n">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="J38" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="K38" t="n">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5551,34 +5551,34 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="O38" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="P38" t="n">
-        <v>1.56</v>
+        <v>2.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.44</v>
+        <v>1.53</v>
       </c>
       <c r="R38" t="n">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="S38" t="n">
-        <v>2.26</v>
+        <v>1.92</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V38" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.46</v>
+        <v>2.02</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,67 +5653,67 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.04</v>
+        <v>2.96</v>
       </c>
       <c r="G39" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="H39" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="I39" t="n">
-        <v>1000</v>
+        <v>2.64</v>
       </c>
       <c r="J39" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="K39" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>1.24</v>
+        <v>3.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.24</v>
+        <v>1.9</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="R39" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="S39" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V39" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="W39" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="G40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="I40" t="n">
-        <v>2.64</v>
+        <v>2.24</v>
       </c>
       <c r="J40" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K40" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>1.88</v>
+        <v>7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="P40" t="n">
-        <v>1.88</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.87</v>
+        <v>1.46</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="S40" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="V40" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="W40" t="n">
         <v>1.43</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,31 +5923,31 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Miedz Legnica</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.79</v>
+        <v>2.76</v>
       </c>
       <c r="G41" t="n">
-        <v>2.14</v>
+        <v>3.15</v>
       </c>
       <c r="H41" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I41" t="n">
         <v>3.05</v>
       </c>
-      <c r="I41" t="n">
-        <v>5.2</v>
-      </c>
       <c r="J41" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,79 +5956,79 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>2.24</v>
+        <v>1.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.47</v>
+        <v>2.22</v>
       </c>
       <c r="R41" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S41" t="n">
-        <v>1.47</v>
+        <v>3.6</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V41" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="W41" t="n">
-        <v>1.87</v>
+        <v>1.46</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,73 +6058,73 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H42" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>1.77</v>
+        <v>2.32</v>
       </c>
       <c r="O42" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P42" t="n">
-        <v>1.77</v>
+        <v>1.51</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="R42" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S42" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V42" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="W42" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
@@ -6133,34 +6133,34 @@
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE42" t="n">
         <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL42" t="n">
         <v>1000</v>
@@ -6220,7 +6220,7 @@
         <v>3.95</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
@@ -6238,7 +6238,7 @@
         <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S43" t="n">
         <v>2.86</v>
@@ -6250,13 +6250,13 @@
         <v>2.34</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X43" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="n">
         <v>12</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H44" t="n">
         <v>6</v>
@@ -6352,10 +6352,10 @@
         <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -6367,7 +6367,7 @@
         <v>1.34</v>
       </c>
       <c r="P44" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q44" t="n">
         <v>2</v>
@@ -6382,43 +6382,43 @@
         <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X44" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y44" t="n">
         <v>19</v>
       </c>
       <c r="Z44" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA44" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AB44" t="n">
         <v>8</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE44" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG44" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH44" t="n">
         <v>23</v>
@@ -6427,22 +6427,22 @@
         <v>90</v>
       </c>
       <c r="AJ44" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK44" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL44" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM44" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN44" t="n">
         <v>11</v>
       </c>
       <c r="AO44" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -6481,7 +6481,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J45" t="n">
         <v>3</v>
@@ -6490,7 +6490,7 @@
         <v>3.1</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="M45" t="n">
         <v>1.15</v>
@@ -6517,40 +6517,40 @@
         <v>2.36</v>
       </c>
       <c r="U45" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X45" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y45" t="n">
         <v>10.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA45" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB45" t="n">
         <v>6.6</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD45" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF45" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG45" t="n">
         <v>12.5</v>
@@ -6559,31 +6559,31 @@
         <v>28</v>
       </c>
       <c r="AI45" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ45" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK45" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL45" t="n">
         <v>75</v>
       </c>
       <c r="AM45" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="AN45" t="n">
         <v>38</v>
       </c>
       <c r="AO45" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,260 +6593,530 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F46" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S46" t="n">
         <v>3.55</v>
       </c>
-      <c r="G46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL46" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>2025-11-28</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Vasco da Gama</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="F49" t="n">
         <v>2.18</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G49" t="n">
         <v>2.2</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H49" t="n">
         <v>3.55</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I49" t="n">
         <v>3.7</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J49" t="n">
         <v>3.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K49" t="n">
         <v>3.75</v>
       </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q49" t="n">
         <v>1.98</v>
       </c>
-      <c r="R47" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO47" t="n">
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -670,16 +670,16 @@
         <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
         <v>2.92</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -691,25 +691,25 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R2" t="n">
         <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
         <v>2.16</v>
@@ -721,58 +721,58 @@
         <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="G6" t="n">
         <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>1.46</v>
       </c>
       <c r="I6" t="n">
         <v>3.55</v>
@@ -1222,7 +1222,7 @@
         <v>2.52</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
         <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
         <v>4.6</v>
@@ -1783,22 +1783,22 @@
         <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
         <v>1.87</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1888,16 +1888,16 @@
         <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J11" t="n">
         <v>2.84</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>1.45</v>
@@ -2425,7 +2425,7 @@
         <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H15" t="n">
         <v>3.05</v>
@@ -2557,31 +2557,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
@@ -2590,25 +2590,25 @@
         <v>2.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="R16" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="U16" t="n">
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G17" t="n">
         <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="I17" t="n">
         <v>3.9</v>
@@ -2707,7 +2707,7 @@
         <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,7 +2716,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -2728,7 +2728,7 @@
         <v>1.66</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
         <v>2.6</v>
@@ -2833,7 +2833,7 @@
         <v>2.14</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
         <v>5</v>
@@ -2842,7 +2842,7 @@
         <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2965,7 +2965,7 @@
         <v>1.66</v>
       </c>
       <c r="G19" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
@@ -2998,10 +2998,10 @@
         <v>1.54</v>
       </c>
       <c r="R19" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="S19" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="T19" t="n">
         <v>1.63</v>
@@ -3013,61 +3013,61 @@
         <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Z19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF19" t="n">
         <v>13</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO19" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3100,16 +3100,16 @@
         <v>2.7</v>
       </c>
       <c r="G20" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
         <v>3.45</v>
@@ -3121,7 +3121,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.34</v>
@@ -3142,25 +3142,25 @@
         <v>1.74</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W20" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X20" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y20" t="n">
         <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB20" t="n">
         <v>12</v>
@@ -3172,7 +3172,7 @@
         <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
@@ -3184,19 +3184,19 @@
         <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ20" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="n">
         <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN20" t="n">
         <v>1000</v>
@@ -3262,16 +3262,16 @@
         <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R21" t="n">
         <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T21" t="n">
         <v>1.04</v>
@@ -3517,7 +3517,7 @@
         <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3532,13 +3532,13 @@
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S23" t="n">
         <v>2.24</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
         <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>1.29</v>
@@ -3685,10 +3685,10 @@
         <v>1.98</v>
       </c>
       <c r="V24" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W24" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3775,13 +3775,13 @@
         <v>2.08</v>
       </c>
       <c r="G25" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="H25" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
@@ -3793,37 +3793,37 @@
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="S25" t="n">
-        <v>2.28</v>
+        <v>3.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="U25" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="V25" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J26" t="n">
         <v>4.6</v>
@@ -3928,40 +3928,40 @@
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>2.42</v>
+        <v>4.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="S26" t="n">
-        <v>2.36</v>
+        <v>2.76</v>
       </c>
       <c r="T26" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U26" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V26" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W26" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>1000</v>
@@ -3970,46 +3970,46 @@
         <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
         <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4201,13 +4201,13 @@
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>1.1</v>
+        <v>2.46</v>
       </c>
       <c r="O28" t="n">
         <v>1.15</v>
       </c>
       <c r="P28" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="Q28" t="n">
         <v>1.15</v>
@@ -4471,28 +4471,28 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>3.85</v>
+        <v>5.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="R30" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="S30" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="T30" t="n">
         <v>1.47</v>
       </c>
       <c r="U30" t="n">
-        <v>1.04</v>
+        <v>2.68</v>
       </c>
       <c r="V30" t="n">
         <v>1.59</v>
@@ -4516,10 +4516,10 @@
         <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
@@ -4621,7 +4621,7 @@
         <v>1.51</v>
       </c>
       <c r="S31" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T31" t="n">
         <v>1.52</v>
@@ -4930,7 +4930,7 @@
         <v>980</v>
       </c>
       <c r="AF33" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AG33" t="n">
         <v>980</v>
@@ -4942,13 +4942,13 @@
         <v>980</v>
       </c>
       <c r="AJ33" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="n">
         <v>980</v>
       </c>
       <c r="AL33" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
@@ -5305,7 +5305,7 @@
         <v>1.86</v>
       </c>
       <c r="V36" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W36" t="n">
         <v>1.46</v>
@@ -5341,7 +5341,7 @@
         <v>15</v>
       </c>
       <c r="AH36" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
         <v>70</v>
@@ -5452,7 +5452,7 @@
         <v>18.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
@@ -5464,25 +5464,25 @@
         <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AE37" t="n">
         <v>65</v>
       </c>
       <c r="AF37" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI37" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK37" t="n">
         <v>980</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G38" t="n">
         <v>1.97</v>
@@ -5536,10 +5536,10 @@
         <v>3.85</v>
       </c>
       <c r="I38" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J38" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K38" t="n">
         <v>4.8</v>
@@ -5551,10 +5551,10 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>2.72</v>
+        <v>5.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P38" t="n">
         <v>2.5</v>
@@ -5563,19 +5563,19 @@
         <v>1.53</v>
       </c>
       <c r="R38" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="S38" t="n">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="T38" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U38" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="V38" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W38" t="n">
         <v>2.02</v>
@@ -5584,43 +5584,43 @@
         <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -5629,7 +5629,7 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5701,7 +5701,7 @@
         <v>1.25</v>
       </c>
       <c r="S39" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T39" t="n">
         <v>1.04</v>
@@ -5809,7 +5809,7 @@
         <v>2.24</v>
       </c>
       <c r="J40" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
         <v>4.2</v>
@@ -5833,7 +5833,7 @@
         <v>1.46</v>
       </c>
       <c r="R40" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S40" t="n">
         <v>2.12</v>
@@ -5944,7 +5944,7 @@
         <v>3.05</v>
       </c>
       <c r="J41" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
         <v>3.5</v>
@@ -5962,10 +5962,10 @@
         <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R41" t="n">
         <v>1.24</v>
@@ -6067,64 +6067,64 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="G42" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H42" t="n">
         <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J42" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L42" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M42" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N42" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="O42" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S42" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T42" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="U42" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="V42" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W42" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
@@ -6133,43 +6133,43 @@
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AC42" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH42" t="n">
         <v>25</v>
       </c>
-      <c r="AE42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>32</v>
-      </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AK42" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM42" t="n">
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6208,13 +6208,13 @@
         <v>3.9</v>
       </c>
       <c r="H43" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I43" t="n">
         <v>2.08</v>
       </c>
       <c r="J43" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K43" t="n">
         <v>3.95</v>
@@ -6226,28 +6226,28 @@
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q43" t="n">
         <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S43" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T43" t="n">
         <v>1.67</v>
       </c>
       <c r="U43" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V43" t="n">
         <v>1.92</v>
@@ -6256,7 +6256,7 @@
         <v>1.35</v>
       </c>
       <c r="X43" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y43" t="n">
         <v>12</v>
@@ -6268,7 +6268,7 @@
         <v>25</v>
       </c>
       <c r="AB43" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC43" t="n">
         <v>9.199999999999999</v>
@@ -6286,7 +6286,7 @@
         <v>16.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI43" t="n">
         <v>32</v>
@@ -6340,7 +6340,7 @@
         <v>1.7</v>
       </c>
       <c r="G44" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H44" t="n">
         <v>6</v>
@@ -6367,7 +6367,7 @@
         <v>1.34</v>
       </c>
       <c r="P44" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q44" t="n">
         <v>2</v>
@@ -6400,7 +6400,7 @@
         <v>46</v>
       </c>
       <c r="AA44" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB44" t="n">
         <v>8</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G45" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H45" t="n">
         <v>4</v>
@@ -6487,7 +6487,7 @@
         <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L45" t="n">
         <v>1.64</v>
@@ -6505,7 +6505,7 @@
         <v>1.48</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
         <v>1.16</v>
@@ -6529,7 +6529,7 @@
         <v>7.2</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z45" t="n">
         <v>26</v>
@@ -6550,7 +6550,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG45" t="n">
         <v>12.5</v>
@@ -6622,7 +6622,7 @@
         <v>3.85</v>
       </c>
       <c r="K46" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
         <v>1.46</v>
@@ -6637,7 +6637,7 @@
         <v>1.37</v>
       </c>
       <c r="P46" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q46" t="n">
         <v>2.12</v>
@@ -6658,7 +6658,7 @@
         <v>1.15</v>
       </c>
       <c r="W46" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6760,16 +6760,16 @@
         <v>4.4</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P47" t="n">
         <v>2.1</v>
@@ -6778,76 +6778,76 @@
         <v>1.66</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G48" t="n">
         <v>3.75</v>
@@ -6886,103 +6886,103 @@
         <v>2.16</v>
       </c>
       <c r="I48" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="J48" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
         <v>3.7</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P48" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q48" t="n">
         <v>2.04</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM48" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO48" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
@@ -7015,31 +7015,31 @@
         <v>2.18</v>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="H49" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
         <v>3.7</v>
       </c>
       <c r="J49" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K49" t="n">
         <v>3.75</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P49" t="n">
         <v>1.87</v>
@@ -7048,76 +7048,76 @@
         <v>1.98</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G5" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="H5" t="n">
         <v>2.68</v>
       </c>
       <c r="I5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1114,7 +1114,7 @@
         <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U5" t="n">
         <v>2.48</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G6" t="n">
         <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.46</v>
+        <v>2.66</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>1.58</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1366,13 +1366,13 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
         <v>1.63</v>
@@ -1384,10 +1384,10 @@
         <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V7" t="n">
         <v>1.25</v>
@@ -1402,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1420,13 +1420,13 @@
         <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>60</v>
@@ -1444,7 +1444,7 @@
         <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO7" t="n">
         <v>48</v>
@@ -1486,7 +1486,7 @@
         <v>2.66</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
         <v>2.64</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H13" t="n">
         <v>4.6</v>
@@ -2182,10 +2182,10 @@
         <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
         <v>1.25</v>
@@ -2425,7 +2425,7 @@
         <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H15" t="n">
         <v>3.05</v>
@@ -2695,19 +2695,19 @@
         <v>2.08</v>
       </c>
       <c r="G17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.9</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.54</v>
-      </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>950</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2722,10 +2722,10 @@
         <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R17" t="n">
         <v>1.35</v>
@@ -2740,10 +2740,10 @@
         <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2965,7 +2965,7 @@
         <v>1.66</v>
       </c>
       <c r="G19" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
@@ -2998,10 +2998,10 @@
         <v>1.54</v>
       </c>
       <c r="R19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T19" t="n">
         <v>1.63</v>
@@ -3013,7 +3013,7 @@
         <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X19" t="n">
         <v>32</v>
@@ -3031,7 +3031,7 @@
         <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
         <v>22</v>
@@ -3067,7 +3067,7 @@
         <v>7</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -3100,10 +3100,10 @@
         <v>2.7</v>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
         <v>3.1</v>
@@ -3112,7 +3112,7 @@
         <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -3145,7 +3145,7 @@
         <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W20" t="n">
         <v>1.53</v>
@@ -3172,7 +3172,7 @@
         <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
@@ -3184,7 +3184,7 @@
         <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ20" t="n">
         <v>44</v>
@@ -3373,7 +3373,7 @@
         <v>4.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I22" t="n">
         <v>2.44</v>
@@ -3640,10 +3640,10 @@
         <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
@@ -3652,7 +3652,7 @@
         <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
         <v>1.29</v>
@@ -3670,7 +3670,7 @@
         <v>2.26</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="R24" t="n">
         <v>1.43</v>
@@ -3805,7 +3805,7 @@
         <v>1.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
         <v>1.37</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G26" t="n">
         <v>1.5</v>
@@ -4318,7 +4318,7 @@
         <v>1.68</v>
       </c>
       <c r="H29" t="n">
-        <v>2.52</v>
+        <v>4.1</v>
       </c>
       <c r="I29" t="n">
         <v>12.5</v>
@@ -4327,7 +4327,7 @@
         <v>4.2</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4450,10 +4450,10 @@
         <v>2.58</v>
       </c>
       <c r="G30" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H30" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I30" t="n">
         <v>2.68</v>
@@ -4462,7 +4462,7 @@
         <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4477,7 +4477,7 @@
         <v>1.17</v>
       </c>
       <c r="P30" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q30" t="n">
         <v>1.49</v>
@@ -4606,7 +4606,7 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>2.56</v>
+        <v>1.1</v>
       </c>
       <c r="O31" t="n">
         <v>1.16</v>
@@ -4618,7 +4618,7 @@
         <v>1.46</v>
       </c>
       <c r="R31" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="S31" t="n">
         <v>1.91</v>
@@ -4720,7 +4720,7 @@
         <v>6.6</v>
       </c>
       <c r="G32" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H32" t="n">
         <v>1.44</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G37" t="n">
         <v>2.2</v>
@@ -5491,7 +5491,7 @@
         <v>980</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN37" t="n">
         <v>1000</v>
@@ -5560,7 +5560,7 @@
         <v>2.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R38" t="n">
         <v>1.61</v>
@@ -5665,13 +5665,13 @@
         <v>2.96</v>
       </c>
       <c r="G39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="I39" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J39" t="n">
         <v>3.35</v>
@@ -5953,91 +5953,91 @@
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N41" t="n">
-        <v>1.1</v>
+        <v>2.92</v>
       </c>
       <c r="O41" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P41" t="n">
         <v>1.65</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R41" t="n">
         <v>1.24</v>
       </c>
       <c r="S41" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T41" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U41" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V41" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W41" t="n">
         <v>1.46</v>
       </c>
       <c r="X41" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Y41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD41" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z41" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>19</v>
-      </c>
       <c r="AE41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI41" t="n">
         <v>55</v>
       </c>
-      <c r="AF41" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ41" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AK41" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AL41" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -6067,109 +6067,109 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G42" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H42" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I42" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L42" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="M42" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>2.62</v>
+        <v>2.98</v>
       </c>
       <c r="O42" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="R42" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S42" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="U42" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="V42" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W42" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X42" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AC42" t="n">
         <v>7.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE42" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG42" t="n">
         <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
         <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6382,7 +6382,7 @@
         <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V44" t="n">
         <v>1.19</v>
@@ -6481,7 +6481,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J45" t="n">
         <v>3</v>
@@ -6523,7 +6523,7 @@
         <v>1.31</v>
       </c>
       <c r="W45" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X45" t="n">
         <v>7.2</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G46" t="n">
         <v>1.73</v>
@@ -6616,7 +6616,7 @@
         <v>6.2</v>
       </c>
       <c r="I46" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J46" t="n">
         <v>3.85</v>
@@ -6637,7 +6637,7 @@
         <v>1.37</v>
       </c>
       <c r="P46" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q46" t="n">
         <v>2.12</v>
@@ -6658,7 +6658,7 @@
         <v>1.15</v>
       </c>
       <c r="W46" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6685,7 +6685,7 @@
         <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG46" t="n">
         <v>15</v>
@@ -6700,7 +6700,7 @@
         <v>25</v>
       </c>
       <c r="AK46" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL46" t="n">
         <v>65</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.09</v>
+        <v>2.96</v>
       </c>
       <c r="G47" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H47" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I47" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="J47" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K47" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,88 +6766,88 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O47" t="n">
         <v>1.24</v>
       </c>
       <c r="P47" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q47" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V47" t="n">
         <v>1.66</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U47" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.61</v>
       </c>
       <c r="W47" t="n">
         <v>1.44</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -6886,7 +6886,7 @@
         <v>2.16</v>
       </c>
       <c r="I48" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J48" t="n">
         <v>3.4</v>
@@ -6928,7 +6928,7 @@
         <v>1.79</v>
       </c>
       <c r="W48" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X48" t="n">
         <v>980</v>
@@ -7018,7 +7018,7 @@
         <v>2.34</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I49" t="n">
         <v>3.7</v>
@@ -7033,10 +7033,10 @@
         <v>1.44</v>
       </c>
       <c r="M49" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>1.87</v>
+        <v>3.45</v>
       </c>
       <c r="O49" t="n">
         <v>1.34</v>
@@ -7048,10 +7048,10 @@
         <v>1.98</v>
       </c>
       <c r="R49" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S49" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T49" t="n">
         <v>1.8</v>
@@ -7066,40 +7066,40 @@
         <v>1.74</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z49" t="n">
         <v>980</v>
       </c>
       <c r="AA49" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB49" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD49" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AE49" t="n">
         <v>980</v>
       </c>
       <c r="AF49" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AG49" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ49" t="n">
         <v>980</v>
@@ -7111,10 +7111,10 @@
         <v>980</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G2" t="n">
         <v>2.66</v>
@@ -691,13 +691,13 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Q2" t="n">
         <v>1.97</v>
@@ -742,7 +742,7 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
         <v>17</v>
@@ -772,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -940,7 +940,7 @@
         <v>1.99</v>
       </c>
       <c r="G4" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -988,7 +988,7 @@
         <v>1.31</v>
       </c>
       <c r="W4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1084,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
         <v>4.5</v>
@@ -1099,19 +1099,19 @@
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
         <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T5" t="n">
         <v>1.54</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
       <c r="G6" t="n">
         <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.66</v>
+        <v>1.46</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="G7" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
         <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,22 +1366,22 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
         <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T7" t="n">
         <v>1.63</v>
@@ -1390,16 +1390,16 @@
         <v>2.3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1414,13 +1414,13 @@
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="n">
         <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
@@ -1438,10 +1438,10 @@
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
         <v>11.5</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G9" t="n">
         <v>1.87</v>
       </c>
       <c r="H9" t="n">
-        <v>5.9</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>2.14</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G11" t="n">
         <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I11" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="J11" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.45</v>
@@ -1906,34 +1906,34 @@
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
         <v>1.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
         <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="W11" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2047,10 +2047,10 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R12" t="n">
         <v>1.48</v>
@@ -2092,7 +2092,7 @@
         <v>18.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
         <v>26</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G13" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
         <v>5.1</v>
@@ -2167,7 +2167,7 @@
         <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
         <v>1.51</v>
@@ -2203,10 +2203,10 @@
         <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
         <v>14.5</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
         <v>1000</v>
@@ -2425,13 +2425,13 @@
         <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H15" t="n">
         <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
@@ -2443,7 +2443,7 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
         <v>3.55</v>
@@ -2452,7 +2452,7 @@
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
         <v>1.85</v>
@@ -2461,10 +2461,10 @@
         <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
         <v>2.08</v>
@@ -2500,13 +2500,13 @@
         <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
         <v>60</v>
@@ -2695,7 +2695,7 @@
         <v>2.08</v>
       </c>
       <c r="G17" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
         <v>2.9</v>
@@ -2704,7 +2704,7 @@
         <v>3.65</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
         <v>5.6</v>
@@ -2731,7 +2731,7 @@
         <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T17" t="n">
         <v>1.04</v>
@@ -2833,10 +2833,10 @@
         <v>2.14</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2848,10 +2848,10 @@
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
@@ -2860,16 +2860,16 @@
         <v>1.96</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="U18" t="n">
         <v>1.76</v>
@@ -2881,7 +2881,7 @@
         <v>1.87</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
         <v>980</v>
@@ -2965,7 +2965,7 @@
         <v>1.66</v>
       </c>
       <c r="G19" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
@@ -3004,16 +3004,16 @@
         <v>2.36</v>
       </c>
       <c r="T19" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U19" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V19" t="n">
         <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="X19" t="n">
         <v>32</v>
@@ -3100,19 +3100,19 @@
         <v>2.7</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H20" t="n">
         <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="n">
         <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -3130,7 +3130,7 @@
         <v>1.93</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="R20" t="n">
         <v>1.35</v>
@@ -3139,16 +3139,16 @@
         <v>3.55</v>
       </c>
       <c r="T20" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
         <v>1.48</v>
       </c>
       <c r="W20" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X20" t="n">
         <v>13.5</v>
@@ -3169,7 +3169,7 @@
         <v>7.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
         <v>36</v>
@@ -3235,10 +3235,10 @@
         <v>1.9</v>
       </c>
       <c r="G21" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
         <v>5</v>
@@ -3247,7 +3247,7 @@
         <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>950</v>
+        <v>5.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I22" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3397,13 +3397,13 @@
         <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
         <v>3</v>
@@ -3415,7 +3415,7 @@
         <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
         <v>1.34</v>
@@ -3424,13 +3424,13 @@
         <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="n">
         <v>20</v>
@@ -3532,13 +3532,13 @@
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.51</v>
+        <v>1.18</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="S23" t="n">
         <v>2.24</v>
@@ -3670,7 +3670,7 @@
         <v>2.26</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
         <v>1.43</v>
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.08</v>
+        <v>4.3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.36</v>
+        <v>5.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>1.71</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>1.75</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>3.75</v>
+        <v>2.36</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>1.96</v>
+        <v>2.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="R25" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="S25" t="n">
-        <v>3.1</v>
+        <v>2.26</v>
       </c>
       <c r="T25" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="U25" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.33</v>
+        <v>2.12</v>
       </c>
       <c r="W25" t="n">
-        <v>1.73</v>
+        <v>1.24</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="n">
         <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="n">
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,70 +3898,70 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.44</v>
+        <v>2.08</v>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>2.36</v>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>9.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.94</v>
+        <v>1.69</v>
       </c>
       <c r="U26" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
         <v>1000</v>
@@ -3970,46 +3970,46 @@
         <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
         <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.3</v>
+        <v>1.44</v>
       </c>
       <c r="G27" t="n">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.71</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>1.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="K27" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>2.36</v>
+        <v>4.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="P27" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S27" t="n">
-        <v>2.22</v>
+        <v>2.76</v>
       </c>
       <c r="T27" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V27" t="n">
-        <v>2.14</v>
+        <v>1.11</v>
       </c>
       <c r="W27" t="n">
-        <v>1.23</v>
+        <v>3</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>29</v>
+        <v>350</v>
       </c>
       <c r="AB27" t="n">
-        <v>32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="n">
-        <v>55</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG27" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO27" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4225,10 +4225,10 @@
         <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4255,7 +4255,7 @@
         <v>50</v>
       </c>
       <c r="AF28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG28" t="n">
         <v>17</v>
@@ -4267,7 +4267,7 @@
         <v>50</v>
       </c>
       <c r="AJ28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK28" t="n">
         <v>26</v>
@@ -4279,7 +4279,7 @@
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G29" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H29" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="I29" t="n">
-        <v>12.5</v>
+        <v>7.8</v>
       </c>
       <c r="J29" t="n">
         <v>4.2</v>
       </c>
       <c r="K29" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4351,19 +4351,19 @@
         <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="T29" t="n">
         <v>1.04</v>
       </c>
       <c r="U29" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W29" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4477,7 +4477,7 @@
         <v>1.17</v>
       </c>
       <c r="P30" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q30" t="n">
         <v>1.49</v>
@@ -4486,10 +4486,10 @@
         <v>1.66</v>
       </c>
       <c r="S30" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T30" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U30" t="n">
         <v>2.68</v>
@@ -4624,10 +4624,10 @@
         <v>1.91</v>
       </c>
       <c r="T31" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="U31" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="V31" t="n">
         <v>1.3</v>
@@ -4870,7 +4870,7 @@
         <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
@@ -4888,13 +4888,13 @@
         <v>1.63</v>
       </c>
       <c r="R33" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S33" t="n">
         <v>2.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U33" t="n">
         <v>2.4</v>
@@ -5125,7 +5125,7 @@
         <v>2.62</v>
       </c>
       <c r="G35" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H35" t="n">
         <v>2.28</v>
@@ -5146,13 +5146,13 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O35" t="n">
         <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q35" t="n">
         <v>1.56</v>
@@ -5173,7 +5173,7 @@
         <v>1.53</v>
       </c>
       <c r="W35" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N36" t="n">
         <v>2.98</v>
       </c>
-      <c r="G36" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.74</v>
-      </c>
       <c r="O36" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="P36" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="R36" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U36" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V36" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="W36" t="n">
-        <v>1.46</v>
+        <v>1.84</v>
       </c>
       <c r="X36" t="n">
         <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC36" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
         <v>22</v>
       </c>
       <c r="AI36" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5464,28 +5464,28 @@
         <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
         <v>980</v>
@@ -5560,13 +5560,13 @@
         <v>2.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="R38" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S38" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T38" t="n">
         <v>1.56</v>
@@ -5668,7 +5668,7 @@
         <v>3.4</v>
       </c>
       <c r="H39" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I39" t="n">
         <v>2.62</v>
@@ -5713,7 +5713,7 @@
         <v>1.61</v>
       </c>
       <c r="W39" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="G40" t="n">
         <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.2</v>
+        <v>2.76</v>
       </c>
       <c r="I40" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>2.86</v>
       </c>
       <c r="K40" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="L40" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="N40" t="n">
-        <v>7</v>
+        <v>2.74</v>
       </c>
       <c r="O40" t="n">
-        <v>1.14</v>
+        <v>1.49</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.46</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.84</v>
+        <v>1.2</v>
       </c>
       <c r="S40" t="n">
-        <v>2.12</v>
+        <v>5</v>
       </c>
       <c r="T40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W40" t="n">
         <v>1.45</v>
       </c>
-      <c r="U40" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X40" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>18.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z40" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AA40" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AB40" t="n">
-        <v>23</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC40" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AF40" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AG40" t="n">
         <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AJ40" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
         <v>55</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="G41" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H41" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="I41" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U41" t="n">
         <v>3.05</v>
       </c>
-      <c r="J41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V41" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="W41" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X41" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Y41" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AB41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC41" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC41" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD41" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH41" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE41" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>980</v>
-      </c>
       <c r="AI41" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AJ41" t="n">
         <v>55</v>
       </c>
       <c r="AK41" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AL41" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AN41" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AO41" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,118 +6058,118 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.99</v>
+        <v>2.76</v>
       </c>
       <c r="G42" t="n">
-        <v>2.18</v>
+        <v>3.15</v>
       </c>
       <c r="H42" t="n">
-        <v>4.1</v>
+        <v>2.66</v>
       </c>
       <c r="I42" t="n">
-        <v>4.8</v>
+        <v>3.05</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="O42" t="n">
         <v>1.42</v>
       </c>
       <c r="P42" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R42" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S42" t="n">
         <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="U42" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V42" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="W42" t="n">
-        <v>1.84</v>
+        <v>1.46</v>
       </c>
       <c r="X42" t="n">
         <v>11</v>
       </c>
       <c r="Y42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD42" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>19</v>
-      </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF42" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH42" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM42" t="n">
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
         <v>2.04</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.08</v>
       </c>
       <c r="J43" t="n">
         <v>3.85</v>
       </c>
       <c r="K43" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L43" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O43" t="n">
         <v>1.25</v>
@@ -6235,76 +6235,76 @@
         <v>2.26</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R43" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S43" t="n">
         <v>2.88</v>
       </c>
       <c r="T43" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U43" t="n">
         <v>2.36</v>
       </c>
       <c r="V43" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="W43" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X43" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="n">
         <v>12</v>
       </c>
       <c r="Z43" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB43" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD43" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH43" t="n">
         <v>16.5</v>
       </c>
-      <c r="AH43" t="n">
-        <v>17</v>
-      </c>
       <c r="AI43" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ43" t="n">
         <v>75</v>
       </c>
       <c r="AK43" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL43" t="n">
         <v>48</v>
       </c>
       <c r="AM43" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN43" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO43" t="n">
         <v>12</v>
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G47" t="n">
         <v>3.3</v>
       </c>
       <c r="H47" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I47" t="n">
         <v>2.5</v>
       </c>
       <c r="J47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K47" t="n">
         <v>4</v>
@@ -6766,13 +6766,13 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>1.1</v>
+        <v>3.35</v>
       </c>
       <c r="O47" t="n">
         <v>1.24</v>
       </c>
       <c r="P47" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q47" t="n">
         <v>1.76</v>
@@ -6784,7 +6784,7 @@
         <v>2.92</v>
       </c>
       <c r="T47" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="U47" t="n">
         <v>2.18</v>
@@ -6877,28 +6877,28 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G48" t="n">
         <v>3.65</v>
       </c>
-      <c r="G48" t="n">
-        <v>3.75</v>
-      </c>
       <c r="H48" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K48" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L48" t="n">
         <v>1.48</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N48" t="n">
         <v>3.35</v>
@@ -6916,70 +6916,70 @@
         <v>1.31</v>
       </c>
       <c r="S48" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T48" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U48" t="n">
         <v>2.04</v>
       </c>
       <c r="V48" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="W48" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X48" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Z48" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB48" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC48" t="n">
         <v>8</v>
       </c>
       <c r="AD48" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AE48" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AF48" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG48" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AH48" t="n">
         <v>980</v>
       </c>
       <c r="AI48" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ48" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK48" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL48" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM48" t="n">
         <v>130</v>
       </c>
       <c r="AN48" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO48" t="n">
         <v>25</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G49" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="H49" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J49" t="n">
         <v>3.4</v>
       </c>
       <c r="K49" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L49" t="n">
         <v>1.44</v>
@@ -7054,31 +7054,31 @@
         <v>3.55</v>
       </c>
       <c r="T49" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U49" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V49" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W49" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="X49" t="n">
         <v>16.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z49" t="n">
         <v>980</v>
       </c>
       <c r="AA49" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC49" t="n">
         <v>8</v>
@@ -7111,12 +7111,417 @@
         <v>980</v>
       </c>
       <c r="AM49" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN49" t="n">
         <v>24</v>
       </c>
       <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LDU</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Independiente (Ecu)</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X50" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Academia de Balompie Boliviano</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K51" t="n">
+        <v>950</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+      <c r="I52" t="n">
+        <v>12</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO52" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -670,7 +670,7 @@
         <v>2.64</v>
       </c>
       <c r="G2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H2" t="n">
         <v>2.88</v>
@@ -691,37 +691,37 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q2" t="n">
         <v>1.97</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
         <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
         <v>1.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -730,7 +730,7 @@
         <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
@@ -754,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
         <v>40</v>
@@ -763,16 +763,16 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
         <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -955,7 +955,7 @@
         <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -964,25 +964,25 @@
         <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T4" t="n">
         <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
         <v>1.31</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.16</v>
+        <v>2.58</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="H6" t="n">
-        <v>1.46</v>
+        <v>2.84</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.85</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1396,7 +1396,7 @@
         <v>2.02</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
         <v>21</v>
@@ -1408,16 +1408,16 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>20</v>
       </c>
       <c r="AE7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>16</v>
@@ -1426,10 +1426,10 @@
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1483,16 +1483,16 @@
         <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
         <v>3.85</v>
       </c>
       <c r="J8" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="K8" t="n">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G10" t="n">
         <v>1.83</v>
@@ -1771,16 +1771,16 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
         <v>1.32</v>
@@ -1789,7 +1789,7 @@
         <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
         <v>1.87</v>
@@ -1888,13 +1888,13 @@
         <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I11" t="n">
         <v>2.52</v>
       </c>
       <c r="J11" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="K11" t="n">
         <v>3.7</v>
@@ -1930,7 +1930,7 @@
         <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W11" t="n">
         <v>1.32</v>
@@ -2023,16 +2023,16 @@
         <v>2.68</v>
       </c>
       <c r="H12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I12" t="n">
         <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.27</v>
@@ -2047,13 +2047,13 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S12" t="n">
         <v>2.66</v>
@@ -2062,64 +2062,64 @@
         <v>1.58</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W12" t="n">
         <v>1.6</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN12" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2155,7 +2155,7 @@
         <v>1.93</v>
       </c>
       <c r="G13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H13" t="n">
         <v>4.7</v>
@@ -2191,7 +2191,7 @@
         <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
         <v>1.94</v>
@@ -2203,7 +2203,7 @@
         <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
@@ -2212,7 +2212,7 @@
         <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
         <v>130</v>
@@ -2224,7 +2224,7 @@
         <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
         <v>80</v>
@@ -2236,7 +2236,7 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
         <v>85</v>
@@ -2251,7 +2251,7 @@
         <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
         <v>18.5</v>
@@ -2290,10 +2290,10 @@
         <v>1.47</v>
       </c>
       <c r="G14" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
         <v>9.6</v>
@@ -2302,10 +2302,10 @@
         <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2314,31 +2314,31 @@
         <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
         <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
         <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
         <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
         <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>3.6</v>
@@ -2449,67 +2449,67 @@
         <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
         <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
         <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
         <v>2.5</v>
@@ -2566,25 +2566,25 @@
         <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
         <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
         <v>2.02</v>
@@ -2593,10 +2593,10 @@
         <v>1.89</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
         <v>1.71</v>
@@ -2626,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="G18" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2854,13 +2854,13 @@
         <v>3.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
         <v>1.96</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R18" t="n">
         <v>1.37</v>
@@ -2869,16 +2869,16 @@
         <v>3.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W18" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="X18" t="n">
         <v>980</v>
@@ -2968,10 +2968,10 @@
         <v>1.71</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I19" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J19" t="n">
         <v>4.4</v>
@@ -2992,13 +2992,13 @@
         <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R19" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S19" t="n">
         <v>2.36</v>
@@ -3007,10 +3007,10 @@
         <v>1.61</v>
       </c>
       <c r="U19" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
         <v>2.4</v>
@@ -3019,7 +3019,7 @@
         <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
         <v>48</v>
@@ -3046,7 +3046,7 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>55</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="G20" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="H20" t="n">
         <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
         <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -3130,25 +3130,25 @@
         <v>1.93</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R20" t="n">
         <v>1.35</v>
       </c>
       <c r="S20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W20" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X20" t="n">
         <v>13.5</v>
@@ -3187,13 +3187,13 @@
         <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>90</v>
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
         <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="O21" t="n">
         <v>1.24</v>
@@ -3265,58 +3265,58 @@
         <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="R21" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="S21" t="n">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U21" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="W21" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3325,7 +3325,7 @@
         <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>1000</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H22" t="n">
         <v>2.14</v>
       </c>
       <c r="I22" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
         <v>3.95</v>
@@ -3388,13 +3388,13 @@
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
         <v>1.98</v>
@@ -3403,10 +3403,10 @@
         <v>1.81</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T22" t="n">
         <v>1.04</v>
@@ -3415,31 +3415,31 @@
         <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W22" t="n">
         <v>1.34</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AB22" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AE22" t="n">
         <v>980</v>
@@ -3448,10 +3448,10 @@
         <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
         <v>980</v>
@@ -3460,7 +3460,7 @@
         <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL22" t="n">
         <v>65</v>
@@ -3502,64 +3502,64 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="H23" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="I23" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="S23" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="T23" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="W23" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,25 +3568,25 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3595,19 +3595,19 @@
         <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -3643,7 +3643,7 @@
         <v>2.42</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I24" t="n">
         <v>3.2</v>
@@ -3652,37 +3652,37 @@
         <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>1.29</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>2.44</v>
+        <v>4.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
         <v>2.26</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R24" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="T24" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="U24" t="n">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
         <v>1.46</v>
@@ -3691,37 +3691,37 @@
         <v>1.71</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE24" t="n">
         <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
         <v>980</v>
@@ -3730,19 +3730,19 @@
         <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
         <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AN24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -3778,7 +3778,7 @@
         <v>5.1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I25" t="n">
         <v>1.75</v>
@@ -3796,10 +3796,10 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>2.36</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
         <v>2.36</v>
@@ -3808,16 +3808,16 @@
         <v>1.58</v>
       </c>
       <c r="R25" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="S25" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="T25" t="n">
-        <v>1.04</v>
+        <v>1.61</v>
       </c>
       <c r="U25" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="V25" t="n">
         <v>2.12</v>
@@ -3826,58 +3826,58 @@
         <v>1.24</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AA25" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AC25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AF25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
         <v>55</v>
       </c>
-      <c r="AG25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AL25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM25" t="n">
         <v>75</v>
       </c>
-      <c r="AL25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>100</v>
-      </c>
       <c r="AN25" t="n">
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
         <v>2.36</v>
@@ -3916,13 +3916,13 @@
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3934,7 +3934,7 @@
         <v>3.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P26" t="n">
         <v>1.95</v>
@@ -4042,61 +4042,61 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H27" t="n">
         <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J27" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
         <v>4.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4.3</v>
       </c>
       <c r="O27" t="n">
         <v>1.23</v>
       </c>
       <c r="P27" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R27" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S27" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="T27" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="U27" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
         <v>1.11</v>
       </c>
       <c r="W27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
         <v>1000</v>
@@ -4105,19 +4105,19 @@
         <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF27" t="n">
         <v>9.199999999999999</v>
@@ -4129,7 +4129,7 @@
         <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
@@ -4138,13 +4138,13 @@
         <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM27" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="G28" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>2.46</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P28" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="R28" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="S28" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="V28" t="n">
         <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y28" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Z28" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AC28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH28" t="n">
         <v>16</v>
       </c>
-      <c r="AD28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF28" t="n">
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AO28" t="n">
         <v>24</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G29" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="H29" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="J29" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K29" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,34 +4336,34 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="O29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.16</v>
       </c>
-      <c r="P29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.14</v>
-      </c>
       <c r="W29" t="n">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4375,13 +4375,13 @@
         <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD29" t="n">
         <v>1000</v>
@@ -4390,22 +4390,22 @@
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G30" t="n">
         <v>2.9</v>
@@ -4456,7 +4456,7 @@
         <v>2.42</v>
       </c>
       <c r="I30" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J30" t="n">
         <v>3.9</v>
@@ -4465,7 +4465,7 @@
         <v>4.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -4492,10 +4492,10 @@
         <v>1.48</v>
       </c>
       <c r="U30" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V30" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W30" t="n">
         <v>1.52</v>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G31" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
         <v>4.3</v>
@@ -4606,10 +4606,10 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
         <v>2.56</v>
@@ -4621,19 +4621,19 @@
         <v>1.63</v>
       </c>
       <c r="S31" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="U31" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="V31" t="n">
         <v>1.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4651,25 +4651,25 @@
         <v>980</v>
       </c>
       <c r="AC31" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AD31" t="n">
         <v>980</v>
       </c>
       <c r="AE31" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AF31" t="n">
         <v>980</v>
       </c>
       <c r="AG31" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AH31" t="n">
         <v>980</v>
       </c>
       <c r="AI31" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ31" t="n">
         <v>980</v>
@@ -4681,10 +4681,10 @@
         <v>980</v>
       </c>
       <c r="AM31" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AN31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4720,7 +4720,7 @@
         <v>6.6</v>
       </c>
       <c r="G32" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="H32" t="n">
         <v>1.44</v>
@@ -4741,10 +4741,10 @@
         <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P32" t="n">
         <v>2.84</v>
@@ -4753,76 +4753,76 @@
         <v>1.45</v>
       </c>
       <c r="R32" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="S32" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T32" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U32" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="V32" t="n">
         <v>2.92</v>
       </c>
       <c r="W32" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X32" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Y32" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Z32" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AC32" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AG32" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AH32" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AM32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="33">
@@ -4891,13 +4891,13 @@
         <v>1.59</v>
       </c>
       <c r="S33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T33" t="n">
         <v>1.56</v>
       </c>
       <c r="U33" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V33" t="n">
         <v>1.96</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G34" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="H34" t="n">
         <v>3.05</v>
       </c>
       <c r="I34" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="J34" t="n">
         <v>3.5</v>
@@ -5005,7 +5005,7 @@
         <v>4.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -5014,7 +5014,7 @@
         <v>3.65</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P34" t="n">
         <v>1.92</v>
@@ -5023,7 +5023,7 @@
         <v>1.76</v>
       </c>
       <c r="R34" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S34" t="n">
         <v>3.2</v>
@@ -5035,10 +5035,10 @@
         <v>2.12</v>
       </c>
       <c r="V34" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W34" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5074,7 +5074,7 @@
         <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
         <v>980</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="G35" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="I35" t="n">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
-        <v>500</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,7 +5146,7 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>2.28</v>
+        <v>4.7</v>
       </c>
       <c r="O35" t="n">
         <v>1.21</v>
@@ -5158,22 +5158,22 @@
         <v>1.56</v>
       </c>
       <c r="R35" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="S35" t="n">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="T35" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="U35" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="V35" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="W35" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5260,7 +5260,7 @@
         <v>1.99</v>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H36" t="n">
         <v>4.1</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G37" t="n">
         <v>2.2</v>
@@ -5404,40 +5404,40 @@
         <v>4.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.44</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P37" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="Q37" t="n">
         <v>2.14</v>
       </c>
       <c r="R37" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S37" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T37" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V37" t="n">
         <v>1.3</v>
@@ -5446,10 +5446,10 @@
         <v>1.83</v>
       </c>
       <c r="X37" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z37" t="n">
         <v>980</v>
@@ -5458,34 +5458,34 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL37" t="n">
         <v>980</v>
@@ -5494,7 +5494,7 @@
         <v>160</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="G38" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H38" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="I38" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
         <v>3.6</v>
@@ -5545,46 +5545,46 @@
         <v>4.8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M38" t="n">
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>5.4</v>
+        <v>3.45</v>
       </c>
       <c r="O38" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P38" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R38" t="n">
         <v>1.62</v>
       </c>
       <c r="S38" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="T38" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U38" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V38" t="n">
         <v>1.28</v>
       </c>
       <c r="W38" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z38" t="n">
         <v>38</v>
@@ -5593,16 +5593,16 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF38" t="n">
         <v>15.5</v>
@@ -5626,13 +5626,13 @@
         <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN38" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -5683,58 +5683,58 @@
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O39" t="n">
         <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R39" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="S39" t="n">
-        <v>2.34</v>
+        <v>3.25</v>
       </c>
       <c r="T39" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="U39" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V39" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W39" t="n">
         <v>1.41</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
@@ -5743,10 +5743,10 @@
         <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
@@ -5761,13 +5761,13 @@
         <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN39" t="n">
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -5887,7 +5887,7 @@
         <v>70</v>
       </c>
       <c r="AJ40" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="n">
         <v>980</v>
@@ -5902,7 +5902,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5950,13 +5950,13 @@
         <v>4.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O41" t="n">
         <v>1.14</v>
@@ -5965,7 +5965,7 @@
         <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R41" t="n">
         <v>1.84</v>
@@ -5989,7 +5989,7 @@
         <v>30</v>
       </c>
       <c r="Y41" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="n">
         <v>19.5</v>
@@ -5998,7 +5998,7 @@
         <v>30</v>
       </c>
       <c r="AB41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC41" t="n">
         <v>10.5</v>
@@ -6037,7 +6037,7 @@
         <v>16</v>
       </c>
       <c r="AO41" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -6085,34 +6085,34 @@
         <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M42" t="n">
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O42" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q42" t="n">
         <v>2.22</v>
       </c>
       <c r="R42" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S42" t="n">
         <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U42" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V42" t="n">
         <v>1.5</v>
@@ -6163,13 +6163,13 @@
         <v>40</v>
       </c>
       <c r="AL42" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6220,7 +6220,7 @@
         <v>3.9</v>
       </c>
       <c r="L43" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
@@ -6238,13 +6238,13 @@
         <v>1.74</v>
       </c>
       <c r="R43" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S43" t="n">
         <v>2.88</v>
       </c>
       <c r="T43" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U43" t="n">
         <v>2.36</v>
@@ -6259,7 +6259,7 @@
         <v>19</v>
       </c>
       <c r="Y43" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z43" t="n">
         <v>14</v>
@@ -6268,7 +6268,7 @@
         <v>24</v>
       </c>
       <c r="AB43" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC43" t="n">
         <v>8.800000000000001</v>
@@ -6286,7 +6286,7 @@
         <v>16</v>
       </c>
       <c r="AH43" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI43" t="n">
         <v>30</v>
@@ -6295,7 +6295,7 @@
         <v>75</v>
       </c>
       <c r="AK43" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL43" t="n">
         <v>48</v>
@@ -6307,7 +6307,7 @@
         <v>36</v>
       </c>
       <c r="AO43" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="44">
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G44" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H44" t="n">
         <v>6</v>
@@ -6370,7 +6370,7 @@
         <v>1.94</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R44" t="n">
         <v>1.35</v>
@@ -6382,7 +6382,7 @@
         <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V44" t="n">
         <v>1.19</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G46" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H46" t="n">
         <v>6.2</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J46" t="n">
         <v>3.85</v>
@@ -6628,88 +6628,88 @@
         <v>1.46</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="O46" t="n">
         <v>1.37</v>
       </c>
       <c r="P46" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R46" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S46" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="T46" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="U46" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="V46" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W46" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB46" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AC46" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN46" t="n">
         <v>13</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>18.5</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G47" t="n">
         <v>3.3</v>
@@ -6751,10 +6751,10 @@
         <v>2.3</v>
       </c>
       <c r="I47" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J47" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K47" t="n">
         <v>4</v>
@@ -6763,31 +6763,31 @@
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="O47" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P47" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q47" t="n">
         <v>1.76</v>
       </c>
       <c r="R47" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S47" t="n">
         <v>2.92</v>
       </c>
       <c r="T47" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U47" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="V47" t="n">
         <v>1.66</v>
@@ -6799,7 +6799,7 @@
         <v>22</v>
       </c>
       <c r="Y47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z47" t="n">
         <v>21</v>
@@ -6811,10 +6811,10 @@
         <v>17.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE47" t="n">
         <v>30</v>
@@ -6823,7 +6823,7 @@
         <v>28</v>
       </c>
       <c r="AG47" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH47" t="n">
         <v>19.5</v>
@@ -6832,7 +6832,7 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
         <v>40</v>
@@ -6841,7 +6841,7 @@
         <v>48</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN47" t="n">
         <v>32</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G48" t="n">
         <v>3.65</v>
@@ -6907,10 +6907,10 @@
         <v>1.36</v>
       </c>
       <c r="P48" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R48" t="n">
         <v>1.31</v>
@@ -6925,13 +6925,13 @@
         <v>2.04</v>
       </c>
       <c r="V48" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W48" t="n">
         <v>1.37</v>
       </c>
       <c r="X48" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y48" t="n">
         <v>11</v>
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G49" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J49" t="n">
         <v>3.4</v>
@@ -7060,10 +7060,10 @@
         <v>2.1</v>
       </c>
       <c r="V49" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W49" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X49" t="n">
         <v>16.5</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H50" t="n">
         <v>3.25</v>
       </c>
       <c r="I50" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K50" t="n">
         <v>3.9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.2</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7171,7 +7171,7 @@
         <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O50" t="n">
         <v>1.32</v>
@@ -7180,25 +7180,25 @@
         <v>1.91</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R50" t="n">
         <v>1.35</v>
       </c>
       <c r="S50" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T50" t="n">
         <v>1.71</v>
       </c>
       <c r="U50" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V50" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W50" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X50" t="n">
         <v>980</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="G51" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="H51" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="I51" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="J51" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="K51" t="n">
-        <v>950</v>
+        <v>5.7</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G52" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J52" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K52" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L52" t="n">
         <v>1.31</v>
@@ -7441,7 +7441,7 @@
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="O52" t="n">
         <v>1.2</v>
@@ -7453,25 +7453,25 @@
         <v>1.61</v>
       </c>
       <c r="R52" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="S52" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="T52" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U52" t="n">
         <v>1.84</v>
       </c>
-      <c r="U52" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V52" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W52" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y52" t="n">
         <v>44</v>
@@ -7483,43 +7483,43 @@
         <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC52" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AD52" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
         <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG52" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI52" t="n">
         <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AK52" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AL52" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
         <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AO52" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -685,19 +685,19 @@
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q2" t="n">
         <v>1.97</v>
@@ -709,7 +709,7 @@
         <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -754,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
         <v>40</v>
@@ -763,13 +763,13 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
         <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO2" t="n">
         <v>27</v>
@@ -961,13 +961,13 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G5" t="n">
         <v>2.66</v>
@@ -1087,7 +1087,7 @@
         <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1102,16 +1102,16 @@
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
         <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T5" t="n">
         <v>1.54</v>
@@ -1222,7 +1222,7 @@
         <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>1.83</v>
       </c>
       <c r="G7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I7" t="n">
         <v>4.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
         <v>4.5</v>
@@ -1366,7 +1366,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1381,7 +1381,7 @@
         <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T7" t="n">
         <v>1.63</v>
@@ -1390,16 +1390,16 @@
         <v>2.3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
         <v>1.87</v>
@@ -1753,7 +1753,7 @@
         <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I10" t="n">
         <v>7.2</v>
@@ -1762,7 +1762,7 @@
         <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.35</v>
@@ -1891,13 +1891,13 @@
         <v>2.26</v>
       </c>
       <c r="I11" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>1.45</v>
@@ -1930,7 +1930,7 @@
         <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W11" t="n">
         <v>1.32</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
         <v>2.68</v>
       </c>
       <c r="H12" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I12" t="n">
         <v>3.1</v>
@@ -2050,16 +2050,16 @@
         <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
         <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U12" t="n">
         <v>2.38</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G13" t="n">
         <v>1.97</v>
@@ -2161,7 +2161,7 @@
         <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2176,16 +2176,16 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
         <v>1.25</v>
@@ -2200,13 +2200,13 @@
         <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
         <v>2.02</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
         <v>14.5</v>
@@ -2227,7 +2227,7 @@
         <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -2305,13 +2305,13 @@
         <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
@@ -2320,7 +2320,7 @@
         <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
         <v>1.46</v>
@@ -2329,10 +2329,10 @@
         <v>2.66</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
         <v>1.13</v>
@@ -2353,22 +2353,22 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
         <v>11</v>
       </c>
-      <c r="AC14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G15" t="n">
         <v>2.52</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
         <v>3.5</v>
@@ -2446,19 +2446,19 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P15" t="n">
         <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
         <v>3.5</v>
@@ -2467,10 +2467,10 @@
         <v>1.77</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
         <v>1.65</v>
@@ -2581,7 +2581,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
@@ -2695,7 +2695,7 @@
         <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
         <v>2.98</v>
@@ -2716,7 +2716,7 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
         <v>1.26</v>
@@ -2725,7 +2725,7 @@
         <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R17" t="n">
         <v>1.41</v>
@@ -2833,7 +2833,7 @@
         <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -2851,7 +2851,7 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O18" t="n">
         <v>1.29</v>
@@ -2860,16 +2860,16 @@
         <v>1.96</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="R18" t="n">
         <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
         <v>2.1</v>
@@ -2878,7 +2878,7 @@
         <v>1.31</v>
       </c>
       <c r="W18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X18" t="n">
         <v>980</v>
@@ -2992,10 +2992,10 @@
         <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R19" t="n">
         <v>1.63</v>
@@ -3010,7 +3010,7 @@
         <v>2.36</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W19" t="n">
         <v>2.4</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G20" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="I20" t="n">
         <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
         <v>3.3</v>
@@ -3121,7 +3121,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O20" t="n">
         <v>1.34</v>
@@ -3130,16 +3130,16 @@
         <v>1.93</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T20" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="n">
         <v>2.18</v>
@@ -3148,10 +3148,10 @@
         <v>1.47</v>
       </c>
       <c r="W20" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X20" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
         <v>12.5</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G21" t="n">
         <v>2.12</v>
@@ -3268,7 +3268,7 @@
         <v>1.72</v>
       </c>
       <c r="R21" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="n">
         <v>2.68</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G22" t="n">
         <v>3.95</v>
       </c>
       <c r="H22" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I22" t="n">
         <v>2.32</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,7 +3391,7 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -3421,7 +3421,7 @@
         <v>1.34</v>
       </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
         <v>980</v>
@@ -3460,10 +3460,10 @@
         <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3505,22 +3505,22 @@
         <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H23" t="n">
         <v>2.94</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -3535,25 +3535,25 @@
         <v>2.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R23" t="n">
         <v>1.55</v>
       </c>
       <c r="S23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U23" t="n">
         <v>2.48</v>
       </c>
-      <c r="T23" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.46</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W23" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
         <v>24</v>
@@ -3589,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G24" t="n">
         <v>2.42</v>
@@ -3649,13 +3649,13 @@
         <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3667,16 +3667,16 @@
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S24" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T24" t="n">
         <v>1.6</v>
@@ -3688,7 +3688,7 @@
         <v>1.46</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X24" t="n">
         <v>25</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3802,7 +3802,7 @@
         <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
         <v>1.58</v>
@@ -3820,10 +3820,10 @@
         <v>2.3</v>
       </c>
       <c r="V25" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X25" t="n">
         <v>29</v>
@@ -3916,10 +3916,10 @@
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
         <v>4.5</v>
@@ -3946,7 +3946,7 @@
         <v>1.37</v>
       </c>
       <c r="S26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T26" t="n">
         <v>1.69</v>
@@ -3955,7 +3955,7 @@
         <v>2.14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W26" t="n">
         <v>1.73</v>
@@ -4051,43 +4051,43 @@
         <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J27" t="n">
         <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R27" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="T27" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.89</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.93</v>
       </c>
       <c r="V27" t="n">
         <v>1.11</v>
@@ -4096,7 +4096,7 @@
         <v>3.05</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y27" t="n">
         <v>1000</v>
@@ -4138,13 +4138,13 @@
         <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
         <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4183,16 +4183,16 @@
         <v>2.04</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L28" t="n">
         <v>1.25</v>
@@ -4210,16 +4210,16 @@
         <v>2.78</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R28" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S28" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T28" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="U28" t="n">
         <v>2.66</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G29" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H29" t="n">
         <v>6</v>
@@ -4324,10 +4324,10 @@
         <v>7.2</v>
       </c>
       <c r="J29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K29" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,7 +4336,7 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.18</v>
@@ -4351,10 +4351,10 @@
         <v>1.62</v>
       </c>
       <c r="S29" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="T29" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U29" t="n">
         <v>2.16</v>
@@ -4363,7 +4363,7 @@
         <v>1.16</v>
       </c>
       <c r="W29" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G30" t="n">
         <v>2.9</v>
@@ -4456,10 +4456,10 @@
         <v>2.42</v>
       </c>
       <c r="I30" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J30" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K30" t="n">
         <v>4.5</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
         <v>4.3</v>
       </c>
       <c r="J31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K31" t="n">
         <v>4.7</v>
@@ -4612,22 +4612,22 @@
         <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R31" t="n">
         <v>1.63</v>
       </c>
       <c r="S31" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="T31" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U31" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V31" t="n">
         <v>1.3</v>
@@ -4747,25 +4747,25 @@
         <v>1.15</v>
       </c>
       <c r="P32" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q32" t="n">
         <v>1.45</v>
       </c>
       <c r="R32" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S32" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V32" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="W32" t="n">
         <v>1.13</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
         <v>4.1</v>
       </c>
       <c r="H33" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I33" t="n">
         <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.04</v>
       </c>
       <c r="J33" t="n">
         <v>3.95</v>
@@ -4888,22 +4888,22 @@
         <v>1.63</v>
       </c>
       <c r="R33" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S33" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T33" t="n">
         <v>1.56</v>
       </c>
       <c r="U33" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V33" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X33" t="n">
         <v>980</v>
@@ -4912,13 +4912,13 @@
         <v>14</v>
       </c>
       <c r="Z33" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AA33" t="n">
         <v>980</v>
       </c>
       <c r="AB33" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AC33" t="n">
         <v>10.5</v>
@@ -4948,7 +4948,7 @@
         <v>980</v>
       </c>
       <c r="AL33" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
@@ -4990,37 +4990,37 @@
         <v>2.14</v>
       </c>
       <c r="G34" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
         <v>4.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O34" t="n">
         <v>1.29</v>
       </c>
       <c r="P34" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="R34" t="n">
         <v>1.36</v>
@@ -5029,16 +5029,16 @@
         <v>3.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U34" t="n">
         <v>2.12</v>
       </c>
       <c r="V34" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W34" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5074,7 +5074,7 @@
         <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ34" t="n">
         <v>980</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G35" t="n">
         <v>3.1</v>
@@ -5140,22 +5140,22 @@
         <v>4.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="O35" t="n">
         <v>1.21</v>
       </c>
       <c r="P35" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="R35" t="n">
         <v>1.52</v>
@@ -5164,10 +5164,10 @@
         <v>2.44</v>
       </c>
       <c r="T35" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U35" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V35" t="n">
         <v>1.6</v>
@@ -5257,46 +5257,46 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="G36" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S36" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4.2</v>
       </c>
       <c r="T36" t="n">
         <v>1.96</v>
@@ -5305,61 +5305,61 @@
         <v>1.87</v>
       </c>
       <c r="V36" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W36" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5398,7 +5398,7 @@
         <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I37" t="n">
         <v>4.3</v>
@@ -5416,19 +5416,19 @@
         <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O37" t="n">
         <v>1.38</v>
       </c>
       <c r="P37" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q37" t="n">
         <v>2.14</v>
       </c>
       <c r="R37" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S37" t="n">
         <v>3.95</v>
@@ -5437,7 +5437,7 @@
         <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V37" t="n">
         <v>1.3</v>
@@ -5476,7 +5476,7 @@
         <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
@@ -5494,7 +5494,7 @@
         <v>160</v>
       </c>
       <c r="AN37" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,31 +5527,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G38" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H38" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
         <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K38" t="n">
         <v>4.8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M38" t="n">
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.17</v>
@@ -5560,34 +5560,34 @@
         <v>2.54</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R38" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S38" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="T38" t="n">
         <v>1.54</v>
       </c>
       <c r="U38" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V38" t="n">
         <v>1.28</v>
       </c>
       <c r="W38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X38" t="n">
         <v>29</v>
       </c>
       <c r="Y38" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
@@ -5596,10 +5596,10 @@
         <v>14.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE38" t="n">
         <v>44</v>
@@ -5614,7 +5614,7 @@
         <v>17</v>
       </c>
       <c r="AI38" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
         <v>23</v>
@@ -5626,13 +5626,13 @@
         <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO38" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H39" t="n">
         <v>2.36</v>
       </c>
       <c r="I39" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J39" t="n">
         <v>3.35</v>
@@ -5686,7 +5686,7 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O39" t="n">
         <v>1.32</v>
@@ -5695,25 +5695,25 @@
         <v>1.91</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R39" t="n">
         <v>1.35</v>
       </c>
       <c r="S39" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T39" t="n">
         <v>1.7</v>
       </c>
       <c r="U39" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V39" t="n">
         <v>1.62</v>
       </c>
       <c r="W39" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X39" t="n">
         <v>18</v>
@@ -5761,7 +5761,7 @@
         <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN39" t="n">
         <v>1000</v>
@@ -5803,16 +5803,16 @@
         <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K40" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5830,10 +5830,10 @@
         <v>1.57</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="R40" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5845,7 +5845,7 @@
         <v>1.86</v>
       </c>
       <c r="V40" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W40" t="n">
         <v>1.45</v>
@@ -5857,10 +5857,10 @@
         <v>9.4</v>
       </c>
       <c r="Z40" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB40" t="n">
         <v>9.800000000000001</v>
@@ -5869,22 +5869,22 @@
         <v>6.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE40" t="n">
         <v>980</v>
       </c>
       <c r="AF40" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG40" t="n">
         <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI40" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ40" t="n">
         <v>60</v>
@@ -5938,28 +5938,28 @@
         <v>3.3</v>
       </c>
       <c r="H41" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I41" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O41" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -5968,7 +5968,7 @@
         <v>1.46</v>
       </c>
       <c r="R41" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S41" t="n">
         <v>2.12</v>
@@ -5980,7 +5980,7 @@
         <v>3.05</v>
       </c>
       <c r="V41" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W41" t="n">
         <v>1.43</v>
@@ -6010,7 +6010,7 @@
         <v>19.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG41" t="n">
         <v>15</v>
@@ -6037,7 +6037,7 @@
         <v>16</v>
       </c>
       <c r="AO41" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -6070,34 +6070,34 @@
         <v>2.76</v>
       </c>
       <c r="G42" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I42" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
         <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M42" t="n">
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q42" t="n">
         <v>2.22</v>
@@ -6112,13 +6112,13 @@
         <v>1.86</v>
       </c>
       <c r="U42" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V42" t="n">
         <v>1.5</v>
       </c>
       <c r="W42" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X42" t="n">
         <v>11</v>
@@ -6208,7 +6208,7 @@
         <v>4.1</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I43" t="n">
         <v>2.04</v>
@@ -6217,7 +6217,7 @@
         <v>3.85</v>
       </c>
       <c r="K43" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L43" t="n">
         <v>1.35</v>
@@ -6226,28 +6226,28 @@
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R43" t="n">
         <v>1.5</v>
       </c>
       <c r="S43" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T43" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U43" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V43" t="n">
         <v>1.96</v>
@@ -6256,19 +6256,19 @@
         <v>1.32</v>
       </c>
       <c r="X43" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y43" t="n">
         <v>11.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA43" t="n">
         <v>24</v>
       </c>
       <c r="AB43" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC43" t="n">
         <v>8.800000000000001</v>
@@ -6277,7 +6277,7 @@
         <v>10.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="n">
         <v>30</v>
@@ -6289,7 +6289,7 @@
         <v>16</v>
       </c>
       <c r="AI43" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ43" t="n">
         <v>75</v>
@@ -6367,10 +6367,10 @@
         <v>1.34</v>
       </c>
       <c r="P44" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
         <v>1.35</v>
@@ -6391,7 +6391,7 @@
         <v>2.4</v>
       </c>
       <c r="X44" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y44" t="n">
         <v>19</v>
@@ -6436,7 +6436,7 @@
         <v>38</v>
       </c>
       <c r="AM44" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN44" t="n">
         <v>11</v>
@@ -6502,7 +6502,7 @@
         <v>1.64</v>
       </c>
       <c r="P45" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q45" t="n">
         <v>3</v>
@@ -6610,16 +6610,16 @@
         <v>1.65</v>
       </c>
       <c r="G46" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H46" t="n">
         <v>6.2</v>
       </c>
       <c r="I46" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K46" t="n">
         <v>4</v>
@@ -6634,31 +6634,31 @@
         <v>3.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P46" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R46" t="n">
         <v>1.29</v>
       </c>
       <c r="S46" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T46" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U46" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V46" t="n">
         <v>1.16</v>
       </c>
       <c r="W46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X46" t="n">
         <v>15.5</v>
@@ -6670,7 +6670,7 @@
         <v>55</v>
       </c>
       <c r="AA46" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB46" t="n">
         <v>7.2</v>
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G47" t="n">
         <v>3.3</v>
       </c>
       <c r="H47" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I47" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J47" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K47" t="n">
         <v>4</v>
@@ -6766,19 +6766,19 @@
         <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O47" t="n">
         <v>1.26</v>
       </c>
       <c r="P47" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q47" t="n">
         <v>1.76</v>
       </c>
       <c r="R47" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S47" t="n">
         <v>2.92</v>
@@ -6787,7 +6787,7 @@
         <v>1.64</v>
       </c>
       <c r="U47" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V47" t="n">
         <v>1.66</v>
@@ -6799,7 +6799,7 @@
         <v>22</v>
       </c>
       <c r="Y47" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z47" t="n">
         <v>21</v>
@@ -6886,16 +6886,16 @@
         <v>2.3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J48" t="n">
         <v>3.35</v>
       </c>
       <c r="K48" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L48" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
@@ -6925,7 +6925,7 @@
         <v>2.04</v>
       </c>
       <c r="V48" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W48" t="n">
         <v>1.37</v>
@@ -6973,7 +6973,7 @@
         <v>55</v>
       </c>
       <c r="AL48" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM48" t="n">
         <v>130</v>
@@ -7012,31 +7012,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G49" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H49" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J49" t="n">
         <v>3.4</v>
       </c>
       <c r="K49" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L49" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M49" t="n">
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O49" t="n">
         <v>1.34</v>
@@ -7060,10 +7060,10 @@
         <v>2.1</v>
       </c>
       <c r="V49" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W49" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X49" t="n">
         <v>16.5</v>
@@ -7078,7 +7078,7 @@
         <v>65</v>
       </c>
       <c r="AB49" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AC49" t="n">
         <v>8</v>
@@ -7150,7 +7150,7 @@
         <v>2.16</v>
       </c>
       <c r="G50" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H50" t="n">
         <v>3.25</v>
@@ -7162,7 +7162,7 @@
         <v>3.25</v>
       </c>
       <c r="K50" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7171,7 +7171,7 @@
         <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O50" t="n">
         <v>1.32</v>
@@ -7186,13 +7186,13 @@
         <v>1.35</v>
       </c>
       <c r="S50" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T50" t="n">
         <v>1.71</v>
       </c>
       <c r="U50" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V50" t="n">
         <v>1.36</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G52" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H52" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I52" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J52" t="n">
         <v>5.5</v>
       </c>
       <c r="K52" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L52" t="n">
         <v>1.31</v>
@@ -7441,7 +7441,7 @@
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O52" t="n">
         <v>1.2</v>
@@ -7456,19 +7456,19 @@
         <v>1.55</v>
       </c>
       <c r="S52" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T52" t="n">
         <v>1.99</v>
       </c>
       <c r="U52" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V52" t="n">
         <v>1.08</v>
       </c>
       <c r="W52" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X52" t="n">
         <v>29</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.68</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I2" t="n">
         <v>2.92</v>
@@ -700,13 +700,13 @@
         <v>1.97</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T2" t="n">
         <v>1.75</v>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
         <v>980</v>
@@ -1108,13 +1108,13 @@
         <v>1.58</v>
       </c>
       <c r="R5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U5" t="n">
         <v>2.48</v>
@@ -1342,55 +1342,55 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="U7" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W7" t="n">
         <v>2</v>
@@ -1399,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,19 +1408,19 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
         <v>20</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
@@ -1432,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G9" t="n">
         <v>1.87</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>1000</v>
@@ -1627,7 +1627,7 @@
         <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>4.3</v>
@@ -1777,7 +1777,7 @@
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
         <v>1.94</v>
@@ -1789,10 +1789,10 @@
         <v>3.3</v>
       </c>
       <c r="T10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.89</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.87</v>
       </c>
       <c r="V10" t="n">
         <v>1.18</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="J11" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.45</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q11" t="n">
         <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
         <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="W11" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2068,13 +2068,13 @@
         <v>1.48</v>
       </c>
       <c r="W12" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z12" t="n">
         <v>23</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.95</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.97</v>
-      </c>
       <c r="H13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I13" t="n">
         <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>3.55</v>
@@ -2203,7 +2203,7 @@
         <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X13" t="n">
         <v>11.5</v>
@@ -2236,7 +2236,7 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>85</v>
@@ -2293,7 +2293,7 @@
         <v>1.56</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I14" t="n">
         <v>9.6</v>
@@ -2302,7 +2302,7 @@
         <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.27</v>
@@ -2422,64 +2422,64 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
         <v>2.52</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
         <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T15" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
         <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
@@ -2488,10 +2488,10 @@
         <v>65</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2521,7 +2521,7 @@
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
         <v>980</v>
@@ -2548,67 +2548,67 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SC Austria Lustenau</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="I16" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2626,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2683,28 +2683,28 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>FC Liefering</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>1.99</v>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
-        <v>2.98</v>
+        <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
@@ -2716,79 +2716,79 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="U17" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2818,112 +2818,112 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FC Liefering</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>SC Austria Lustenau</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.65</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.37</v>
       </c>
-      <c r="S18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.31</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,126 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>1.71</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>5.1</v>
+        <v>2.06</v>
       </c>
       <c r="I19" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>1.03</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>5.6</v>
+        <v>1.28</v>
       </c>
       <c r="O19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.18</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S19" t="n">
-        <v>2.36</v>
+        <v>1.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.61</v>
+        <v>1.04</v>
       </c>
       <c r="U19" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.7</v>
+        <v>1.66</v>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>1.71</v>
       </c>
       <c r="H20" t="n">
-        <v>2.96</v>
+        <v>5.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>3.65</v>
+        <v>5.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>1.93</v>
+        <v>2.62</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="R20" t="n">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="S20" t="n">
-        <v>3.55</v>
+        <v>2.36</v>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="V20" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="X20" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AA20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO20" t="n">
         <v>50</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Erzgebirge</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.97</v>
+        <v>2.68</v>
       </c>
       <c r="G21" t="n">
-        <v>2.12</v>
+        <v>2.76</v>
       </c>
       <c r="H21" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
         <v>3.65</v>
       </c>
-      <c r="I21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.3</v>
-      </c>
       <c r="O21" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>2.68</v>
+        <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="V21" t="n">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="W21" t="n">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB21" t="n">
         <v>11.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,118 +3358,118 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hillerod Fodbold</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Erzgebirge</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.35</v>
+        <v>1.97</v>
       </c>
       <c r="G22" t="n">
-        <v>3.95</v>
+        <v>2.12</v>
       </c>
       <c r="H22" t="n">
-        <v>2.16</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>2.32</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="R22" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="S22" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V22" t="n">
-        <v>1.75</v>
+        <v>1.32</v>
       </c>
       <c r="W22" t="n">
-        <v>1.34</v>
+        <v>1.89</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B93 Copenhagen</t>
+          <t>Hillerod Fodbold</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.22</v>
+        <v>3.35</v>
       </c>
       <c r="G23" t="n">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
-        <v>2.94</v>
+        <v>2.16</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>2.32</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.3</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.2</v>
-      </c>
       <c r="P23" t="n">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="R23" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="S23" t="n">
-        <v>2.26</v>
+        <v>3.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="W23" t="n">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="X23" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF23" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>B93 Copenhagen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="G24" t="n">
         <v>2.42</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
         <v>3.75</v>
       </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.32</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
         <v>4.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
         <v>2.28</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R24" t="n">
         <v>1.51</v>
       </c>
       <c r="S24" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="V24" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
         <v>1.7</v>
       </c>
       <c r="X24" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>2.34</v>
       </c>
       <c r="G25" t="n">
-        <v>5.1</v>
+        <v>2.42</v>
       </c>
       <c r="H25" t="n">
-        <v>1.72</v>
+        <v>3.05</v>
       </c>
       <c r="I25" t="n">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="S25" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U25" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="V25" t="n">
-        <v>2.14</v>
+        <v>1.46</v>
       </c>
       <c r="W25" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Z25" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AB25" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AE25" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AG25" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
         <v>980</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN25" t="n">
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3922,7 +3922,7 @@
         <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.41</v>
+        <v>4.3</v>
       </c>
       <c r="G27" t="n">
-        <v>1.49</v>
+        <v>5.1</v>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>1.72</v>
       </c>
       <c r="I27" t="n">
-        <v>9.4</v>
+        <v>1.75</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.24</v>
       </c>
-      <c r="P27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W27" t="n">
-        <v>3.05</v>
-      </c>
       <c r="X27" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA27" t="n">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.199999999999999</v>
+        <v>40</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.89</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N28" t="n">
-        <v>6</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.66</v>
-      </c>
       <c r="V28" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="W28" t="n">
-        <v>1.96</v>
+        <v>3.05</v>
       </c>
       <c r="X28" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Y28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK28" t="n">
         <v>16</v>
       </c>
-      <c r="AC28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AL28" t="n">
         <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4303,109 +4303,109 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="G29" t="n">
-        <v>1.58</v>
+        <v>2.04</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>7.2</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K29" t="n">
         <v>4.7</v>
       </c>
-      <c r="K29" t="n">
-        <v>5.4</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P29" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="R29" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="T29" t="n">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="U29" t="n">
-        <v>2.16</v>
+        <v>2.66</v>
       </c>
       <c r="V29" t="n">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="W29" t="n">
-        <v>2.72</v>
+        <v>1.96</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AC29" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -4438,67 +4438,67 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.64</v>
+        <v>1.49</v>
       </c>
       <c r="G30" t="n">
-        <v>2.9</v>
+        <v>1.58</v>
       </c>
       <c r="H30" t="n">
-        <v>2.42</v>
+        <v>6.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.66</v>
+        <v>7.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="K30" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="R30" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="S30" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="T30" t="n">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="U30" t="n">
-        <v>2.66</v>
+        <v>2.14</v>
       </c>
       <c r="V30" t="n">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="W30" t="n">
-        <v>1.52</v>
+        <v>2.72</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4510,13 +4510,13 @@
         <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -4525,22 +4525,22 @@
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4573,115 +4573,115 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.85</v>
+        <v>2.64</v>
       </c>
       <c r="G31" t="n">
-        <v>1.99</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="I31" t="n">
-        <v>4.3</v>
+        <v>2.66</v>
       </c>
       <c r="J31" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K31" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="T31" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="U31" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="V31" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
         <v>1000</v>
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.6</v>
+        <v>1.85</v>
       </c>
       <c r="G32" t="n">
-        <v>8.4</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
-        <v>1.44</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1.52</v>
+        <v>4.3</v>
       </c>
       <c r="J32" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="K32" t="n">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R32" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="S32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W32" t="n">
         <v>2.1</v>
       </c>
-      <c r="T32" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.13</v>
-      </c>
       <c r="X32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Z32" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AA32" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
         <v>980</v>
       </c>
       <c r="AC32" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AD32" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AE32" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="AF32" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AG32" t="n">
         <v>980</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI32" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ32" t="n">
-        <v>220</v>
+        <v>980</v>
       </c>
       <c r="AK32" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AL32" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AM32" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,67 +4843,67 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="G33" t="n">
-        <v>4.1</v>
+        <v>8.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.99</v>
+        <v>1.42</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="J33" t="n">
-        <v>3.95</v>
+        <v>5.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P33" t="n">
-        <v>2.44</v>
+        <v>2.88</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="R33" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="S33" t="n">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="U33" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="X33" t="n">
         <v>980</v>
@@ -4912,58 +4912,58 @@
         <v>14</v>
       </c>
       <c r="Z33" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AB33" t="n">
         <v>980</v>
       </c>
       <c r="AC33" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD33" t="n">
         <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AG33" t="n">
         <v>980</v>
       </c>
       <c r="AH33" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
         <v>980</v>
       </c>
       <c r="AJ33" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="AK33" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AL33" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>9.800000000000001</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,88 +4978,88 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Debreceni VSC</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.14</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>1.97</v>
       </c>
       <c r="I34" t="n">
-        <v>3.65</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K34" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="R34" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="S34" t="n">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="T34" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="U34" t="n">
-        <v>2.12</v>
+        <v>2.48</v>
       </c>
       <c r="V34" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>1.71</v>
+        <v>1.32</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y34" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z34" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB34" t="n">
         <v>980</v>
       </c>
       <c r="AC34" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE34" t="n">
         <v>980</v>
@@ -5074,16 +5074,16 @@
         <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AJ34" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK34" t="n">
         <v>980</v>
       </c>
       <c r="AL34" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
@@ -5092,13 +5092,13 @@
         <v>980</v>
       </c>
       <c r="AO34" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Debreceni VSC</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.74</v>
+        <v>2.18</v>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>2.66</v>
+        <v>3.45</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="R35" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="S35" t="n">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
       <c r="T35" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="U35" t="n">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="V35" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,123 +5243,123 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.93</v>
+        <v>2.74</v>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>4.3</v>
+        <v>2.36</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>2.66</v>
       </c>
       <c r="J36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="P36" t="n">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="R36" t="n">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1</v>
+        <v>2.44</v>
       </c>
       <c r="T36" t="n">
-        <v>1.96</v>
+        <v>1.56</v>
       </c>
       <c r="U36" t="n">
-        <v>1.87</v>
+        <v>2.44</v>
       </c>
       <c r="V36" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="W36" t="n">
-        <v>1.9</v>
+        <v>1.47</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5395,7 +5395,7 @@
         <v>2.1</v>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H37" t="n">
         <v>3.9</v>
@@ -5404,7 +5404,7 @@
         <v>4.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K37" t="n">
         <v>3.5</v>
@@ -5440,10 +5440,10 @@
         <v>1.98</v>
       </c>
       <c r="V37" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W37" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X37" t="n">
         <v>12.5</v>
@@ -5470,22 +5470,22 @@
         <v>70</v>
       </c>
       <c r="AF37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK37" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL37" t="n">
         <v>980</v>
@@ -5539,7 +5539,7 @@
         <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
         <v>4.8</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,118 +5788,118 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.98</v>
+        <v>1.72</v>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>1.88</v>
       </c>
       <c r="H40" t="n">
-        <v>2.78</v>
+        <v>5.3</v>
       </c>
       <c r="I40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N40" t="n">
         <v>3</v>
       </c>
-      <c r="J40" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.74</v>
-      </c>
       <c r="O40" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="P40" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="R40" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="V40" t="n">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="W40" t="n">
-        <v>1.45</v>
+        <v>2.12</v>
       </c>
       <c r="X40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG40" t="n">
         <v>11</v>
       </c>
-      <c r="Y40" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA40" t="n">
+      <c r="AH40" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
         <v>50</v>
       </c>
-      <c r="AB40" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>70</v>
-      </c>
       <c r="AM40" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H41" t="n">
-        <v>2.22</v>
+        <v>2.78</v>
       </c>
       <c r="I41" t="n">
-        <v>2.26</v>
+        <v>2.98</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>2.94</v>
       </c>
       <c r="K41" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="L41" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>2.78</v>
       </c>
       <c r="O41" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>1.59</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.46</v>
+        <v>2.48</v>
       </c>
       <c r="R41" t="n">
-        <v>1.83</v>
+        <v>1.22</v>
       </c>
       <c r="S41" t="n">
-        <v>2.12</v>
+        <v>5</v>
       </c>
       <c r="T41" t="n">
-        <v>1.45</v>
+        <v>1.99</v>
       </c>
       <c r="U41" t="n">
-        <v>3.05</v>
+        <v>1.86</v>
       </c>
       <c r="V41" t="n">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="W41" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X41" t="n">
-        <v>30</v>
+        <v>9.4</v>
       </c>
       <c r="Y41" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AB41" t="n">
-        <v>24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC41" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD41" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AE41" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AF41" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AG41" t="n">
         <v>15</v>
       </c>
       <c r="AH41" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AI41" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AJ41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL41" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AM41" t="n">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="AN41" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
-        <v>2.68</v>
+        <v>2.24</v>
       </c>
       <c r="I42" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P42" t="n">
         <v>3</v>
       </c>
-      <c r="J42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.67</v>
-      </c>
       <c r="Q42" t="n">
-        <v>2.22</v>
+        <v>1.47</v>
       </c>
       <c r="R42" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="S42" t="n">
-        <v>4.2</v>
+        <v>2.14</v>
       </c>
       <c r="T42" t="n">
-        <v>1.86</v>
+        <v>1.45</v>
       </c>
       <c r="U42" t="n">
-        <v>1.95</v>
+        <v>3.05</v>
       </c>
       <c r="V42" t="n">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
       <c r="W42" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="X42" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Y42" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z42" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AB42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC42" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC42" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH42" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE42" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>980</v>
-      </c>
       <c r="AI42" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AJ42" t="n">
         <v>55</v>
       </c>
       <c r="AK42" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>2.76</v>
       </c>
       <c r="G43" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
-        <v>2.02</v>
+        <v>2.68</v>
       </c>
       <c r="I43" t="n">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="K43" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>4.7</v>
+        <v>2.94</v>
       </c>
       <c r="O43" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R43" t="n">
         <v>1.25</v>
       </c>
-      <c r="P43" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V43" t="n">
         <v>1.5</v>
       </c>
-      <c r="S43" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.96</v>
-      </c>
       <c r="W43" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="X43" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Z43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD43" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA43" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE43" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AF43" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH43" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AI43" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AJ43" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AK43" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM43" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.69</v>
+        <v>3.95</v>
       </c>
       <c r="G44" t="n">
-        <v>1.71</v>
+        <v>4.1</v>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>2.02</v>
       </c>
       <c r="I44" t="n">
-        <v>6.2</v>
+        <v>2.04</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K44" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L44" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="O44" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>1.95</v>
+        <v>2.24</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="R44" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="U44" t="n">
-        <v>1.94</v>
+        <v>2.38</v>
       </c>
       <c r="V44" t="n">
-        <v>1.19</v>
+        <v>1.96</v>
       </c>
       <c r="W44" t="n">
-        <v>2.4</v>
+        <v>1.32</v>
       </c>
       <c r="X44" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z44" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y44" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>46</v>
-      </c>
       <c r="AA44" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="AB44" t="n">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="AC44" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD44" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.4</v>
+        <v>30</v>
       </c>
       <c r="AG44" t="n">
-        <v>9.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AH44" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AI44" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AJ44" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AK44" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AL44" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AM44" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AN44" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AO44" t="n">
-        <v>120</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.32</v>
+        <v>1.69</v>
       </c>
       <c r="G45" t="n">
-        <v>2.36</v>
+        <v>1.71</v>
       </c>
       <c r="H45" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J45" t="n">
         <v>4</v>
       </c>
-      <c r="I45" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3</v>
-      </c>
       <c r="K45" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="L45" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="M45" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="O45" t="n">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="P45" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="S45" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="T45" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="U45" t="n">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="V45" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="W45" t="n">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="X45" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AA45" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AB45" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AC45" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD45" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AE45" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF45" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AG45" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH45" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI45" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO45" t="n">
         <v>120</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="G46" t="n">
-        <v>1.71</v>
+        <v>2.38</v>
       </c>
       <c r="H46" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S46" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X46" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC46" t="n">
         <v>7</v>
       </c>
-      <c r="J46" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W46" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y46" t="n">
+      <c r="AD46" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>980</v>
-      </c>
       <c r="AE46" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI46" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO46" t="n">
         <v>130</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.98</v>
+        <v>1.66</v>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
-        <v>2.32</v>
+        <v>6.2</v>
       </c>
       <c r="I47" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K47" t="n">
         <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="P47" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="R47" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="S47" t="n">
-        <v>2.92</v>
+        <v>4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.64</v>
+        <v>2.06</v>
       </c>
       <c r="U47" t="n">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="V47" t="n">
-        <v>1.66</v>
+        <v>1.17</v>
       </c>
       <c r="W47" t="n">
-        <v>1.44</v>
+        <v>2.42</v>
       </c>
       <c r="X47" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AA47" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="AB47" t="n">
-        <v>17.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE47" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="AF47" t="n">
-        <v>28</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG47" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI47" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK47" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL47" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM47" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AN47" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AO47" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,126 +6863,126 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U48" t="n">
         <v>2.3</v>
       </c>
-      <c r="I48" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N48" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U48" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V48" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="W48" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="X48" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y48" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AA48" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AB48" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AC48" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD48" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE48" t="n">
         <v>30</v>
       </c>
       <c r="AF48" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AG48" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH48" t="n">
         <v>19.5</v>
       </c>
-      <c r="AH48" t="n">
-        <v>980</v>
-      </c>
       <c r="AI48" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AJ48" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AL48" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM48" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AN48" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AO48" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -6998,54 +6998,54 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.26</v>
+        <v>3.45</v>
       </c>
       <c r="G49" t="n">
-        <v>2.42</v>
+        <v>3.7</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.65</v>
+        <v>2.38</v>
       </c>
       <c r="J49" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K49" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L49" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M49" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O49" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P49" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R49" t="n">
         <v>1.33</v>
@@ -7054,76 +7054,76 @@
         <v>3.55</v>
       </c>
       <c r="T49" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U49" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V49" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W49" t="n">
         <v>1.37</v>
       </c>
-      <c r="W49" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X49" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AA49" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AB49" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD49" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF49" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG49" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AH49" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI49" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL49" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>980</v>
       </c>
       <c r="AM49" t="n">
         <v>120</v>
       </c>
       <c r="AN49" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,75 +7133,75 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LDU</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Independiente (Ecu)</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="G50" t="n">
         <v>2.4</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I50" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J50" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O50" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P50" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S50" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="T50" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W50" t="n">
         <v>1.71</v>
       </c>
-      <c r="U50" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.72</v>
-      </c>
       <c r="X50" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Y50" t="n">
         <v>980</v>
@@ -7210,31 +7210,31 @@
         <v>980</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB50" t="n">
         <v>980</v>
       </c>
       <c r="AC50" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AD50" t="n">
         <v>980</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG50" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH50" t="n">
         <v>980</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ50" t="n">
         <v>980</v>
@@ -7246,13 +7246,13 @@
         <v>980</v>
       </c>
       <c r="AM50" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN50" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AO50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
@@ -7393,135 +7393,270 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LDU</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Independiente (Ecu)</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X52" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>2025-11-28</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Santos</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Sport Recife</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="F53" t="n">
         <v>1.33</v>
       </c>
-      <c r="G52" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H52" t="n">
+      <c r="G53" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H53" t="n">
         <v>10.5</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I53" t="n">
         <v>12.5</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J53" t="n">
         <v>5.5</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K53" t="n">
         <v>6</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L53" t="n">
         <v>1.31</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M53" t="n">
         <v>1.04</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N53" t="n">
         <v>5.1</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O53" t="n">
         <v>1.2</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P53" t="n">
         <v>2.4</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q53" t="n">
         <v>1.61</v>
       </c>
-      <c r="R52" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S52" t="n">
+      <c r="R53" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S53" t="n">
         <v>2.56</v>
       </c>
-      <c r="T52" t="n">
+      <c r="T53" t="n">
         <v>1.99</v>
       </c>
-      <c r="U52" t="n">
+      <c r="U53" t="n">
         <v>1.86</v>
       </c>
-      <c r="V52" t="n">
+      <c r="V53" t="n">
         <v>1.08</v>
       </c>
-      <c r="W52" t="n">
+      <c r="W53" t="n">
         <v>3.6</v>
       </c>
-      <c r="X52" t="n">
+      <c r="X53" t="n">
         <v>29</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Y53" t="n">
         <v>44</v>
       </c>
-      <c r="Z52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB52" t="n">
+      <c r="Z53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB53" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC52" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF52" t="n">
+      <c r="AC53" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF53" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AG52" t="n">
+      <c r="AG53" t="n">
         <v>11</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AH53" t="n">
         <v>29</v>
       </c>
-      <c r="AI52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ52" t="n">
+      <c r="AI53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ53" t="n">
         <v>12</v>
       </c>
-      <c r="AK52" t="n">
+      <c r="AK53" t="n">
         <v>15</v>
       </c>
-      <c r="AL52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN52" t="n">
+      <c r="AL53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN53" t="n">
         <v>5.4</v>
       </c>
-      <c r="AO52" t="n">
+      <c r="AO53" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -670,13 +670,13 @@
         <v>2.64</v>
       </c>
       <c r="G2" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H2" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
         <v>3.55</v>
@@ -700,7 +700,7 @@
         <v>1.97</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R2" t="n">
         <v>1.37</v>
@@ -718,7 +718,7 @@
         <v>1.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X2" t="n">
         <v>14</v>
@@ -763,7 +763,7 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
         <v>90</v>
@@ -772,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
         <v>2.24</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
         <v>1.26</v>
@@ -970,16 +970,16 @@
         <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R4" t="n">
         <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
         <v>2.16</v>
@@ -1084,19 +1084,19 @@
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1105,19 +1105,19 @@
         <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="T5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U5" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
         <v>1.5</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H6" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I6" t="n">
         <v>3.25</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J7" t="n">
         <v>3.7</v>
@@ -1375,13 +1375,13 @@
         <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T7" t="n">
         <v>1.68</v>
@@ -1390,64 +1390,64 @@
         <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
         <v>2</v>
       </c>
       <c r="X7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD7" t="n">
         <v>22</v>
       </c>
-      <c r="Y7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>20</v>
-      </c>
       <c r="AE7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK7" t="n">
         <v>23</v>
       </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="I8" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G9" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>1.28</v>
       </c>
       <c r="I9" t="n">
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>1.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
         <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1807,7 +1807,7 @@
         <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
         <v>980</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="G11" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="J11" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="O11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
         <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="W11" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
         <v>2.68</v>
       </c>
       <c r="H12" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I12" t="n">
         <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
         <v>1.69</v>
       </c>
       <c r="R12" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
         <v>1.59</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -2161,13 +2161,13 @@
         <v>4.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.51</v>
@@ -2188,16 +2188,16 @@
         <v>2.22</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
         <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V13" t="n">
         <v>1.25</v>
@@ -2212,7 +2212,7 @@
         <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="n">
         <v>130</v>
@@ -2224,10 +2224,10 @@
         <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -2239,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AJ13" t="n">
         <v>23</v>
@@ -2251,7 +2251,7 @@
         <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AN13" t="n">
         <v>18.5</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G14" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="H14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I14" t="n">
         <v>9.6</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.27</v>
@@ -2314,7 +2314,7 @@
         <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
         <v>2.16</v>
@@ -2326,7 +2326,7 @@
         <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="T14" t="n">
         <v>1.85</v>
@@ -2338,7 +2338,7 @@
         <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2425,16 +2425,16 @@
         <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>3.6</v>
@@ -2443,31 +2443,31 @@
         <v>1.43</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
         <v>1.4</v>
@@ -2476,58 +2476,58 @@
         <v>1.66</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AA15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,31 +2557,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
         <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
@@ -2590,13 +2590,13 @@
         <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
         <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>2.92</v>
+        <v>2.64</v>
       </c>
       <c r="T16" t="n">
         <v>1.64</v>
@@ -2605,7 +2605,7 @@
         <v>2.24</v>
       </c>
       <c r="V16" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
         <v>1.65</v>
@@ -2623,10 +2623,10 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2638,7 +2638,7 @@
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
         <v>1000</v>
@@ -2692,28 +2692,28 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
         <v>3.75</v>
@@ -2722,10 +2722,10 @@
         <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
         <v>1.37</v>
@@ -2737,19 +2737,19 @@
         <v>1.72</v>
       </c>
       <c r="U17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W17" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X17" t="n">
         <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
         <v>980</v>
@@ -2764,7 +2764,7 @@
         <v>980</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2776,7 +2776,7 @@
         <v>980</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2836,7 +2836,7 @@
         <v>3.15</v>
       </c>
       <c r="I18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
         <v>3.35</v>
@@ -2848,7 +2848,7 @@
         <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
         <v>3.65</v>
@@ -2860,13 +2860,13 @@
         <v>2.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="R18" t="n">
         <v>1.35</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="T18" t="n">
         <v>1.71</v>
@@ -2884,7 +2884,7 @@
         <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2908,7 +2908,7 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2968,7 +2968,7 @@
         <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
         <v>1000</v>
@@ -2986,13 +2986,13 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q19" t="n">
         <v>1.01</v>
@@ -3013,7 +3013,7 @@
         <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G20" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I20" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K20" t="n">
         <v>4.7</v>
@@ -3130,10 +3130,10 @@
         <v>2.62</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S20" t="n">
         <v>2.36</v>
@@ -3142,67 +3142,67 @@
         <v>1.61</v>
       </c>
       <c r="U20" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V20" t="n">
         <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X20" t="n">
         <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z20" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AA20" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK20" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G21" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
         <v>3.05</v>
@@ -3256,10 +3256,10 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
         <v>1.93</v>
@@ -3283,13 +3283,13 @@
         <v>1.48</v>
       </c>
       <c r="W21" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
         <v>20</v>
@@ -3316,19 +3316,19 @@
         <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI21" t="n">
         <v>980</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="n">
         <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
         <v>90</v>
@@ -3337,7 +3337,7 @@
         <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G22" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
         <v>3.65</v>
@@ -3385,7 +3385,7 @@
         <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3412,67 +3412,67 @@
         <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V22" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W22" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="X22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD22" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AE22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF22" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
         <v>15</v>
       </c>
-      <c r="AG22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>13</v>
-      </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="H23" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,7 +3526,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O23" t="n">
         <v>1.3</v>
@@ -3535,70 +3535,70 @@
         <v>1.98</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="R23" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S23" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V23" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W23" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
         <v>980</v>
       </c>
       <c r="AG23" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="G24" t="n">
         <v>2.42</v>
@@ -3646,16 +3646,16 @@
         <v>2.96</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -3667,82 +3667,82 @@
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R24" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>2.66</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
         <v>1.58</v>
       </c>
       <c r="U24" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="V24" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W24" t="n">
         <v>1.7</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD24" t="n">
         <v>17</v>
       </c>
-      <c r="Z24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>15</v>
-      </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF24" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>2.34</v>
       </c>
       <c r="G25" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H25" t="n">
         <v>3.05</v>
@@ -3784,7 +3784,7 @@
         <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
         <v>3.95</v>
@@ -3805,7 +3805,7 @@
         <v>2.28</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R25" t="n">
         <v>1.51</v>
@@ -3820,7 +3820,7 @@
         <v>2.42</v>
       </c>
       <c r="V25" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W25" t="n">
         <v>1.7</v>
@@ -3829,55 +3829,55 @@
         <v>25</v>
       </c>
       <c r="Y25" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AA25" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -3910,34 +3910,34 @@
         <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
@@ -3949,16 +3949,16 @@
         <v>3.15</v>
       </c>
       <c r="T26" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -3973,10 +3973,10 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -3985,10 +3985,10 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
         <v>1000</v>
@@ -4051,7 +4051,7 @@
         <v>1.72</v>
       </c>
       <c r="I27" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="J27" t="n">
         <v>4</v>
@@ -4060,7 +4060,7 @@
         <v>4.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4081,10 +4081,10 @@
         <v>1.55</v>
       </c>
       <c r="S27" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T27" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U27" t="n">
         <v>2.3</v>
@@ -4099,55 +4099,55 @@
         <v>29</v>
       </c>
       <c r="Y27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD27" t="n">
         <v>13</v>
       </c>
-      <c r="Z27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AE27" t="n">
         <v>21</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AF27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG27" t="n">
         <v>23</v>
       </c>
-      <c r="AC27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ27" t="n">
         <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO27" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -4180,13 +4180,13 @@
         <v>1.41</v>
       </c>
       <c r="G28" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H28" t="n">
         <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="J28" t="n">
         <v>5</v>
@@ -4195,10 +4195,10 @@
         <v>5.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
         <v>4.4</v>
@@ -4207,16 +4207,16 @@
         <v>1.24</v>
       </c>
       <c r="P28" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R28" t="n">
         <v>1.47</v>
       </c>
       <c r="S28" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T28" t="n">
         <v>1.94</v>
@@ -4225,7 +4225,7 @@
         <v>1.89</v>
       </c>
       <c r="V28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W28" t="n">
         <v>3.05</v>
@@ -4234,52 +4234,52 @@
         <v>25</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE28" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI28" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4318,19 +4318,19 @@
         <v>2.04</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
       </c>
       <c r="J29" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K29" t="n">
         <v>4.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -4342,7 +4342,7 @@
         <v>1.16</v>
       </c>
       <c r="P29" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q29" t="n">
         <v>1.48</v>
@@ -4366,10 +4366,10 @@
         <v>1.96</v>
       </c>
       <c r="X29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4378,34 +4378,34 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4450,19 +4450,19 @@
         <v>1.49</v>
       </c>
       <c r="G30" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H30" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J30" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,7 +4471,7 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O30" t="n">
         <v>1.18</v>
@@ -4480,31 +4480,31 @@
         <v>2.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R30" t="n">
         <v>1.62</v>
       </c>
       <c r="S30" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="T30" t="n">
         <v>1.69</v>
       </c>
       <c r="U30" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4513,43 +4513,43 @@
         <v>190</v>
       </c>
       <c r="AB30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG30" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="H31" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I31" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L31" t="n">
         <v>1.26</v>
@@ -4612,7 +4612,7 @@
         <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q31" t="n">
         <v>1.5</v>
@@ -4621,40 +4621,40 @@
         <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="T31" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U31" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V31" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W31" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
@@ -4663,10 +4663,10 @@
         <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
@@ -4684,10 +4684,10 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="32">
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="H32" t="n">
         <v>4.2</v>
@@ -4729,37 +4729,37 @@
         <v>4.3</v>
       </c>
       <c r="J32" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="R32" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="T32" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U32" t="n">
         <v>2.52</v>
@@ -4768,58 +4768,58 @@
         <v>1.3</v>
       </c>
       <c r="W32" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G33" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
         <v>1.42</v>
@@ -4867,16 +4867,16 @@
         <v>5.3</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.15</v>
@@ -4885,7 +4885,7 @@
         <v>2.88</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R33" t="n">
         <v>1.75</v>
@@ -4903,61 +4903,61 @@
         <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X33" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4987,25 +4987,25 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G34" t="n">
         <v>4.1</v>
       </c>
       <c r="H34" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J34" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -5023,76 +5023,76 @@
         <v>1.63</v>
       </c>
       <c r="R34" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S34" t="n">
         <v>2.48</v>
       </c>
       <c r="T34" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="U34" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W34" t="n">
         <v>1.32</v>
       </c>
       <c r="X34" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Y34" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Z34" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AA34" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AB34" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AC34" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO34" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G35" t="n">
         <v>2.4</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I35" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>1.33</v>
@@ -5155,7 +5155,7 @@
         <v>1.95</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R35" t="n">
         <v>1.36</v>
@@ -5188,10 +5188,10 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
         <v>980</v>
@@ -5200,31 +5200,31 @@
         <v>980</v>
       </c>
       <c r="AF35" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>980</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G36" t="n">
         <v>3.1</v>
@@ -5272,7 +5272,7 @@
         <v>3.3</v>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>1.26</v>
@@ -5281,7 +5281,7 @@
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.21</v>
@@ -5290,13 +5290,13 @@
         <v>2.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="R36" t="n">
         <v>1.52</v>
       </c>
       <c r="S36" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="T36" t="n">
         <v>1.56</v>
@@ -5326,10 +5326,10 @@
         <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
@@ -5395,7 +5395,7 @@
         <v>2.1</v>
       </c>
       <c r="G37" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
         <v>3.9</v>
@@ -5404,13 +5404,13 @@
         <v>4.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
         <v>3.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M37" t="n">
         <v>1.09</v>
@@ -5419,16 +5419,16 @@
         <v>3.25</v>
       </c>
       <c r="O37" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q37" t="n">
         <v>2.14</v>
       </c>
       <c r="R37" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S37" t="n">
         <v>3.95</v>
@@ -5440,28 +5440,28 @@
         <v>1.98</v>
       </c>
       <c r="V37" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X37" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Z37" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD37" t="n">
         <v>21</v>
@@ -5470,31 +5470,31 @@
         <v>70</v>
       </c>
       <c r="AF37" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
         <v>80</v>
       </c>
       <c r="AJ37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK37" t="n">
         <v>32</v>
       </c>
-      <c r="AK37" t="n">
-        <v>29</v>
-      </c>
       <c r="AL37" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM37" t="n">
         <v>160</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G38" t="n">
         <v>1.98</v>
@@ -5563,16 +5563,16 @@
         <v>1.52</v>
       </c>
       <c r="R38" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S38" t="n">
         <v>2.3</v>
       </c>
       <c r="T38" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U38" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V38" t="n">
         <v>1.28</v>
@@ -5581,55 +5581,55 @@
         <v>2.02</v>
       </c>
       <c r="X38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB38" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
         <v>18</v>
       </c>
-      <c r="AE38" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AG38" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ38" t="n">
         <v>23</v>
       </c>
       <c r="AK38" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G39" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H39" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
         <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
@@ -5692,16 +5692,16 @@
         <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R39" t="n">
         <v>1.35</v>
       </c>
       <c r="S39" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T39" t="n">
         <v>1.7</v>
@@ -5710,64 +5710,64 @@
         <v>2.16</v>
       </c>
       <c r="V39" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W39" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X39" t="n">
         <v>18</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z39" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB39" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD39" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG39" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AH39" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM39" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO39" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -5797,67 +5797,67 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G40" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H40" t="n">
         <v>5.3</v>
       </c>
       <c r="I40" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J40" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K40" t="n">
         <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O40" t="n">
         <v>1.39</v>
       </c>
       <c r="P40" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="R40" t="n">
         <v>1.26</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="T40" t="n">
         <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V40" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W40" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X40" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
@@ -5866,40 +5866,40 @@
         <v>8.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG40" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G41" t="n">
         <v>3.25</v>
       </c>
       <c r="H41" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I41" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J41" t="n">
         <v>2.98</v>
       </c>
-      <c r="J41" t="n">
-        <v>2.94</v>
-      </c>
       <c r="K41" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5971,73 +5971,73 @@
         <v>1.22</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T41" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V41" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="W41" t="n">
         <v>1.44</v>
       </c>
       <c r="X41" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Y41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z41" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AA41" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC41" t="n">
         <v>6.8</v>
       </c>
       <c r="AD41" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF41" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI41" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL41" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
         <v>180</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -6070,7 +6070,7 @@
         <v>3.2</v>
       </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H42" t="n">
         <v>2.24</v>
@@ -6118,7 +6118,7 @@
         <v>1.79</v>
       </c>
       <c r="W42" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X42" t="n">
         <v>30</v>
@@ -6130,7 +6130,7 @@
         <v>19.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB42" t="n">
         <v>24</v>
@@ -6205,10 +6205,10 @@
         <v>2.76</v>
       </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H43" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
@@ -6217,19 +6217,19 @@
         <v>3.2</v>
       </c>
       <c r="K43" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L43" t="n">
         <v>1.48</v>
       </c>
       <c r="M43" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
         <v>2.94</v>
       </c>
       <c r="O43" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P43" t="n">
         <v>1.67</v>
@@ -6241,13 +6241,13 @@
         <v>1.25</v>
       </c>
       <c r="S43" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="T43" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V43" t="n">
         <v>1.5</v>
@@ -6256,58 +6256,58 @@
         <v>1.47</v>
       </c>
       <c r="X43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z43" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AA43" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB43" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD43" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE43" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AF43" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AG43" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH43" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI43" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ43" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK43" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AL43" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G44" t="n">
         <v>3.95</v>
       </c>
-      <c r="G44" t="n">
-        <v>4.1</v>
-      </c>
       <c r="H44" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I44" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J44" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K44" t="n">
         <v>3.95</v>
@@ -6373,7 +6373,7 @@
         <v>1.76</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S44" t="n">
         <v>2.9</v>
@@ -6385,10 +6385,10 @@
         <v>2.38</v>
       </c>
       <c r="V44" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="W44" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X44" t="n">
         <v>18</v>
@@ -6415,7 +6415,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG44" t="n">
         <v>16</v>
@@ -6424,16 +6424,16 @@
         <v>16</v>
       </c>
       <c r="AI44" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ44" t="n">
         <v>75</v>
       </c>
       <c r="AK44" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL44" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM44" t="n">
         <v>75</v>
@@ -6475,13 +6475,13 @@
         <v>1.69</v>
       </c>
       <c r="G45" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J45" t="n">
         <v>4</v>
@@ -6496,34 +6496,34 @@
         <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O45" t="n">
         <v>1.34</v>
       </c>
       <c r="P45" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R45" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S45" t="n">
         <v>3.6</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U45" t="n">
         <v>1.94</v>
       </c>
       <c r="V45" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W45" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X45" t="n">
         <v>13.5</v>
@@ -6556,10 +6556,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH45" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI45" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="n">
         <v>16</v>
@@ -6571,7 +6571,7 @@
         <v>38</v>
       </c>
       <c r="AM45" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN45" t="n">
         <v>11</v>
@@ -6616,7 +6616,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J46" t="n">
         <v>3</v>
@@ -6631,13 +6631,13 @@
         <v>1.15</v>
       </c>
       <c r="N46" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O46" t="n">
         <v>1.64</v>
       </c>
       <c r="P46" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q46" t="n">
         <v>3</v>
@@ -6658,7 +6658,7 @@
         <v>1.32</v>
       </c>
       <c r="W46" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X46" t="n">
         <v>7.2</v>
@@ -6679,7 +6679,7 @@
         <v>7</v>
       </c>
       <c r="AD46" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE46" t="n">
         <v>80</v>
@@ -6691,10 +6691,10 @@
         <v>12.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI46" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ46" t="n">
         <v>32</v>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H47" t="n">
         <v>6.2</v>
@@ -6754,13 +6754,13 @@
         <v>7</v>
       </c>
       <c r="J47" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M47" t="n">
         <v>1.08</v>
@@ -6778,7 +6778,7 @@
         <v>2.14</v>
       </c>
       <c r="R47" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -6799,52 +6799,52 @@
         <v>15.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Z47" t="n">
         <v>55</v>
       </c>
       <c r="AA47" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AB47" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD47" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AE47" t="n">
         <v>140</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AG47" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH47" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ47" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AK47" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL47" t="n">
         <v>46</v>
       </c>
       <c r="AM47" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN47" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6880,22 +6880,22 @@
         <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H48" t="n">
         <v>2.28</v>
       </c>
       <c r="I48" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J48" t="n">
         <v>3.6</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
@@ -6913,7 +6913,7 @@
         <v>1.76</v>
       </c>
       <c r="R48" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S48" t="n">
         <v>2.92</v>
@@ -6925,7 +6925,7 @@
         <v>2.3</v>
       </c>
       <c r="V48" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W48" t="n">
         <v>1.43</v>
@@ -6946,19 +6946,19 @@
         <v>18</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE48" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF48" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH48" t="n">
         <v>19.5</v>
@@ -6967,22 +6967,22 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK48" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM48" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO48" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="49">
@@ -7012,43 +7012,43 @@
         </is>
       </c>
       <c r="F49" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J49" t="n">
         <v>3.45</v>
       </c>
-      <c r="G49" t="n">
+      <c r="K49" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N49" t="n">
         <v>3.7</v>
       </c>
-      <c r="H49" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3.6</v>
-      </c>
       <c r="O49" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P49" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S49" t="n">
         <v>3.55</v>
@@ -7060,64 +7060,64 @@
         <v>2.14</v>
       </c>
       <c r="V49" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="W49" t="n">
         <v>1.37</v>
       </c>
       <c r="X49" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z49" t="n">
         <v>14.5</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>16</v>
       </c>
       <c r="AA49" t="n">
         <v>980</v>
       </c>
       <c r="AB49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG49" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC49" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>18</v>
-      </c>
       <c r="AH49" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ49" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
         <v>980</v>
       </c>
       <c r="AL49" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM49" t="n">
         <v>120</v>
       </c>
       <c r="AN49" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO49" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G50" t="n">
         <v>2.4</v>
@@ -7156,34 +7156,34 @@
         <v>3.35</v>
       </c>
       <c r="I50" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J50" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K50" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L50" t="n">
         <v>1.43</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O50" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q50" t="n">
         <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S50" t="n">
         <v>3.6</v>
@@ -7195,7 +7195,7 @@
         <v>2.1</v>
       </c>
       <c r="V50" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W50" t="n">
         <v>1.71</v>
@@ -7204,55 +7204,55 @@
         <v>16.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA50" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI50" t="n">
         <v>65</v>
       </c>
-      <c r="AB50" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ50" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK50" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL50" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM50" t="n">
         <v>120</v>
       </c>
       <c r="AN50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -7285,10 +7285,10 @@
         <v>4.2</v>
       </c>
       <c r="G51" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H51" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I51" t="n">
         <v>1.7</v>
@@ -7417,25 +7417,25 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G52" t="n">
         <v>2.4</v>
       </c>
       <c r="H52" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
         <v>3.8</v>
       </c>
       <c r="J52" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K52" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
@@ -7456,40 +7456,40 @@
         <v>1.35</v>
       </c>
       <c r="S52" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T52" t="n">
         <v>1.71</v>
       </c>
       <c r="U52" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V52" t="n">
         <v>1.36</v>
       </c>
       <c r="W52" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA52" t="n">
         <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
         <v>1000</v>
@@ -7498,31 +7498,31 @@
         <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI52" t="n">
         <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
         <v>110</v>
       </c>
       <c r="AN52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
@@ -7552,19 +7552,19 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G53" t="n">
         <v>1.38</v>
       </c>
       <c r="H53" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I53" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J53" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K53" t="n">
         <v>6</v>
@@ -7582,34 +7582,34 @@
         <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q53" t="n">
         <v>1.61</v>
       </c>
       <c r="R53" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S53" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="T53" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="U53" t="n">
         <v>1.86</v>
       </c>
       <c r="V53" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W53" t="n">
         <v>3.6</v>
       </c>
       <c r="X53" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y53" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z53" t="n">
         <v>1000</v>
@@ -7618,43 +7618,43 @@
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC53" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ53" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>12</v>
-      </c>
       <c r="AK53" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM53" t="n">
         <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>2.64</v>
       </c>
       <c r="G2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H2" t="n">
         <v>2.88</v>
@@ -685,13 +685,13 @@
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
@@ -700,10 +700,10 @@
         <v>1.97</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
         <v>3.45</v>
@@ -712,13 +712,13 @@
         <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V2" t="n">
         <v>1.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X2" t="n">
         <v>14</v>
@@ -763,7 +763,7 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
         <v>90</v>
@@ -808,10 +808,10 @@
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
@@ -820,100 +820,100 @@
         <v>980</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Armenian Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,72 +923,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gandzasar Kapan</t>
+          <t>FK Pribram</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BKMA Yerevan</t>
+          <t>Slavia Praha B</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.05</v>
       </c>
-      <c r="N4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.02</v>
-      </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,72 +1058,72 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Gandzasar Kapan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Port FC</t>
+          <t>BKMA Yerevan</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.36</v>
+        <v>1.88</v>
       </c>
       <c r="G5" t="n">
-        <v>2.66</v>
+        <v>2.06</v>
       </c>
       <c r="H5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S5" t="n">
         <v>2.68</v>
       </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.24</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="G6" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>3.4</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
         <v>2.22</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>PFK Turan Tovuz</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>2.54</v>
       </c>
       <c r="G7" t="n">
-        <v>1.99</v>
+        <v>2.94</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>2.36</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>1.61</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="S7" t="n">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PFK Turan Tovuz</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.48</v>
+        <v>1.65</v>
       </c>
       <c r="G8" t="n">
-        <v>2.86</v>
+        <v>1.86</v>
       </c>
       <c r="H8" t="n">
-        <v>2.98</v>
+        <v>3.85</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="H9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.28</v>
       </c>
-      <c r="I9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.93</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,88 +1738,88 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Kolos Kovalyovka</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.69</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>7.4</v>
+        <v>2.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>2.78</v>
       </c>
       <c r="K10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S10" t="n">
         <v>4.2</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.31</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.16</v>
-      </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,28 +1828,28 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Obolon-Brovar Kiev</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kolos Kovalyovka</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.8</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>2.68</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>2.74</v>
       </c>
       <c r="I11" t="n">
-        <v>2.34</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>2.54</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>1.59</v>
+        <v>2.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>2.68</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NK Primorje</t>
+          <t>Gornik Leczna</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>1.48</v>
       </c>
       <c r="G12" t="n">
-        <v>2.68</v>
+        <v>1.78</v>
       </c>
       <c r="H12" t="n">
-        <v>2.72</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>2.7</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>2.26</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>2.52</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
         <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>2.04</v>
+        <v>1.67</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,67 +2278,67 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>1.58</v>
+        <v>610</v>
       </c>
       <c r="H14" t="n">
-        <v>6.8</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>9.6</v>
+        <v>870</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>950</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>1.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.13</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>2.48</v>
+        <v>1.14</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,118 +2413,118 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>FC Liefering</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="G15" t="n">
-        <v>2.54</v>
+        <v>2.18</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.32</v>
       </c>
-      <c r="S15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2560,16 +2560,16 @@
         <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
@@ -2590,13 +2590,13 @@
         <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="R16" t="n">
         <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
         <v>1.64</v>
@@ -2608,7 +2608,7 @@
         <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2629,13 +2629,13 @@
         <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
@@ -2683,97 +2683,97 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FC Liefering</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>SC Austria Lustenau</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.37</v>
       </c>
-      <c r="S17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.3</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
@@ -2782,13 +2782,13 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,73 +2818,73 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SC Austria Lustenau</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>3.15</v>
+        <v>2.06</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.65</v>
+        <v>1.34</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>2.02</v>
+        <v>1.34</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>2.94</v>
+        <v>1.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.04</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2908,7 +2908,7 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,126 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>1.69</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.03</v>
       </c>
-      <c r="K19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N19" t="n">
-        <v>1.32</v>
+        <v>5.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>1.32</v>
+        <v>2.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>1.05</v>
+        <v>2.38</v>
       </c>
       <c r="T19" t="n">
-        <v>1.04</v>
+        <v>1.61</v>
       </c>
       <c r="U19" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.65</v>
+        <v>2.66</v>
       </c>
       <c r="G20" t="n">
-        <v>1.69</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>5.2</v>
+        <v>2.92</v>
       </c>
       <c r="I20" t="n">
-        <v>5.8</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>5.6</v>
+        <v>3.75</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>2.62</v>
+        <v>1.92</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="W20" t="n">
-        <v>2.44</v>
+        <v>1.55</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>13.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN20" t="n">
         <v>26</v>
       </c>
-      <c r="AE20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AO20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hillerod Fodbold</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.66</v>
+        <v>3.25</v>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.05</v>
+        <v>2.42</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V21" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="W21" t="n">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="X21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD21" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>13</v>
-      </c>
       <c r="AE21" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ21" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>B93 Copenhagen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Erzgebirge</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J22" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.65</v>
       </c>
       <c r="K22" t="n">
         <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="S22" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="U22" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF22" t="n">
         <v>21</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AG22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>36</v>
       </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>30</v>
-      </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
         <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hillerod Fodbold</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.3</v>
+        <v>2.34</v>
       </c>
       <c r="G23" t="n">
-        <v>3.65</v>
+        <v>2.42</v>
       </c>
       <c r="H23" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="R23" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="S23" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="U23" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="V23" t="n">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
         <v>18</v>
       </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,109 +3628,109 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B93 Copenhagen</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Erzgebirge</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G24" t="n">
         <v>2.16</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.42</v>
-      </c>
       <c r="H24" t="n">
-        <v>2.96</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
         <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="S24" t="n">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="U24" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="V24" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="X24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>30</v>
       </c>
-      <c r="AA24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>36</v>
-      </c>
       <c r="AK24" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
         <v>38</v>
@@ -3739,16 +3739,16 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.34</v>
+        <v>3.95</v>
       </c>
       <c r="G25" t="n">
-        <v>2.44</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.05</v>
+        <v>1.94</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>1.98</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.32</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X25" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB25" t="n">
         <v>25</v>
       </c>
-      <c r="Y25" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AF25" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AK25" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AL25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN25" t="n">
         <v>38</v>
       </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>18</v>
-      </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,81 +3893,81 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Debreceni VSC</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="G26" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.35</v>
       </c>
-      <c r="I26" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U26" t="n">
         <v>2.12</v>
       </c>
       <c r="V26" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
@@ -3976,16 +3976,16 @@
         <v>12.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
         <v>13.5</v>
@@ -3994,7 +3994,7 @@
         <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4012,13 +4012,13 @@
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="I27" t="n">
-        <v>1.88</v>
+        <v>1.48</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P27" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="R27" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="S27" t="n">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="T27" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U27" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V27" t="n">
-        <v>2.14</v>
+        <v>3.05</v>
       </c>
       <c r="W27" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="X27" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA27" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AB27" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AC27" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD27" t="n">
         <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="n">
         <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>9.800000000000001</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,123 +4163,123 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.41</v>
+        <v>1.93</v>
       </c>
       <c r="G28" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q28" t="n">
         <v>1.48</v>
       </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S28" t="n">
         <v>2.18</v>
       </c>
-      <c r="Q28" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.76</v>
-      </c>
       <c r="T28" t="n">
-        <v>1.94</v>
+        <v>1.51</v>
       </c>
       <c r="U28" t="n">
-        <v>1.89</v>
+        <v>2.66</v>
       </c>
       <c r="V28" t="n">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="W28" t="n">
-        <v>3.05</v>
+        <v>1.96</v>
       </c>
       <c r="X28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL28" t="n">
         <v>36</v>
       </c>
-      <c r="Z28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>44</v>
-      </c>
       <c r="AM28" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4303,88 +4303,88 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.92</v>
+        <v>2.66</v>
       </c>
       <c r="G29" t="n">
-        <v>2.04</v>
+        <v>2.96</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>2.68</v>
       </c>
       <c r="J29" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="T29" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="U29" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V29" t="n">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="W29" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
@@ -4393,19 +4393,19 @@
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH29" t="n">
         <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="G30" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>6</v>
@@ -4459,7 +4459,7 @@
         <v>7.4</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="K30" t="n">
         <v>5.3</v>
@@ -4477,10 +4477,10 @@
         <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R30" t="n">
         <v>1.62</v>
@@ -4498,7 +4498,7 @@
         <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X30" t="n">
         <v>32</v>
@@ -4507,7 +4507,7 @@
         <v>36</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA30" t="n">
         <v>190</v>
@@ -4522,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -4531,7 +4531,7 @@
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4546,10 +4546,10 @@
         <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.66</v>
+        <v>1.87</v>
       </c>
       <c r="G31" t="n">
-        <v>2.96</v>
+        <v>1.99</v>
       </c>
       <c r="H31" t="n">
-        <v>2.44</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="K31" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="T31" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="U31" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="V31" t="n">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y31" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
         <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN31" t="n">
-        <v>17.5</v>
+        <v>8.6</v>
       </c>
       <c r="AO31" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,72 +4703,72 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.86</v>
+        <v>2.74</v>
       </c>
       <c r="G32" t="n">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
         <v>4.2</v>
       </c>
-      <c r="I32" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5.5</v>
-      </c>
       <c r="O32" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="Q32" t="n">
         <v>1.54</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="S32" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T32" t="n">
         <v>1.56</v>
       </c>
       <c r="U32" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="V32" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="W32" t="n">
-        <v>2.04</v>
+        <v>1.47</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4786,10 +4786,10 @@
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
@@ -4810,7 +4810,7 @@
         <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
         <v>1000</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6.8</v>
+        <v>2.14</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
-        <v>1.42</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>1.48</v>
+        <v>4.3</v>
       </c>
       <c r="J33" t="n">
-        <v>5.3</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>6.4</v>
+        <v>3.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="P33" t="n">
-        <v>2.88</v>
+        <v>1.77</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.44</v>
+        <v>2.14</v>
       </c>
       <c r="R33" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>2.1</v>
+        <v>3.95</v>
       </c>
       <c r="T33" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="U33" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>1.31</v>
       </c>
       <c r="W33" t="n">
-        <v>1.14</v>
+        <v>1.83</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="I34" t="n">
-        <v>1.98</v>
+        <v>2.56</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="P34" t="n">
-        <v>2.46</v>
+        <v>1.92</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="R34" t="n">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="S34" t="n">
-        <v>2.48</v>
+        <v>3.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="U34" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="V34" t="n">
-        <v>2.02</v>
+        <v>1.64</v>
       </c>
       <c r="W34" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="X34" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y34" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF34" t="n">
         <v>28</v>
       </c>
-      <c r="AB34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF34" t="n">
+      <c r="AG34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN34" t="n">
         <v>40</v>
       </c>
-      <c r="AG34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>38</v>
-      </c>
       <c r="AO34" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Debreceni VSC</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.16</v>
+        <v>1.69</v>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>1.84</v>
       </c>
       <c r="H35" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="I35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.35</v>
       </c>
       <c r="K35" t="n">
         <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="P35" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="R35" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="S35" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="T35" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="U35" t="n">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="V35" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="W35" t="n">
-        <v>1.71</v>
+        <v>2.2</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG35" t="n">
         <v>11</v>
       </c>
-      <c r="AD35" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL35" t="n">
         <v>55</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,123 +5243,123 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Miedz Legnica</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.72</v>
+        <v>1.81</v>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>1.98</v>
       </c>
       <c r="H36" t="n">
-        <v>2.36</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
-        <v>2.66</v>
+        <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P36" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S36" t="n">
         <v>2.3</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.38</v>
       </c>
       <c r="T36" t="n">
         <v>1.56</v>
       </c>
       <c r="U36" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V36" t="n">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>1.47</v>
+        <v>2.02</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD36" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>3.9</v>
+        <v>2.26</v>
       </c>
       <c r="I37" t="n">
-        <v>4.3</v>
+        <v>2.28</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="O37" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="P37" t="n">
-        <v>1.77</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S37" t="n">
         <v>2.14</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.95</v>
-      </c>
       <c r="T37" t="n">
-        <v>1.87</v>
+        <v>1.45</v>
       </c>
       <c r="U37" t="n">
-        <v>1.98</v>
+        <v>3.05</v>
       </c>
       <c r="V37" t="n">
-        <v>1.3</v>
+        <v>1.78</v>
       </c>
       <c r="W37" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="X37" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="Y37" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN37" t="n">
         <v>16</v>
       </c>
-      <c r="Z37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>24</v>
-      </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,118 +5518,118 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Miedz Legnica</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.81</v>
+        <v>2.76</v>
       </c>
       <c r="G38" t="n">
-        <v>1.98</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>2.68</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>5.5</v>
+        <v>2.94</v>
       </c>
       <c r="O38" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="P38" t="n">
-        <v>2.54</v>
+        <v>1.66</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.52</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="S38" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="U38" t="n">
-        <v>2.46</v>
+        <v>1.92</v>
       </c>
       <c r="V38" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="W38" t="n">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="X38" t="n">
-        <v>32</v>
+        <v>11.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Z38" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AA38" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AB38" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AC38" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD38" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF38" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AH38" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AK38" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AL38" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>9.800000000000001</v>
+        <v>48</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K39" t="n">
         <v>3.05</v>
       </c>
-      <c r="G39" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L39" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N39" t="n">
-        <v>3.7</v>
+        <v>2.78</v>
       </c>
       <c r="O39" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="P39" t="n">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.88</v>
+        <v>2.48</v>
       </c>
       <c r="R39" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="S39" t="n">
-        <v>3.25</v>
+        <v>4.9</v>
       </c>
       <c r="T39" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="V39" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="W39" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X39" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Y39" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z39" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA39" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AB39" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AF39" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AG39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI39" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="n">
         <v>70</v>
       </c>
       <c r="AK39" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM39" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AN39" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AO39" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.71</v>
+        <v>3.85</v>
       </c>
       <c r="G40" t="n">
-        <v>1.87</v>
+        <v>3.95</v>
       </c>
       <c r="H40" t="n">
-        <v>5.3</v>
+        <v>2.04</v>
       </c>
       <c r="I40" t="n">
-        <v>6.4</v>
+        <v>2.06</v>
       </c>
       <c r="J40" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>1.7</v>
+        <v>2.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="R40" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>3.55</v>
+        <v>2.88</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="U40" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="V40" t="n">
-        <v>1.18</v>
+        <v>1.94</v>
       </c>
       <c r="W40" t="n">
-        <v>2.14</v>
+        <v>1.33</v>
       </c>
       <c r="X40" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Y40" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.6</v>
+        <v>17.5</v>
       </c>
       <c r="AC40" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD40" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD40" t="n">
-        <v>28</v>
-      </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO40" t="n">
         <v>12</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.05</v>
+        <v>1.69</v>
       </c>
       <c r="G41" t="n">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
-        <v>2.76</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>2.82</v>
+        <v>6.4</v>
       </c>
       <c r="J41" t="n">
-        <v>2.98</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M41" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>2.78</v>
+        <v>3.8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="P41" t="n">
-        <v>1.59</v>
+        <v>1.94</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="R41" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="S41" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U41" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="V41" t="n">
-        <v>1.56</v>
+        <v>1.18</v>
       </c>
       <c r="W41" t="n">
-        <v>1.44</v>
+        <v>2.42</v>
       </c>
       <c r="X41" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AA41" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AB41" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AC41" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD41" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AE41" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AF41" t="n">
-        <v>24</v>
+        <v>9.4</v>
       </c>
       <c r="AG41" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH41" t="n">
         <v>22</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK41" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AN41" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="AO41" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.2</v>
+        <v>2.34</v>
       </c>
       <c r="G42" t="n">
-        <v>3.25</v>
+        <v>2.36</v>
       </c>
       <c r="H42" t="n">
-        <v>2.24</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>2.26</v>
+        <v>4.1</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="L42" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="N42" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S42" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X42" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC42" t="n">
         <v>7</v>
       </c>
-      <c r="O42" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U42" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X42" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA42" t="n">
+      <c r="AD42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>32</v>
       </c>
-      <c r="AB42" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>55</v>
-      </c>
       <c r="AK42" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AL42" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AM42" t="n">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="AN42" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AO42" t="n">
-        <v>9</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2.46</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K43" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="L43" t="n">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>2.94</v>
+        <v>4.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="P43" t="n">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.22</v>
+        <v>1.76</v>
       </c>
       <c r="R43" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="S43" t="n">
-        <v>3.75</v>
+        <v>2.92</v>
       </c>
       <c r="T43" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="U43" t="n">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="V43" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="W43" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y43" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA43" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AB43" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE43" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AF43" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH43" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AJ43" t="n">
         <v>65</v>
       </c>
       <c r="AK43" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN43" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AO43" t="n">
-        <v>46</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,132 +6323,132 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="G44" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="H44" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="I44" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R44" t="n">
         <v>1.35</v>
       </c>
-      <c r="M44" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N44" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.49</v>
-      </c>
       <c r="S44" t="n">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="T44" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="U44" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="V44" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="W44" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X44" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z44" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AB44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH44" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC44" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>16</v>
-      </c>
       <c r="AI44" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AJ44" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK44" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AL44" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AM44" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN44" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AO44" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.69</v>
+        <v>2.28</v>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="L45" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="O45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R45" t="n">
         <v>1.34</v>
       </c>
-      <c r="P45" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S45" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T45" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="U45" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="V45" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="W45" t="n">
-        <v>2.42</v>
+        <v>1.72</v>
       </c>
       <c r="X45" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y45" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AA45" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AB45" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD45" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE45" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.4</v>
+        <v>18</v>
       </c>
       <c r="AG45" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AH45" t="n">
         <v>22</v>
       </c>
       <c r="AI45" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AJ45" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AK45" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AL45" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AM45" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN45" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AO45" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>LDU</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Independiente (Ecu)</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="G46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I46" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K46" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="L46" t="n">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="M46" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>2.48</v>
+        <v>3.65</v>
       </c>
       <c r="O46" t="n">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="P46" t="n">
-        <v>1.47</v>
+        <v>1.91</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>1.89</v>
       </c>
       <c r="R46" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="S46" t="n">
-        <v>6.4</v>
+        <v>3.25</v>
       </c>
       <c r="T46" t="n">
-        <v>2.36</v>
+        <v>1.71</v>
       </c>
       <c r="U46" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="V46" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="W46" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X46" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM46" t="n">
         <v>110</v>
       </c>
-      <c r="AB46" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>240</v>
-      </c>
       <c r="AN46" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Academia de Balompie Boliviano</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.65</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>1.71</v>
+        <v>7.4</v>
       </c>
       <c r="H47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K47" t="n">
         <v>6.2</v>
       </c>
-      <c r="I47" t="n">
-        <v>7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L47" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>3.25</v>
+        <v>1.1</v>
       </c>
       <c r="O47" t="n">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="P47" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG47" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AL47" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM47" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,800 +6863,125 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>1.34</v>
       </c>
       <c r="G48" t="n">
-        <v>3.35</v>
+        <v>1.36</v>
       </c>
       <c r="H48" t="n">
-        <v>2.28</v>
+        <v>11.5</v>
       </c>
       <c r="I48" t="n">
-        <v>2.46</v>
+        <v>14</v>
       </c>
       <c r="J48" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="K48" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="O48" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="R48" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="S48" t="n">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="T48" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="U48" t="n">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="V48" t="n">
-        <v>1.68</v>
+        <v>1.08</v>
       </c>
       <c r="W48" t="n">
-        <v>1.43</v>
+        <v>3.75</v>
       </c>
       <c r="X48" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Y48" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>18</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC48" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF48" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD48" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE48" t="n">
+      <c r="AG48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH48" t="n">
         <v>29</v>
       </c>
-      <c r="AF48" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI48" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL48" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="AO48" t="n">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Bahia</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="G49" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X49" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Vasco da Gama</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Internacional</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X50" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Academia de Balompie Boliviano</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Always Ready</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G51" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K51" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>LDU</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Independiente (Ecu)</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N52" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U52" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Santos</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Sport Recife</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-      <c r="I53" t="n">
-        <v>12</v>
-      </c>
-      <c r="J53" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>6</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P53" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W53" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="X53" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO53" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO48"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.68</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I2" t="n">
         <v>2.9</v>
@@ -685,46 +685,46 @@
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>1.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.97</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
         <v>19.5</v>
@@ -733,7 +733,7 @@
         <v>46</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
@@ -808,10 +808,10 @@
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.26</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
@@ -832,7 +832,7 @@
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
@@ -841,7 +841,7 @@
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.39</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -853,7 +853,7 @@
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
         <v>1.09</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,34 +961,34 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.05</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>1.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Port FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.74</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,105 +1328,105 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PFK Turan Tovuz</t>
+          <t>Lokomotiv Sofia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.54</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.4</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G8" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>5.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>1.66</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,93 +1598,93 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>PFK Turan Tovuz</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.66</v>
+        <v>2.78</v>
       </c>
       <c r="G9" t="n">
-        <v>1.77</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>2.94</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>2.38</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>1.48</v>
       </c>
       <c r="W9" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1693,28 +1693,28 @@
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,72 +1733,72 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Obolon-Brovar Kiev</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kolos Kovalyovka</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>1.59</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.5</v>
+        <v>8.6</v>
       </c>
       <c r="J10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>500</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
         <v>2.78</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.54</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="V10" t="n">
-        <v>1.66</v>
+        <v>1.13</v>
       </c>
       <c r="W10" t="n">
-        <v>1.31</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NK Primorje</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="G11" t="n">
-        <v>2.68</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>2.74</v>
+        <v>5.7</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>8.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.27</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.23</v>
-      </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>1.86</v>
       </c>
       <c r="U11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.36</v>
       </c>
-      <c r="V11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,72 +2003,72 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gornik Leczna</t>
+          <t>Kolos Kovalyovka</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.48</v>
+        <v>3.55</v>
       </c>
       <c r="G12" t="n">
-        <v>1.78</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>2.22</v>
       </c>
       <c r="I12" t="n">
-        <v>8.800000000000001</v>
+        <v>2.48</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>2.78</v>
       </c>
       <c r="K12" t="n">
-        <v>9.4</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.55</v>
+        <v>2.36</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>2.36</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>2.26</v>
+        <v>1.31</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,106 +2138,106 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G13" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="H13" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.1</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG13" t="n">
         <v>15</v>
       </c>
-      <c r="Y13" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AH13" t="n">
         <v>19</v>
       </c>
-      <c r="AG13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>22</v>
-      </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
@@ -2245,25 +2245,25 @@
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,55 +2278,55 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ceske Budejovice</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>SC Austria Lustenau</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>610</v>
+        <v>980</v>
       </c>
       <c r="H14" t="n">
         <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="O14" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="T14" t="n">
         <v>1.04</v>
@@ -2413,85 +2413,85 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Liefering</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="G15" t="n">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2500,10 +2500,10 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2512,13 +2512,13 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2548,67 +2548,67 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>FC Liefering</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>1.2</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.04</v>
       </c>
-      <c r="N16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2623,22 +2623,22 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,97 +2683,97 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SC Austria Lustenau</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="H17" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>1.09</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="P17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.78</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>960</v>
+        <v>15.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC17" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
@@ -2782,19 +2782,19 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="H18" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J18" t="n">
         <v>1.03</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,22 +2851,22 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="T18" t="n">
         <v>1.04</v>
@@ -2875,10 +2875,10 @@
         <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.65</v>
+        <v>2.18</v>
       </c>
       <c r="G19" t="n">
-        <v>1.69</v>
+        <v>2.68</v>
       </c>
       <c r="H19" t="n">
-        <v>5.2</v>
+        <v>3.15</v>
       </c>
       <c r="I19" t="n">
-        <v>5.8</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>2.38</v>
+        <v>1.92</v>
       </c>
       <c r="T19" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="V19" t="n">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>2.44</v>
+        <v>1.59</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,123 +3083,123 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Gornik Leczna</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.66</v>
+        <v>1.48</v>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>1.78</v>
       </c>
       <c r="H20" t="n">
-        <v>2.92</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>3.05</v>
+        <v>980</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>1.09</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="R20" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hillerod Fodbold</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.25</v>
+        <v>1.47</v>
       </c>
       <c r="G21" t="n">
-        <v>3.55</v>
+        <v>1.57</v>
       </c>
       <c r="H21" t="n">
-        <v>2.3</v>
+        <v>6.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.42</v>
+        <v>9.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>5.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="R21" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="S21" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.7</v>
+        <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>1.39</v>
+        <v>2.74</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.5</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="AF21" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>B93 Copenhagen</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="G22" t="n">
-        <v>2.46</v>
+        <v>1.97</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S22" t="n">
         <v>4.2</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.6</v>
-      </c>
       <c r="T22" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="Y22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD22" t="n">
         <v>20</v>
       </c>
-      <c r="Z22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC22" t="n">
+      <c r="AE22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>21</v>
-      </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AJ22" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL22" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AN22" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.34</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
-        <v>2.42</v>
+        <v>1.69</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="R23" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="T23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>1.7</v>
+        <v>2.44</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AA23" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK23" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>29</v>
-      </c>
       <c r="AL23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN23" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Erzgebirge</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.99</v>
+        <v>2.68</v>
       </c>
       <c r="G24" t="n">
-        <v>2.16</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="W24" t="n">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AF24" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AJ24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK24" t="n">
         <v>30</v>
       </c>
-      <c r="AK24" t="n">
-        <v>22</v>
-      </c>
       <c r="AL24" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AO24" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.95</v>
       </c>
-      <c r="G25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="R25" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="S25" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="U25" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="V25" t="n">
-        <v>2.02</v>
+        <v>1.45</v>
       </c>
       <c r="W25" t="n">
-        <v>1.32</v>
+        <v>1.7</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD25" t="n">
         <v>14</v>
       </c>
-      <c r="Z25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC25" t="n">
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG25" t="n">
         <v>12</v>
       </c>
-      <c r="AD25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,108 +3893,108 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Debreceni VSC</t>
+          <t>Erzgebirge</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>980</v>
       </c>
       <c r="H26" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>980</v>
       </c>
       <c r="J26" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="P26" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="T26" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
         <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
         <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4012,13 +4012,13 @@
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,114 +4028,114 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Hillerod Fodbold</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>3.55</v>
       </c>
       <c r="H27" t="n">
-        <v>1.44</v>
+        <v>2.3</v>
       </c>
       <c r="I27" t="n">
-        <v>1.48</v>
+        <v>2.48</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>5.7</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>6.4</v>
+        <v>3.75</v>
       </c>
       <c r="O27" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="P27" t="n">
-        <v>2.88</v>
+        <v>1.95</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="R27" t="n">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="S27" t="n">
-        <v>2.12</v>
+        <v>3.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="U27" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="V27" t="n">
-        <v>3.05</v>
+        <v>1.67</v>
       </c>
       <c r="W27" t="n">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="n">
         <v>16</v>
       </c>
-      <c r="Z27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>44</v>
-      </c>
       <c r="AC27" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AF27" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AG27" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
@@ -4147,13 +4147,13 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,117 +4163,117 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>B93 Copenhagen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.93</v>
+        <v>1.04</v>
       </c>
       <c r="G28" t="n">
-        <v>2.04</v>
+        <v>980</v>
       </c>
       <c r="H28" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="J28" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="K28" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.03</v>
       </c>
-      <c r="N28" t="n">
-        <v>6</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.16</v>
-      </c>
       <c r="P28" t="n">
-        <v>2.72</v>
+        <v>1.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="S28" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="U28" t="n">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,93 +4298,93 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.66</v>
+        <v>1.35</v>
       </c>
       <c r="G29" t="n">
-        <v>2.96</v>
+        <v>1.55</v>
       </c>
       <c r="H29" t="n">
-        <v>2.44</v>
+        <v>6.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.68</v>
+        <v>870</v>
       </c>
       <c r="J29" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>5.8</v>
+        <v>3.85</v>
       </c>
       <c r="O29" t="n">
         <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.41</v>
       </c>
       <c r="S29" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="T29" t="n">
-        <v>1.47</v>
+        <v>1.04</v>
       </c>
       <c r="U29" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="V29" t="n">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="W29" t="n">
-        <v>1.52</v>
+        <v>2.8</v>
       </c>
       <c r="X29" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
@@ -4393,19 +4393,19 @@
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
         <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,123 +4433,123 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>980</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="J30" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="K30" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="O30" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="P30" t="n">
-        <v>2.5</v>
+        <v>1.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="S30" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="T30" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="U30" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="X30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,81 +4568,81 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="G31" t="n">
-        <v>1.99</v>
+        <v>980</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>1.04</v>
       </c>
       <c r="I31" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="J31" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="K31" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="O31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R31" t="n">
         <v>1.18</v>
       </c>
-      <c r="P31" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S31" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="T31" t="n">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="U31" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X31" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
@@ -4651,40 +4651,40 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,78 +4703,78 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.74</v>
+        <v>1.82</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>2.22</v>
       </c>
       <c r="H32" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>2.66</v>
+        <v>4.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>4.2</v>
+        <v>2.46</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="P32" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="R32" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="S32" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="U32" t="n">
         <v>2.44</v>
       </c>
       <c r="V32" t="n">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="W32" t="n">
-        <v>1.47</v>
+        <v>1.81</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4783,13 +4783,13 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC32" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
@@ -4798,16 +4798,16 @@
         <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,123 +4838,123 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.14</v>
+        <v>1.48</v>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>4.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="K33" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>3.25</v>
+        <v>5.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="P33" t="n">
-        <v>1.77</v>
+        <v>2.32</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="S33" t="n">
-        <v>3.95</v>
+        <v>2.34</v>
       </c>
       <c r="T33" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="U33" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="V33" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="W33" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="X33" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH33" t="n">
         <v>21</v>
       </c>
-      <c r="AE33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>23</v>
-      </c>
       <c r="AI33" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>24</v>
+        <v>6.4</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="H34" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="I34" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K34" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="P34" t="n">
-        <v>1.92</v>
+        <v>2.58</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.9</v>
+        <v>1.51</v>
       </c>
       <c r="R34" t="n">
-        <v>1.35</v>
+        <v>1.66</v>
       </c>
       <c r="S34" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="U34" t="n">
-        <v>2.16</v>
+        <v>2.68</v>
       </c>
       <c r="V34" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="W34" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="X34" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Z34" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AA34" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE34" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="G35" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="H35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N35" t="n">
         <v>5.5</v>
       </c>
-      <c r="I35" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.96</v>
-      </c>
       <c r="O35" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>1.7</v>
+        <v>2.54</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.2</v>
+        <v>1.54</v>
       </c>
       <c r="R35" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="S35" t="n">
-        <v>4.2</v>
+        <v>2.32</v>
       </c>
       <c r="T35" t="n">
-        <v>2.06</v>
+        <v>1.56</v>
       </c>
       <c r="U35" t="n">
-        <v>1.77</v>
+        <v>2.52</v>
       </c>
       <c r="V35" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="W35" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Y35" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.6</v>
+        <v>15.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AK35" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN35" t="n">
-        <v>16.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Miedz Legnica</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.81</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>1.51</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P36" t="n">
-        <v>2.54</v>
+        <v>2.88</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="R36" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="S36" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U36" t="n">
         <v>2.3</v>
       </c>
-      <c r="T36" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.46</v>
-      </c>
       <c r="V36" t="n">
-        <v>1.28</v>
+        <v>2.96</v>
       </c>
       <c r="W36" t="n">
-        <v>2.02</v>
+        <v>1.14</v>
       </c>
       <c r="X36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI36" t="n">
         <v>32</v>
       </c>
-      <c r="Y36" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="AK36" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="G37" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.26</v>
+        <v>1.95</v>
       </c>
       <c r="I37" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L37" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>2.46</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="R37" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="U37" t="n">
-        <v>3.05</v>
+        <v>2.46</v>
       </c>
       <c r="V37" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="W37" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="X37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH37" t="n">
         <v>19</v>
       </c>
-      <c r="Z37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD37" t="n">
+      <c r="AI37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO37" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,123 +5513,123 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Debreceni VSC</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.76</v>
+        <v>1.04</v>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>600</v>
       </c>
       <c r="H38" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>980</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K38" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="O38" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P38" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="R38" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S38" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="T38" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="U38" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="V38" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W38" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="X38" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="G39" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
-        <v>2.76</v>
+        <v>2.38</v>
       </c>
       <c r="I39" t="n">
-        <v>2.96</v>
+        <v>2.66</v>
       </c>
       <c r="J39" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="K39" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M39" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>2.78</v>
+        <v>4.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="P39" t="n">
-        <v>1.59</v>
+        <v>2.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.48</v>
+        <v>1.54</v>
       </c>
       <c r="R39" t="n">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="S39" t="n">
-        <v>4.9</v>
+        <v>2.34</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="U39" t="n">
-        <v>1.87</v>
+        <v>2.44</v>
       </c>
       <c r="V39" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="W39" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC39" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC39" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AD39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE39" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
         <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.85</v>
+        <v>2.12</v>
       </c>
       <c r="G40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H40" t="n">
         <v>3.95</v>
       </c>
-      <c r="H40" t="n">
-        <v>2.04</v>
-      </c>
       <c r="I40" t="n">
-        <v>2.06</v>
+        <v>4.3</v>
       </c>
       <c r="J40" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="K40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S40" t="n">
         <v>3.95</v>
       </c>
-      <c r="L40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.88</v>
-      </c>
       <c r="T40" t="n">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="U40" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="V40" t="n">
-        <v>1.94</v>
+        <v>1.3</v>
       </c>
       <c r="W40" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="X40" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="Z40" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG40" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AH40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN40" t="n">
         <v>24</v>
       </c>
-      <c r="AB40" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>36</v>
-      </c>
       <c r="AO40" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Miedz Legnica</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>600</v>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>1.04</v>
       </c>
       <c r="I41" t="n">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="K41" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L41" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="O41" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.94</v>
+        <v>1.24</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R41" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="T41" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="U41" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="V41" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W41" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="X41" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.34</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>2.32</v>
       </c>
       <c r="I42" t="n">
-        <v>4.1</v>
+        <v>2.56</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="L42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V42" t="n">
         <v>1.64</v>
       </c>
-      <c r="M42" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S42" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.32</v>
-      </c>
       <c r="W42" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="X42" t="n">
-        <v>7.2</v>
+        <v>18</v>
       </c>
       <c r="Y42" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z42" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AA42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM42" t="n">
         <v>110</v>
       </c>
-      <c r="AB42" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>240</v>
-      </c>
       <c r="AN42" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO42" t="n">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P43" t="n">
         <v>3</v>
       </c>
-      <c r="G43" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N43" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2.12</v>
-      </c>
       <c r="Q43" t="n">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="R43" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W43" t="n">
         <v>1.44</v>
       </c>
-      <c r="S43" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X43" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AB43" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AC43" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AJ43" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AM43" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>19.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,123 +6323,123 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.55</v>
+        <v>1.04</v>
       </c>
       <c r="G44" t="n">
-        <v>3.75</v>
+        <v>980</v>
       </c>
       <c r="H44" t="n">
-        <v>2.24</v>
+        <v>1.09</v>
       </c>
       <c r="I44" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.45</v>
       </c>
-      <c r="K44" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L44" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="O44" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>1.91</v>
+        <v>1.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="R44" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="S44" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="T44" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="U44" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="V44" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="W44" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X44" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="G45" t="n">
-        <v>2.38</v>
+        <v>1.84</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="I45" t="n">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L45" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="O45" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="P45" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="S45" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="T45" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="U45" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="V45" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="W45" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="X45" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y45" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AA45" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL45" t="n">
         <v>55</v>
       </c>
-      <c r="AF45" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>48</v>
-      </c>
       <c r="AM45" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LDU</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Independiente (Ecu)</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.18</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.3</v>
+        <v>1.98</v>
       </c>
       <c r="I46" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="K46" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>1.91</v>
+        <v>2.26</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="R46" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="S46" t="n">
-        <v>3.25</v>
+        <v>2.86</v>
       </c>
       <c r="T46" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U46" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="V46" t="n">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM46" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Academia de Balompie Boliviano</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>1.68</v>
       </c>
       <c r="G47" t="n">
-        <v>7.4</v>
+        <v>1.69</v>
       </c>
       <c r="H47" t="n">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>1.56</v>
+        <v>6.4</v>
       </c>
       <c r="J47" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="O47" t="n">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL47" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM47" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN47" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO47" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,125 +6863,1070 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.34</v>
+        <v>2.34</v>
       </c>
       <c r="G48" t="n">
-        <v>1.36</v>
+        <v>2.38</v>
       </c>
       <c r="H48" t="n">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>14</v>
+        <v>4.1</v>
       </c>
       <c r="J48" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>3.05</v>
       </c>
       <c r="L48" t="n">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="M48" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="N48" t="n">
-        <v>5.1</v>
+        <v>2.48</v>
       </c>
       <c r="O48" t="n">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="P48" t="n">
-        <v>2.42</v>
+        <v>1.48</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.63</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>1.57</v>
+        <v>1.16</v>
       </c>
       <c r="S48" t="n">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="U48" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="V48" t="n">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="W48" t="n">
-        <v>3.75</v>
+        <v>1.72</v>
       </c>
       <c r="X48" t="n">
-        <v>29</v>
+        <v>7.2</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB48" t="n">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AC48" t="n">
-        <v>15.5</v>
+        <v>7</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG48" t="n">
         <v>12.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ48" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AK48" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Guimaraes</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>AVS Futebol SAD</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X51" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH51" t="n">
         <v>17.5</v>
       </c>
-      <c r="AL48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN48" t="n">
+      <c r="AI51" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LDU</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Independiente (Ecu)</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Academia de Balompie Boliviano</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G54" t="n">
+        <v>980</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I54" t="n">
+        <v>980</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K54" t="n">
+        <v>980</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H55" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K55" t="n">
         <v>6</v>
       </c>
-      <c r="AO48" t="n">
+      <c r="L55" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N55" t="n">
+        <v>5</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="X55" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO55" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO55"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H2" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J2" t="n">
         <v>3.55</v>
@@ -691,94 +691,94 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB2" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN2" t="n">
         <v>29</v>
       </c>
-      <c r="AL2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>24</v>
-      </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,60 +788,60 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>06:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kapaz Ganja</t>
+          <t>SFC Opava</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Zira</t>
+          <t>TJ Unie Hlubina</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="H3" t="n">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -853,7 +853,7 @@
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,55 +928,55 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FK Pribram</t>
+          <t>Kapaz Ganja</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Slavia Praha B</t>
+          <t>Zira</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
         <v>980</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>2.24</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="P4" t="n">
-        <v>2.24</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Armenian Premier League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,33 +1058,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gandzasar Kapan</t>
+          <t>FK Pribram</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BKMA Yerevan</t>
+          <t>Slavia Praha B</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J5" t="n">
-        <v>1.09</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
         <v>980</v>
@@ -1093,25 +1093,25 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.02</v>
+        <v>2.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>1.06</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Gandzasar Kapan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Port FC</t>
+          <t>BKMA Yerevan</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>2.66</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>2.4</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="T6" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.51</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,93 +1328,93 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Port FC</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.54</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.84</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W7" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
         <v>980</v>
@@ -1423,37 +1423,37 @@
         <v>980</v>
       </c>
       <c r="AG7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>980</v>
       </c>
-      <c r="AH7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,72 +1463,72 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Lokomotiv Sofia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.66</v>
+        <v>2.76</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>2.56</v>
       </c>
       <c r="I8" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
-        <v>2.48</v>
+        <v>1.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.47</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.96</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PFK Turan Tovuz</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.78</v>
+        <v>1.73</v>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
-        <v>2.64</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.94</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>1.59</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="V9" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="W9" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,72 +1733,72 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>PFK Turan Tovuz</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.59</v>
+        <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>2.58</v>
       </c>
       <c r="I10" t="n">
-        <v>8.6</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="K10" t="n">
-        <v>500</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>2.78</v>
+        <v>2.36</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,93 +1868,93 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="H11" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.7</v>
+        <v>2.84</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="V11" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -1963,28 +1963,28 @@
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,88 +2008,88 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Obolon-Brovar Kiev</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kolos Kovalyovka</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.55</v>
+        <v>1.55</v>
       </c>
       <c r="G12" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.22</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.48</v>
+        <v>8.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.78</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.36</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="W12" t="n">
-        <v>1.31</v>
+        <v>2.42</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2098,28 +2098,28 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NK Primorje</t>
+          <t>Kolos Kovalyovka</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="G13" t="n">
-        <v>2.68</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.74</v>
+        <v>2.22</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>2.44</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S13" t="n">
         <v>4.2</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.69</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF13" t="n">
         <v>26</v>
       </c>
-      <c r="AA13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>22</v>
-      </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN13" t="n">
-        <v>19.5</v>
+        <v>95</v>
       </c>
       <c r="AO13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,105 +2273,105 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SC Austria Lustenau</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>980</v>
+        <v>2.68</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>2.74</v>
       </c>
       <c r="I14" t="n">
-        <v>980</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.09</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.02</v>
+        <v>1.69</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2380,19 +2380,19 @@
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -2413,67 +2413,67 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>SC Austria Lustenau</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>2.12</v>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2488,7 +2488,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>1000</v>
@@ -2503,7 +2503,7 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2548,55 +2548,55 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FC Liefering</t>
+          <t>WSC Hertha Wels</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>St Polten</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="J16" t="n">
-        <v>1.2</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>1.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="T16" t="n">
         <v>1.04</v>
@@ -2605,10 +2605,10 @@
         <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,97 +2683,97 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.02</v>
+        <v>2.64</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>5.4</v>
+        <v>3.45</v>
       </c>
       <c r="J17" t="n">
-        <v>1.09</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.4</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.98</v>
+        <v>1.61</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
@@ -2782,19 +2782,19 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,67 +2818,67 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ceske Budejovice</t>
+          <t>FC Liefering</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="G18" t="n">
-        <v>610</v>
+        <v>2.02</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>3.95</v>
       </c>
       <c r="I18" t="n">
-        <v>870</v>
+        <v>4.7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.03</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>1.25</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>1.13</v>
+        <v>2.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
         <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2887,16 +2887,16 @@
         <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2905,10 +2905,10 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2917,13 +2917,13 @@
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,97 +2953,97 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="G19" t="n">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
         <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
         <v>2.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.75</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.88</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="W19" t="n">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
@@ -3052,19 +3052,19 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,19 +3088,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Gornik Leczna</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.48</v>
+        <v>1.09</v>
       </c>
       <c r="G20" t="n">
-        <v>1.78</v>
+        <v>980</v>
       </c>
       <c r="H20" t="n">
         <v>1.04</v>
@@ -3121,22 +3121,22 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="P20" t="n">
         <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.55</v>
+        <v>1.13</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="T20" t="n">
         <v>1.04</v>
@@ -3145,7 +3145,7 @@
         <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W20" t="n">
         <v>1.01</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.47</v>
+        <v>2.32</v>
       </c>
       <c r="G21" t="n">
-        <v>1.57</v>
+        <v>2.46</v>
       </c>
       <c r="H21" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>9.6</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>5.7</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>2.18</v>
+        <v>1.85</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="R21" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="S21" t="n">
-        <v>2.74</v>
+        <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>2.74</v>
+        <v>1.68</v>
       </c>
       <c r="X21" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Gornik Leczna</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.94</v>
+        <v>1.55</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>1.67</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>1.71</v>
+        <v>2.28</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>1.57</v>
       </c>
       <c r="R22" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>2.42</v>
       </c>
       <c r="T22" t="n">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="W22" t="n">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>19.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,123 +3488,123 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="G23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.69</v>
       </c>
-      <c r="H23" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.56</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="S23" t="n">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="U23" t="n">
-        <v>2.36</v>
+        <v>1.96</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.68</v>
+        <v>1.97</v>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="I24" t="n">
-        <v>3.05</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="P24" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="Q24" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W24" t="n">
         <v>2</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.55</v>
-      </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AA24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL24" t="n">
         <v>48</v>
       </c>
-      <c r="AB24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>980</v>
-      </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="AN24" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="G25" t="n">
-        <v>2.42</v>
+        <v>1.69</v>
       </c>
       <c r="H25" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="R25" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="S25" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="T25" t="n">
         <v>1.62</v>
       </c>
       <c r="U25" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="V25" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>1.7</v>
+        <v>2.44</v>
       </c>
       <c r="X25" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y25" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Erzgebirge</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.04</v>
+        <v>2.82</v>
       </c>
       <c r="G26" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF26" t="n">
         <v>980</v>
       </c>
-      <c r="H26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="AG26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI26" t="n">
         <v>980</v>
       </c>
-      <c r="J26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,100 +4033,100 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hillerod Fodbold</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Erzgebirge</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.25</v>
+        <v>1.98</v>
       </c>
       <c r="G27" t="n">
-        <v>3.55</v>
+        <v>2.26</v>
       </c>
       <c r="H27" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.48</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
         <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
         <v>3.75</v>
       </c>
       <c r="O27" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S27" t="n">
-        <v>3.3</v>
+        <v>2.52</v>
       </c>
       <c r="T27" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="U27" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="W27" t="n">
-        <v>1.39</v>
+        <v>1.79</v>
       </c>
       <c r="X27" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
@@ -4135,7 +4135,7 @@
         <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
@@ -4147,13 +4147,13 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,73 +4168,73 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>B93 Copenhagen</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="G28" t="n">
-        <v>980</v>
+        <v>2.44</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="I28" t="n">
-        <v>980</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="K28" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="S28" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4246,10 +4246,10 @@
         <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4258,7 +4258,7 @@
         <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
         <v>1000</v>
@@ -4267,7 +4267,7 @@
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK28" t="n">
         <v>1000</v>
@@ -4279,7 +4279,7 @@
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,105 +4298,105 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Hillerod Fodbold</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.35</v>
+        <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
-        <v>6.2</v>
+        <v>2.32</v>
       </c>
       <c r="I29" t="n">
-        <v>870</v>
+        <v>2.5</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>5.6</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O29" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="R29" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="S29" t="n">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="V29" t="n">
-        <v>1.06</v>
+        <v>1.67</v>
       </c>
       <c r="W29" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4405,7 +4405,7 @@
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
@@ -4417,13 +4417,13 @@
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,36 +4433,36 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>B93 Copenhagen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="G30" t="n">
-        <v>980</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
-        <v>1.04</v>
+        <v>2.76</v>
       </c>
       <c r="I30" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="J30" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,34 +4471,34 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="R30" t="n">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="S30" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="T30" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="U30" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="V30" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="G31" t="n">
-        <v>980</v>
+        <v>1.48</v>
       </c>
       <c r="H31" t="n">
-        <v>1.04</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,37 +4606,37 @@
         <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="S31" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="T31" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U31" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V31" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -4645,46 +4645,46 @@
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,78 +4703,78 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.82</v>
+        <v>4.3</v>
       </c>
       <c r="G32" t="n">
-        <v>2.22</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>1.72</v>
       </c>
       <c r="I32" t="n">
-        <v>4.4</v>
+        <v>1.87</v>
       </c>
       <c r="J32" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>2.46</v>
+        <v>1.25</v>
       </c>
       <c r="O32" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P32" t="n">
-        <v>2.46</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.41</v>
+        <v>1.13</v>
       </c>
       <c r="R32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.64</v>
       </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.43</v>
-      </c>
       <c r="U32" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="V32" t="n">
-        <v>1.29</v>
+        <v>2.14</v>
       </c>
       <c r="W32" t="n">
-        <v>1.81</v>
+        <v>1.25</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4783,13 +4783,13 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
@@ -4798,16 +4798,16 @@
         <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,78 +4838,78 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>2.54</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>8.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="J33" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>2.32</v>
+        <v>1.84</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="R33" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>2.34</v>
+        <v>2.76</v>
       </c>
       <c r="T33" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="U33" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="V33" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="W33" t="n">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,10 +4918,10 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4930,22 +4930,22 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
@@ -4954,7 +4954,7 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.68</v>
+        <v>1.78</v>
       </c>
       <c r="G34" t="n">
-        <v>2.96</v>
+        <v>110</v>
       </c>
       <c r="H34" t="n">
-        <v>2.46</v>
+        <v>1.36</v>
       </c>
       <c r="I34" t="n">
-        <v>2.7</v>
+        <v>1000</v>
       </c>
       <c r="J34" t="n">
-        <v>3.65</v>
+        <v>1.2</v>
       </c>
       <c r="K34" t="n">
-        <v>4.2</v>
+        <v>950</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,55 +5011,55 @@
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>5.8</v>
+        <v>1.67</v>
       </c>
       <c r="O34" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="P34" t="n">
-        <v>2.58</v>
+        <v>1.67</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="R34" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="S34" t="n">
-        <v>2.2</v>
+        <v>1.11</v>
       </c>
       <c r="T34" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="U34" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="V34" t="n">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="W34" t="n">
-        <v>1.51</v>
+        <v>1.05</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
@@ -5068,7 +5068,7 @@
         <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
         <v>1000</v>
@@ -5089,7 +5089,7 @@
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>1.63</v>
       </c>
       <c r="H35" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="I35" t="n">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O35" t="n">
         <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R35" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S35" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T35" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="U35" t="n">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="V35" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="W35" t="n">
-        <v>2.02</v>
+        <v>2.58</v>
       </c>
       <c r="X35" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="AB35" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD35" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>9.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5248,110 +5248,110 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>2.96</v>
       </c>
       <c r="H36" t="n">
-        <v>1.45</v>
+        <v>2.46</v>
       </c>
       <c r="I36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q36" t="n">
         <v>1.51</v>
       </c>
-      <c r="J36" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.45</v>
-      </c>
       <c r="R36" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="S36" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="T36" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="U36" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="V36" t="n">
-        <v>2.96</v>
+        <v>1.58</v>
       </c>
       <c r="W36" t="n">
-        <v>1.14</v>
+        <v>1.51</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Z36" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AA36" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD36" t="n">
         <v>15.5</v>
       </c>
-      <c r="AD36" t="n">
-        <v>13</v>
-      </c>
       <c r="AE36" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AG36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI36" t="n">
         <v>34</v>
       </c>
-      <c r="AH36" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI36" t="n">
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
         <v>32</v>
       </c>
-      <c r="AJ36" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL36" t="n">
         <v>1000</v>
       </c>
@@ -5362,13 +5362,13 @@
         <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.95</v>
+        <v>1.88</v>
       </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>1.96</v>
       </c>
       <c r="H37" t="n">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="I37" t="n">
-        <v>1.98</v>
+        <v>4.2</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K37" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P37" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="Q37" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R37" t="n">
         <v>1.63</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S37" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="T37" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="U37" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="V37" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W37" t="n">
         <v>2.02</v>
       </c>
-      <c r="W37" t="n">
-        <v>1.32</v>
-      </c>
       <c r="X37" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y37" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK37" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA37" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>50</v>
-      </c>
       <c r="AL37" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AM37" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN37" t="n">
-        <v>38</v>
+        <v>9.4</v>
       </c>
       <c r="AO37" t="n">
-        <v>11.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,106 +5518,106 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Debreceni VSC</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.04</v>
+        <v>6.8</v>
       </c>
       <c r="G38" t="n">
-        <v>600</v>
+        <v>7.8</v>
       </c>
       <c r="H38" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="I38" t="n">
-        <v>980</v>
+        <v>1.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="P38" t="n">
-        <v>1.24</v>
+        <v>2.96</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="R38" t="n">
-        <v>1.18</v>
+        <v>1.8</v>
       </c>
       <c r="S38" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="T38" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="U38" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="V38" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="W38" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
         <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AK38" t="n">
         <v>1000</v>
@@ -5632,13 +5632,13 @@
         <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,117 +5648,117 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.74</v>
+        <v>3.95</v>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="I39" t="n">
-        <v>2.66</v>
+        <v>1.98</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P39" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="R39" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="U39" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V39" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="W39" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC39" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
@@ -5767,13 +5767,13 @@
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Debreceni VSC</t>
         </is>
       </c>
       <c r="F40" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U40" t="n">
         <v>2.12</v>
       </c>
-      <c r="G40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V40" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W40" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="X40" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z40" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE40" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AF40" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AH40" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AJ40" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,72 +5918,72 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Miedz Legnica</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F41" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M41" t="n">
         <v>1.04</v>
       </c>
-      <c r="G41" t="n">
-        <v>600</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I41" t="n">
-        <v>980</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K41" t="n">
-        <v>980</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N41" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P41" t="n">
-        <v>1.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R41" t="n">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="S41" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U41" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="V41" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="W41" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6001,10 +6001,10 @@
         <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>2.12</v>
       </c>
       <c r="G42" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
-        <v>2.32</v>
+        <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>2.56</v>
+        <v>4.3</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K42" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L42" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="O42" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.29</v>
       </c>
-      <c r="P42" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S42" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="T42" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="U42" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="V42" t="n">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="W42" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="X42" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z42" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AA42" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
         <v>16</v>
       </c>
-      <c r="AC42" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE42" t="n">
+      <c r="AG42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK42" t="n">
         <v>32</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>46</v>
       </c>
       <c r="AL42" t="n">
         <v>55</v>
       </c>
       <c r="AM42" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN42" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AO42" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Miedz Legnica</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="G43" t="n">
-        <v>3.25</v>
+        <v>1.96</v>
       </c>
       <c r="H43" t="n">
-        <v>2.26</v>
+        <v>3.85</v>
       </c>
       <c r="I43" t="n">
-        <v>2.28</v>
+        <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K43" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="L43" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="R43" t="n">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="S43" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="U43" t="n">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="V43" t="n">
-        <v>1.78</v>
+        <v>1.28</v>
       </c>
       <c r="W43" t="n">
-        <v>1.44</v>
+        <v>2.04</v>
       </c>
       <c r="X43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y43" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="Z43" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH43" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AI43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL43" t="n">
         <v>32</v>
       </c>
-      <c r="AB43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>30</v>
-      </c>
       <c r="AM43" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO43" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,67 +6328,67 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.04</v>
+        <v>2.96</v>
       </c>
       <c r="G44" t="n">
-        <v>980</v>
+        <v>3.35</v>
       </c>
       <c r="H44" t="n">
-        <v>1.09</v>
+        <v>2.28</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="J44" t="n">
-        <v>1.09</v>
+        <v>3.35</v>
       </c>
       <c r="K44" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="O44" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P44" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="R44" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="S44" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="T44" t="n">
         <v>1.04</v>
       </c>
       <c r="U44" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="V44" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="W44" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="G45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R45" t="n">
         <v>1.84</v>
       </c>
-      <c r="H45" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S45" t="n">
-        <v>4.2</v>
+        <v>2.14</v>
       </c>
       <c r="T45" t="n">
-        <v>2.06</v>
+        <v>1.45</v>
       </c>
       <c r="U45" t="n">
-        <v>1.78</v>
+        <v>3.05</v>
       </c>
       <c r="V45" t="n">
-        <v>1.17</v>
+        <v>1.77</v>
       </c>
       <c r="W45" t="n">
-        <v>2.18</v>
+        <v>1.45</v>
       </c>
       <c r="X45" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Y45" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.4</v>
+        <v>23</v>
       </c>
       <c r="AC45" t="n">
         <v>10.5</v>
       </c>
       <c r="AD45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK45" t="n">
         <v>28</v>
       </c>
-      <c r="AE45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>25</v>
-      </c>
       <c r="AL45" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>2.76</v>
       </c>
       <c r="G46" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="H46" t="n">
-        <v>1.98</v>
+        <v>2.68</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="J46" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L46" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="O46" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>2.26</v>
+        <v>1.59</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="R46" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="S46" t="n">
-        <v>2.86</v>
+        <v>3.55</v>
       </c>
       <c r="T46" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="U46" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="V46" t="n">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="W46" t="n">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="X46" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G47" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="H47" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I47" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K47" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L47" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O47" t="n">
         <v>1.42</v>
       </c>
-      <c r="M47" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N47" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.34</v>
-      </c>
       <c r="P47" t="n">
-        <v>1.94</v>
+        <v>1.66</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="R47" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="S47" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U47" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="V47" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W47" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="X47" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA47" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD47" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE47" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AG47" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH47" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI47" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AK47" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AL47" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AM47" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.34</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>2.38</v>
+        <v>4.1</v>
       </c>
       <c r="H48" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K48" t="n">
         <v>4</v>
       </c>
-      <c r="I48" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.05</v>
-      </c>
       <c r="L48" t="n">
-        <v>1.65</v>
+        <v>1.34</v>
       </c>
       <c r="M48" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>2.48</v>
+        <v>4.7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>1.48</v>
+        <v>2.28</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>1.76</v>
       </c>
       <c r="R48" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="S48" t="n">
-        <v>6.4</v>
+        <v>2.88</v>
       </c>
       <c r="T48" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U48" t="n">
         <v>2.36</v>
       </c>
-      <c r="U48" t="n">
-        <v>1.7</v>
-      </c>
       <c r="V48" t="n">
+        <v>2</v>
+      </c>
+      <c r="W48" t="n">
         <v>1.32</v>
       </c>
-      <c r="W48" t="n">
-        <v>1.72</v>
-      </c>
       <c r="X48" t="n">
-        <v>7.2</v>
+        <v>18</v>
       </c>
       <c r="Y48" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="AB48" t="n">
-        <v>6.8</v>
+        <v>18.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD48" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="AF48" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AG48" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="AJ48" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AK48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN48" t="n">
         <v>36</v>
       </c>
-      <c r="AL48" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>38</v>
-      </c>
       <c r="AO48" t="n">
-        <v>130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H49" t="n">
         <v>6.2</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J49" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L49" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M49" t="n">
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O49" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P49" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="R49" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="S49" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T49" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="V49" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W49" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z49" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB49" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AC49" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD49" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF49" t="n">
         <v>9.4</v>
       </c>
       <c r="AG49" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH49" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AK49" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AL49" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.7</v>
+        <v>2.34</v>
       </c>
       <c r="G50" t="n">
-        <v>3.35</v>
+        <v>2.38</v>
       </c>
       <c r="H50" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="I50" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="J50" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="L50" t="n">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="N50" t="n">
-        <v>3.65</v>
+        <v>2.48</v>
       </c>
       <c r="O50" t="n">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="P50" t="n">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="S50" t="n">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="T50" t="n">
-        <v>1.54</v>
+        <v>2.36</v>
       </c>
       <c r="U50" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="V50" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="W50" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,123 +7268,123 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.6</v>
+        <v>1.64</v>
       </c>
       <c r="G51" t="n">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
-        <v>2.22</v>
+        <v>6.2</v>
       </c>
       <c r="I51" t="n">
-        <v>2.28</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="K51" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L51" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="P51" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R51" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="S51" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T51" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="U51" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="V51" t="n">
-        <v>1.79</v>
+        <v>1.17</v>
       </c>
       <c r="W51" t="n">
-        <v>1.37</v>
+        <v>2.42</v>
       </c>
       <c r="X51" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y51" t="n">
-        <v>9.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AA51" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD51" t="n">
         <v>980</v>
       </c>
-      <c r="AB51" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>11</v>
-      </c>
       <c r="AE51" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ51" t="n">
         <v>980</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>1000</v>
       </c>
       <c r="AK51" t="n">
         <v>980</v>
       </c>
       <c r="AL51" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM51" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AN51" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AO51" t="n">
         <v>1000</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,111 +7403,111 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="F52" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U52" t="n">
         <v>2.32</v>
       </c>
-      <c r="G52" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U52" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V52" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="W52" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y52" t="n">
         <v>15</v>
       </c>
       <c r="Z52" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB52" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD52" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC52" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>21</v>
-      </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF52" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG52" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH52" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ52" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="n">
         <v>40</v>
@@ -7522,13 +7522,13 @@
         <v>32</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,132 +7538,132 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LDU</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Independiente (Ecu)</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.18</v>
+        <v>3.6</v>
       </c>
       <c r="G53" t="n">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="H53" t="n">
-        <v>3.3</v>
+        <v>2.22</v>
       </c>
       <c r="I53" t="n">
-        <v>3.8</v>
+        <v>2.28</v>
       </c>
       <c r="J53" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K53" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L53" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="M53" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
         <v>3.65</v>
       </c>
       <c r="O53" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P53" t="n">
         <v>1.91</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="R53" t="n">
         <v>1.35</v>
       </c>
       <c r="S53" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="T53" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="U53" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V53" t="n">
-        <v>1.36</v>
+        <v>1.79</v>
       </c>
       <c r="W53" t="n">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ53" t="n">
         <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM53" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,260 +7673,530 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Academia de Balompie Boliviano</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="G54" t="n">
-        <v>980</v>
+        <v>2.46</v>
       </c>
       <c r="H54" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I54" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="K54" t="n">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="O54" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>LDU</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Independiente (Ecu)</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Academia de Balompie Boliviano</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G56" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K56" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>2025-11-28</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Santos</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Sport Recife</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="F57" t="n">
         <v>1.33</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G57" t="n">
         <v>1.36</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H57" t="n">
         <v>11.5</v>
       </c>
-      <c r="I55" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J55" t="n">
+      <c r="I57" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J57" t="n">
         <v>5.5</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K57" t="n">
         <v>6</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L57" t="n">
         <v>1.29</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M57" t="n">
         <v>1.04</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N57" t="n">
         <v>5</v>
       </c>
-      <c r="O55" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P55" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S55" t="n">
+      <c r="O57" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S57" t="n">
         <v>2.6</v>
       </c>
-      <c r="T55" t="n">
+      <c r="T57" t="n">
         <v>2.02</v>
       </c>
-      <c r="U55" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W55" t="n">
+      <c r="U57" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W57" t="n">
         <v>3.75</v>
       </c>
-      <c r="X55" t="n">
+      <c r="X57" t="n">
         <v>28</v>
       </c>
-      <c r="Y55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB55" t="n">
+      <c r="Y57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB57" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC55" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF55" t="n">
+      <c r="AC57" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF57" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AG55" t="n">
+      <c r="AG57" t="n">
         <v>11</v>
       </c>
-      <c r="AH55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ55" t="n">
+      <c r="AH57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ57" t="n">
         <v>11.5</v>
       </c>
-      <c r="AK55" t="n">
+      <c r="AK57" t="n">
         <v>15</v>
       </c>
-      <c r="AL55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN55" t="n">
+      <c r="AL57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN57" t="n">
         <v>5.4</v>
       </c>
-      <c r="AO55" t="n">
+      <c r="AO57" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.66</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I2" t="n">
         <v>2.94</v>
@@ -685,25 +685,25 @@
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
         <v>3.35</v>
@@ -712,7 +712,7 @@
         <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
         <v>1.51</v>
@@ -721,28 +721,28 @@
         <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
         <v>17.5</v>
@@ -751,28 +751,28 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AL2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="G3" t="n">
-        <v>610</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
-        <v>870</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -829,19 +829,19 @@
         <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -850,10 +850,10 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.04</v>
       </c>
-      <c r="G4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>980</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="O4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.09</v>
+        <v>2.8</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>1.09</v>
+        <v>2.1</v>
       </c>
       <c r="I5" t="n">
-        <v>980</v>
+        <v>2.52</v>
       </c>
       <c r="J5" t="n">
         <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>2.24</v>
+        <v>1.26</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>1.18</v>
+        <v>2.12</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -1222,7 +1222,7 @@
         <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.27</v>
@@ -1240,7 +1240,7 @@
         <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
         <v>1.41</v>
@@ -1249,7 +1249,7 @@
         <v>2.72</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
         <v>2.04</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>FK Usce Novi Beograd</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Port FC</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.4</v>
+        <v>1.02</v>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>610</v>
       </c>
       <c r="H7" t="n">
-        <v>2.68</v>
+        <v>1.02</v>
       </c>
       <c r="I7" t="n">
-        <v>2.98</v>
+        <v>870</v>
       </c>
       <c r="J7" t="n">
-        <v>3.95</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>500</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.04</v>
       </c>
-      <c r="N7" t="n">
-        <v>5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.54</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Port FC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.76</v>
+        <v>2.44</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>2.64</v>
       </c>
       <c r="H8" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="S8" t="n">
-        <v>4.1</v>
+        <v>2.52</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>2.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Lokomotiv Sofia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>2.78</v>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>3.15</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>2.58</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>2.08</v>
+        <v>1.46</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PFK Turan Tovuz</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.82</v>
+        <v>1.76</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.58</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.94</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>2.36</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>1.49</v>
       </c>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,72 +1868,72 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>PFK Turan Tovuz</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.65</v>
+        <v>2.86</v>
       </c>
       <c r="G11" t="n">
-        <v>1.87</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>2.68</v>
       </c>
       <c r="I11" t="n">
-        <v>8.4</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.35</v>
       </c>
-      <c r="K11" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.05</v>
       </c>
-      <c r="N11" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>1.04</v>
       </c>
-      <c r="U11" t="n">
-        <v>1.66</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.16</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,93 +2003,93 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="I12" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="P12" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2098,28 +2098,28 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,84 +2138,84 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Obolon-Brovar Kiev</t>
+          <t>ASA Targu Mures</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kolos Kovalyovka</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.62</v>
+        <v>1.24</v>
       </c>
       <c r="O13" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.36</v>
+        <v>1.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
         <v>1000</v>
@@ -2227,34 +2227,34 @@
         <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,105 +2273,105 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NK Primorje</t>
+          <t>Kolos Kovalyovka</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.4</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="R14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S14" t="n">
         <v>4.2</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.72</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="V14" t="n">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="W14" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>18</v>
+        <v>8.4</v>
       </c>
       <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
         <v>26</v>
       </c>
-      <c r="AA14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>22</v>
-      </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2380,25 +2380,25 @@
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>19.5</v>
+        <v>90</v>
       </c>
       <c r="AO14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,93 +2408,93 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SC Austria Lustenau</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="G15" t="n">
-        <v>2.68</v>
+        <v>1.69</v>
       </c>
       <c r="H15" t="n">
-        <v>2.86</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.8</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.04</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="W15" t="n">
-        <v>1.6</v>
+        <v>2.42</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
@@ -2503,28 +2503,28 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,105 +2543,105 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>WSC Hertha Wels</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>St Polten</t>
+          <t>NK Primorje</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="G16" t="n">
-        <v>6.4</v>
+        <v>2.66</v>
       </c>
       <c r="H16" t="n">
-        <v>1.72</v>
+        <v>2.74</v>
       </c>
       <c r="I16" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.27</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.2</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.9</v>
-      </c>
       <c r="Q16" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R16" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.94</v>
+        <v>1.48</v>
       </c>
       <c r="W16" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2650,19 +2650,19 @@
         <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -2683,70 +2683,70 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>SC Austria Lustenau</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G17" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="I17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.45</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>1.41</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.26</v>
+        <v>1.79</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="U17" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
         <v>1000</v>
@@ -2761,7 +2761,7 @@
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2818,67 +2818,67 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FC Liefering</t>
+          <t>WSC Hertha Wels</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>St Polten</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.87</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.02</v>
+        <v>6.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>1.77</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>2.06</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>2.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="T18" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
         <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.94</v>
       </c>
       <c r="W18" t="n">
-        <v>1.98</v>
+        <v>1.18</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2887,16 +2887,16 @@
         <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2905,10 +2905,10 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -2917,19 +2917,19 @@
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,97 +2953,97 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.4</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.24</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
@@ -3052,19 +3052,19 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,85 +3088,85 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ceske Budejovice</t>
+          <t>FC Liefering</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.09</v>
+        <v>1.89</v>
       </c>
       <c r="G20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
         <v>980</v>
       </c>
-      <c r="H20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
         <v>980</v>
       </c>
-      <c r="J20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
         <v>980</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3175,10 +3175,10 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
         <v>1000</v>
@@ -3187,13 +3187,13 @@
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,118 +3223,118 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.32</v>
+        <v>1.88</v>
       </c>
       <c r="G21" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="R21" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="S21" t="n">
         <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="X21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y21" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
         <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,67 +3358,67 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Ceske Budejovice</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gornik Leczna</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>980</v>
       </c>
       <c r="H22" t="n">
-        <v>5.6</v>
+        <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>1.09</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>980</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.04</v>
       </c>
-      <c r="N22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.74</v>
-      </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="W22" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3436,7 +3436,7 @@
         <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3445,10 +3445,10 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
         <v>1000</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,100 +3493,100 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.4</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="W23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X23" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
         <v>10.5</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
@@ -3601,7 +3601,7 @@
         <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Gornik Leczna</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.97</v>
+        <v>1.55</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="H24" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>1.72</v>
+        <v>2.28</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>4.2</v>
+        <v>2.42</v>
       </c>
       <c r="T24" t="n">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="U24" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>8.6</v>
       </c>
       <c r="AO24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="G25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1.69</v>
       </c>
-      <c r="H25" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.56</v>
-      </c>
       <c r="R25" t="n">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="S25" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="T25" t="n">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="U25" t="n">
-        <v>2.36</v>
+        <v>1.96</v>
       </c>
       <c r="V25" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="W25" t="n">
-        <v>2.44</v>
+        <v>2.96</v>
       </c>
       <c r="X25" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Y25" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Z25" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM25" t="n">
         <v>150</v>
       </c>
-      <c r="AB25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>90</v>
-      </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.82</v>
+        <v>1.95</v>
       </c>
       <c r="G26" t="n">
-        <v>2.92</v>
+        <v>1.96</v>
       </c>
       <c r="H26" t="n">
-        <v>2.82</v>
+        <v>4.9</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="S26" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.74</v>
+        <v>1.99</v>
       </c>
       <c r="U26" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="V26" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="W26" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="Z26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD26" t="n">
         <v>20</v>
       </c>
-      <c r="AA26" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>13</v>
-      </c>
       <c r="AE26" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM26" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Erzgebirge</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.98</v>
+        <v>2.8</v>
       </c>
       <c r="G27" t="n">
-        <v>2.26</v>
+        <v>2.86</v>
       </c>
       <c r="H27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J27" t="n">
         <v>3.3</v>
       </c>
-      <c r="I27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>3.35</v>
       </c>
-      <c r="K27" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
         <v>1.37</v>
       </c>
       <c r="S27" t="n">
-        <v>2.52</v>
+        <v>3.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V27" t="n">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="W27" t="n">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,60 +4163,60 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.36</v>
+        <v>1.65</v>
       </c>
       <c r="G28" t="n">
-        <v>2.44</v>
+        <v>1.69</v>
       </c>
       <c r="H28" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="R28" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="S28" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="T28" t="n">
         <v>1.62</v>
@@ -4225,61 +4225,61 @@
         <v>2.44</v>
       </c>
       <c r="V28" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="W28" t="n">
-        <v>1.69</v>
+        <v>2.42</v>
       </c>
       <c r="X28" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>18</v>
+        <v>6.8</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,100 +4303,100 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hillerod Fodbold</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Erzgebirge</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.2</v>
+        <v>1.83</v>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>2.26</v>
       </c>
       <c r="H29" t="n">
-        <v>2.32</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="P29" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="R29" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="S29" t="n">
-        <v>3.3</v>
+        <v>2.52</v>
       </c>
       <c r="T29" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="U29" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="V29" t="n">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>1.79</v>
       </c>
       <c r="X29" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4405,7 +4405,7 @@
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
@@ -4417,13 +4417,13 @@
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,73 +4438,73 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>B93 Copenhagen</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="H30" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="P30" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="R30" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="S30" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U30" t="n">
         <v>2.44</v>
       </c>
-      <c r="T30" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.14</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="W30" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4513,13 +4513,13 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
@@ -4528,10 +4528,10 @@
         <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Hillerod Fodbold</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.41</v>
+        <v>3.2</v>
       </c>
       <c r="G31" t="n">
-        <v>1.48</v>
+        <v>3.55</v>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>2.32</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>2.48</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="U31" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="V31" t="n">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="W31" t="n">
-        <v>3.05</v>
+        <v>1.4</v>
       </c>
       <c r="X31" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC31" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC31" t="n">
-        <v>12</v>
-      </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.199999999999999</v>
+        <v>32</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,36 +4703,36 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>B93 Copenhagen</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>2.08</v>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
-        <v>1.72</v>
+        <v>2.76</v>
       </c>
       <c r="I32" t="n">
-        <v>1.87</v>
+        <v>3.75</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,34 +4741,34 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>1.25</v>
+        <v>3.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P32" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13</v>
+        <v>1.61</v>
       </c>
       <c r="R32" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="S32" t="n">
-        <v>1.13</v>
+        <v>2.44</v>
       </c>
       <c r="T32" t="n">
         <v>1.64</v>
       </c>
       <c r="U32" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="V32" t="n">
-        <v>2.14</v>
+        <v>1.37</v>
       </c>
       <c r="W32" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,70 +4843,70 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="G33" t="n">
-        <v>2.54</v>
+        <v>1.46</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>4.3</v>
+        <v>9.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>1.84</v>
+        <v>2.42</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="S33" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="T33" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U33" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V33" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>1.64</v>
+        <v>3.15</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y33" t="n">
         <v>1000</v>
@@ -4915,46 +4915,46 @@
         <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH33" t="n">
         <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,72 +4973,72 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.78</v>
+        <v>4.3</v>
       </c>
       <c r="G34" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="I34" t="n">
-        <v>1000</v>
+        <v>1.88</v>
       </c>
       <c r="J34" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P34" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="R34" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="S34" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="T34" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="U34" t="n">
         <v>1.04</v>
       </c>
       <c r="V34" t="n">
-        <v>1.28</v>
+        <v>2.12</v>
       </c>
       <c r="W34" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,72 +5108,72 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>1.63</v>
+        <v>2.54</v>
       </c>
       <c r="H35" t="n">
-        <v>5.7</v>
+        <v>3.25</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="J35" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="R35" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="S35" t="n">
-        <v>2.38</v>
+        <v>2.76</v>
       </c>
       <c r="T35" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="U35" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="V35" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="W35" t="n">
-        <v>2.58</v>
+        <v>1.64</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5185,13 +5185,13 @@
         <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
@@ -5200,22 +5200,22 @@
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
         <v>1000</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.7</v>
+        <v>1.88</v>
       </c>
       <c r="G36" t="n">
-        <v>2.96</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="n">
-        <v>2.46</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K36" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,88 +5281,88 @@
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R36" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="S36" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="T36" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="U36" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="V36" t="n">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="W36" t="n">
-        <v>1.51</v>
+        <v>2.02</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y36" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Z36" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC36" t="n">
         <v>10.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI36" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AO36" t="n">
         <v>32</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5383,31 +5383,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="G37" t="n">
-        <v>1.96</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>3.8</v>
+        <v>2.62</v>
       </c>
       <c r="I37" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="J37" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,88 +5416,88 @@
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>5.6</v>
+        <v>1.92</v>
       </c>
       <c r="O37" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P37" t="n">
-        <v>2.56</v>
+        <v>1.9</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.54</v>
+        <v>1.13</v>
       </c>
       <c r="R37" t="n">
-        <v>1.63</v>
+        <v>1.26</v>
       </c>
       <c r="S37" t="n">
-        <v>2.32</v>
+        <v>1.13</v>
       </c>
       <c r="T37" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="U37" t="n">
-        <v>2.54</v>
+        <v>1.04</v>
       </c>
       <c r="V37" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="W37" t="n">
-        <v>2.02</v>
+        <v>1.64</v>
       </c>
       <c r="X37" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
         <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5518,109 +5518,109 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6.8</v>
+        <v>1.53</v>
       </c>
       <c r="G38" t="n">
-        <v>7.8</v>
+        <v>1.58</v>
       </c>
       <c r="H38" t="n">
-        <v>1.44</v>
+        <v>5.9</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K38" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L38" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P38" t="n">
-        <v>2.96</v>
+        <v>2.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="R38" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="S38" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="T38" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="U38" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>1.16</v>
       </c>
       <c r="W38" t="n">
-        <v>1.14</v>
+        <v>2.72</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y38" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="AB38" t="n">
-        <v>44</v>
+        <v>12.5</v>
       </c>
       <c r="AC38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>15.5</v>
       </c>
-      <c r="AD38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>210</v>
-      </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -5629,16 +5629,16 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO38" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,112 +5653,112 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.95</v>
+        <v>2.7</v>
       </c>
       <c r="G39" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K39" t="n">
         <v>4.1</v>
       </c>
-      <c r="H39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J39" t="n">
-        <v>4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L39" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="P39" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="S39" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="T39" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="U39" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="V39" t="n">
-        <v>2.02</v>
+        <v>1.58</v>
       </c>
       <c r="W39" t="n">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="X39" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Z39" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
         <v>10.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AI39" t="n">
         <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
@@ -5767,13 +5767,13 @@
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,106 +5788,106 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Debreceni VSC</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.18</v>
+        <v>6.8</v>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>7.8</v>
       </c>
       <c r="H40" t="n">
-        <v>3.05</v>
+        <v>1.46</v>
       </c>
       <c r="I40" t="n">
-        <v>3.45</v>
+        <v>1.49</v>
       </c>
       <c r="J40" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="P40" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.84</v>
+        <v>1.44</v>
       </c>
       <c r="R40" t="n">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="S40" t="n">
-        <v>3.2</v>
+        <v>2.06</v>
       </c>
       <c r="T40" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U40" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="V40" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="W40" t="n">
-        <v>1.71</v>
+        <v>1.15</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y40" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="Z40" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB40" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AE40" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AF40" t="n">
         <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI40" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AK40" t="n">
         <v>1000</v>
@@ -5902,13 +5902,13 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>980</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.74</v>
+        <v>3.95</v>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H41" t="n">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="I41" t="n">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
       <c r="J41" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L41" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="R41" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="S41" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="T41" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="U41" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V41" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="W41" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC41" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Debreceni VSC</t>
         </is>
       </c>
       <c r="F42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U42" t="n">
         <v>2.12</v>
       </c>
-      <c r="G42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V42" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="W42" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="X42" t="n">
-        <v>14.5</v>
+        <v>90</v>
       </c>
       <c r="Y42" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z42" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD42" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF42" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AH42" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Miedz Legnica</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.8</v>
+        <v>2.74</v>
       </c>
       <c r="G43" t="n">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
-        <v>3.85</v>
+        <v>2.38</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>2.64</v>
       </c>
       <c r="J43" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K43" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="L43" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P43" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="Q43" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R43" t="n">
         <v>1.52</v>
       </c>
-      <c r="R43" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S43" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U43" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V43" t="n">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="W43" t="n">
-        <v>2.04</v>
+        <v>1.47</v>
       </c>
       <c r="X43" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z43" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE43" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI43" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="G44" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H44" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I44" t="n">
         <v>2.28</v>
       </c>
-      <c r="I44" t="n">
-        <v>2.56</v>
-      </c>
       <c r="J44" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L44" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>1.39</v>
+        <v>7.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="P44" t="n">
-        <v>1.39</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.08</v>
+        <v>1.48</v>
       </c>
       <c r="R44" t="n">
-        <v>1.39</v>
+        <v>1.83</v>
       </c>
       <c r="S44" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U44" t="n">
         <v>3.05</v>
       </c>
-      <c r="T44" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2.16</v>
-      </c>
       <c r="V44" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="W44" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Miedz Legnica</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.2</v>
+        <v>1.77</v>
       </c>
       <c r="G45" t="n">
-        <v>3.25</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
-        <v>2.28</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S45" t="n">
         <v>2.3</v>
       </c>
-      <c r="J45" t="n">
-        <v>4</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N45" t="n">
-        <v>7</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2.14</v>
-      </c>
       <c r="T45" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="U45" t="n">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="V45" t="n">
-        <v>1.77</v>
+        <v>1.27</v>
       </c>
       <c r="W45" t="n">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="X45" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y45" t="n">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="Z45" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH45" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA45" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI45" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AJ45" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AK45" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AL45" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM45" t="n">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="AN45" t="n">
-        <v>15.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO45" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,118 +6598,118 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.76</v>
+        <v>2.14</v>
       </c>
       <c r="G46" t="n">
-        <v>3.15</v>
+        <v>2.24</v>
       </c>
       <c r="H46" t="n">
-        <v>2.68</v>
+        <v>3.9</v>
       </c>
       <c r="I46" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="J46" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K46" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L46" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N46" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P46" t="n">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="R46" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S46" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T46" t="n">
-        <v>1.04</v>
+        <v>1.88</v>
       </c>
       <c r="U46" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="W46" t="n">
-        <v>1.46</v>
+        <v>1.81</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA46" t="n">
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI46" t="n">
         <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.7</v>
+        <v>2.96</v>
       </c>
       <c r="G47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q47" t="n">
         <v>1.84</v>
       </c>
-      <c r="H47" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I47" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U47" t="n">
         <v>2.22</v>
       </c>
-      <c r="R47" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V47" t="n">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="W47" t="n">
-        <v>2.18</v>
+        <v>1.45</v>
       </c>
       <c r="X47" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB47" t="n">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="AC47" t="n">
         <v>10</v>
       </c>
       <c r="AD47" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF47" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AG47" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ47" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AL47" t="n">
         <v>55</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN47" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>2.76</v>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="H48" t="n">
-        <v>1.98</v>
+        <v>2.68</v>
       </c>
       <c r="I48" t="n">
-        <v>1.99</v>
+        <v>3.05</v>
       </c>
       <c r="J48" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T48" t="n">
         <v>1.05</v>
       </c>
-      <c r="N48" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.68</v>
-      </c>
       <c r="U48" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="V48" t="n">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="W48" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="X48" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD48" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.68</v>
+        <v>3.05</v>
       </c>
       <c r="G49" t="n">
-        <v>1.69</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
-        <v>6.2</v>
+        <v>2.76</v>
       </c>
       <c r="I49" t="n">
-        <v>6.4</v>
+        <v>2.86</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K49" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="L49" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N49" t="n">
-        <v>3.75</v>
+        <v>2.82</v>
       </c>
       <c r="O49" t="n">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="P49" t="n">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.02</v>
+        <v>2.54</v>
       </c>
       <c r="R49" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="S49" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U49" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="V49" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="W49" t="n">
-        <v>2.44</v>
+        <v>1.46</v>
       </c>
       <c r="X49" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD49" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y49" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>23</v>
-      </c>
       <c r="AE49" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AF49" t="n">
-        <v>9.4</v>
+        <v>19.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AH49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI49" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AJ49" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AM49" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AO49" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.34</v>
+        <v>1.73</v>
       </c>
       <c r="G50" t="n">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
       <c r="H50" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="I50" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S50" t="n">
         <v>4.2</v>
       </c>
-      <c r="J50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S50" t="n">
-        <v>6.4</v>
-      </c>
       <c r="T50" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="U50" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="V50" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="W50" t="n">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="X50" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="Z50" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AA50" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC50" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD50" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AE50" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG50" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH50" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI50" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AK50" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,132 +7268,132 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.64</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H51" t="n">
-        <v>6.2</v>
+        <v>1.99</v>
       </c>
       <c r="I51" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
         <v>3.95</v>
       </c>
       <c r="K51" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M51" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="P51" t="n">
-        <v>1.77</v>
+        <v>2.28</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.16</v>
+        <v>1.75</v>
       </c>
       <c r="R51" t="n">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="S51" t="n">
-        <v>4.1</v>
+        <v>2.88</v>
       </c>
       <c r="T51" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="U51" t="n">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="V51" t="n">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="W51" t="n">
-        <v>2.42</v>
+        <v>1.32</v>
       </c>
       <c r="X51" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y51" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="AB51" t="n">
-        <v>7.2</v>
+        <v>18</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD51" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="n">
-        <v>9.4</v>
+        <v>32</v>
       </c>
       <c r="AG51" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="AJ51" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK51" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AL51" t="n">
         <v>46</v>
       </c>
       <c r="AM51" t="n">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="AN51" t="n">
-        <v>15.5</v>
+        <v>36</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.94</v>
+        <v>1.7</v>
       </c>
       <c r="G52" t="n">
-        <v>3.25</v>
+        <v>1.71</v>
       </c>
       <c r="H52" t="n">
-        <v>2.34</v>
+        <v>6</v>
       </c>
       <c r="I52" t="n">
-        <v>2.56</v>
+        <v>6.2</v>
       </c>
       <c r="J52" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="M52" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O52" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="P52" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="S52" t="n">
-        <v>2.92</v>
+        <v>3.6</v>
       </c>
       <c r="T52" t="n">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="U52" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="V52" t="n">
-        <v>1.64</v>
+        <v>1.19</v>
       </c>
       <c r="W52" t="n">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="X52" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH52" t="n">
         <v>22</v>
       </c>
-      <c r="Y52" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG52" t="n">
+      <c r="AI52" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ52" t="n">
         <v>16</v>
       </c>
-      <c r="AH52" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>60</v>
-      </c>
       <c r="AK52" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN52" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AO52" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,132 +7538,132 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.6</v>
+        <v>2.32</v>
       </c>
       <c r="G53" t="n">
-        <v>3.75</v>
+        <v>2.36</v>
       </c>
       <c r="H53" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="I53" t="n">
-        <v>2.28</v>
+        <v>4.2</v>
       </c>
       <c r="J53" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="L53" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="N53" t="n">
-        <v>3.65</v>
+        <v>2.46</v>
       </c>
       <c r="O53" t="n">
-        <v>1.34</v>
+        <v>1.64</v>
       </c>
       <c r="P53" t="n">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="S53" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="T53" t="n">
-        <v>1.79</v>
+        <v>2.36</v>
       </c>
       <c r="U53" t="n">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="V53" t="n">
-        <v>1.79</v>
+        <v>1.31</v>
       </c>
       <c r="W53" t="n">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="X53" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="Y53" t="n">
         <v>10</v>
       </c>
       <c r="Z53" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AA53" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AB53" t="n">
-        <v>13.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD53" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AI53" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK53" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL53" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM53" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AN53" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AO53" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,132 +7673,132 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="G54" t="n">
-        <v>2.46</v>
+        <v>1.69</v>
       </c>
       <c r="H54" t="n">
-        <v>3.35</v>
+        <v>6.4</v>
       </c>
       <c r="I54" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K54" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L54" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M54" t="n">
         <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O54" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P54" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="R54" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S54" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T54" t="n">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="U54" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V54" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="W54" t="n">
-        <v>1.68</v>
+        <v>2.44</v>
       </c>
       <c r="X54" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="Z54" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG54" t="n">
         <v>10</v>
       </c>
-      <c r="AC54" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH54" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AI54" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM54" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO54" t="n">
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,132 +7808,132 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LDU</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Independiente (Ecu)</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.18</v>
+        <v>2.96</v>
       </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="H55" t="n">
-        <v>3.3</v>
+        <v>2.36</v>
       </c>
       <c r="I55" t="n">
-        <v>3.8</v>
+        <v>2.54</v>
       </c>
       <c r="J55" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K55" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L55" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M55" t="n">
         <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="P55" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="R55" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="S55" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="T55" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U55" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="V55" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="W55" t="n">
-        <v>1.71</v>
+        <v>1.45</v>
       </c>
       <c r="X55" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y55" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z55" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA55" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB55" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC55" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD55" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF55" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG55" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH55" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL55" t="n">
         <v>1000</v>
       </c>
       <c r="AM55" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,126 +7943,126 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Academia de Balompie Boliviano</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="G56" t="n">
-        <v>7.2</v>
+        <v>3.75</v>
       </c>
       <c r="H56" t="n">
-        <v>1.46</v>
+        <v>2.22</v>
       </c>
       <c r="I56" t="n">
-        <v>1.58</v>
+        <v>2.28</v>
       </c>
       <c r="J56" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="K56" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="L56" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M56" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="O56" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P56" t="n">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="R56" t="n">
-        <v>1.66</v>
+        <v>1.35</v>
       </c>
       <c r="S56" t="n">
-        <v>1.86</v>
+        <v>3.55</v>
       </c>
       <c r="T56" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U56" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="V56" t="n">
-        <v>2.68</v>
+        <v>1.78</v>
       </c>
       <c r="W56" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y56" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z56" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB56" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG56" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH56" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI56" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ56" t="n">
         <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL56" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -8078,125 +8078,530 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X57" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LDU</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Independiente (Ecu)</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Academia de Balompie Boliviano</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Santos</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Sport Recife</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="F60" t="n">
         <v>1.33</v>
       </c>
-      <c r="G57" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H57" t="n">
+      <c r="G60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H60" t="n">
         <v>11.5</v>
       </c>
-      <c r="I57" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6</v>
-      </c>
-      <c r="L57" t="n">
+      <c r="I60" t="n">
+        <v>13</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L60" t="n">
         <v>1.29</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M60" t="n">
         <v>1.04</v>
       </c>
-      <c r="N57" t="n">
-        <v>5</v>
-      </c>
-      <c r="O57" t="n">
+      <c r="N60" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O60" t="n">
         <v>1.22</v>
       </c>
-      <c r="P57" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S57" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W57" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X57" t="n">
+      <c r="P60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W60" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="X60" t="n">
         <v>28</v>
       </c>
-      <c r="Y57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG57" t="n">
+      <c r="Y60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG60" t="n">
         <v>11</v>
       </c>
-      <c r="AH57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO57" t="n">
+      <c r="AH60" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO60" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO60"/>
+  <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G2" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.86</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.94</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -697,55 +697,55 @@
         <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
         <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -754,25 +754,25 @@
         <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
         <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
         <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
         <v>2.7</v>
@@ -820,25 +820,25 @@
         <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
         <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
         <v>1.05</v>
@@ -850,10 +850,10 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -943,52 +943,52 @@
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="I4" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="O4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
         <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="W4" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="I5" t="n">
-        <v>2.52</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
         <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>1.26</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="T5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V5" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
         <v>28</v>
@@ -1132,52 +1132,52 @@
         <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
       </c>
       <c r="AD5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG5" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AK5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL5" t="n">
         <v>34</v>
       </c>
-      <c r="AL5" t="n">
-        <v>38</v>
-      </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1210,22 +1210,22 @@
         <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
         <v>5.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1237,7 +1237,7 @@
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
         <v>1.74</v>
@@ -1252,10 +1252,10 @@
         <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
         <v>2.14</v>
@@ -1300,7 +1300,7 @@
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="G7" t="n">
-        <v>610</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.02</v>
+        <v>2.06</v>
       </c>
       <c r="I7" t="n">
-        <v>870</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>500</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>2.48</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P7" t="n">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.05</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1480,58 +1480,58 @@
         <v>2.44</v>
       </c>
       <c r="G8" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="I8" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q8" t="n">
         <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="T8" t="n">
         <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="V8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
         <v>16</v>
@@ -1540,13 +1540,13 @@
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>13.5</v>
@@ -1555,7 +1555,7 @@
         <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
@@ -1564,10 +1564,10 @@
         <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="n">
         <v>25</v>
@@ -1579,7 +1579,7 @@
         <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
         <v>980</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G9" t="n">
         <v>3.15</v>
@@ -1621,79 +1621,79 @@
         <v>2.62</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="J9" t="n">
         <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
         <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W9" t="n">
         <v>1.46</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB9" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12</v>
-      </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
         <v>980</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G10" t="n">
         <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
         <v>4.9</v>
@@ -1762,7 +1762,7 @@
         <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1801,58 +1801,58 @@
         <v>2.1</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>21</v>
       </c>
-      <c r="AI10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>24</v>
-      </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G11" t="n">
         <v>3.3</v>
@@ -1891,7 +1891,7 @@
         <v>2.68</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
         <v>2.84</v>
@@ -1912,7 +1912,7 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q11" t="n">
         <v>2.36</v>
@@ -1933,7 +1933,7 @@
         <v>1.47</v>
       </c>
       <c r="W11" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H12" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="I12" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
@@ -2038,19 +2038,19 @@
         <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="O12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P12" t="n">
         <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.97</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
         <v>1.25</v>
@@ -2062,13 +2062,13 @@
         <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,13 +2176,13 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q13" t="n">
         <v>1.02</v>
@@ -2191,7 +2191,7 @@
         <v>1.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2200,10 +2200,10 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2290,19 +2290,19 @@
         <v>3.65</v>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I14" t="n">
         <v>2.38</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,16 +2311,16 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="O14" t="n">
         <v>1.47</v>
       </c>
       <c r="P14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R14" t="n">
         <v>1.21</v>
@@ -2332,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
         <v>1.72</v>
@@ -2341,19 +2341,19 @@
         <v>1.32</v>
       </c>
       <c r="X14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
         <v>7.4</v>
@@ -2374,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2425,19 +2425,19 @@
         <v>1.54</v>
       </c>
       <c r="G15" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I15" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J15" t="n">
         <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.37</v>
@@ -2467,13 +2467,13 @@
         <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
         <v>1.13</v>
       </c>
       <c r="W15" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2482,16 +2482,16 @@
         <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2500,10 +2500,10 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
@@ -2512,7 +2512,7 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2560,10 +2560,10 @@
         <v>2.4</v>
       </c>
       <c r="G16" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H16" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I16" t="n">
         <v>3.1</v>
@@ -2572,7 +2572,7 @@
         <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.27</v>
@@ -2632,7 +2632,7 @@
         <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF16" t="n">
         <v>22</v>
@@ -2647,7 +2647,7 @@
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="n">
         <v>32</v>
@@ -2656,7 +2656,7 @@
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>19.5</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G17" t="n">
         <v>2.68</v>
@@ -2701,7 +2701,7 @@
         <v>2.86</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
         <v>3.45</v>
@@ -2740,7 +2740,7 @@
         <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W17" t="n">
         <v>1.6</v>
@@ -2749,46 +2749,46 @@
         <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC17" t="n">
         <v>980</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF17" t="n">
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2842,16 +2842,16 @@
         <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O18" t="n">
         <v>1.27</v>
@@ -2860,16 +2860,16 @@
         <v>1.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U18" t="n">
         <v>1.04</v>
@@ -2995,7 +2995,7 @@
         <v>2.06</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
         <v>1.41</v>
@@ -3031,7 +3031,7 @@
         <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>42</v>
+        <v>16.5</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G20" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
@@ -3127,7 +3127,7 @@
         <v>1.26</v>
       </c>
       <c r="P20" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" t="n">
         <v>1.76</v>
@@ -3151,7 +3151,7 @@
         <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3163,10 +3163,10 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3175,13 +3175,13 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3190,7 +3190,7 @@
         <v>980</v>
       </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
         <v>980</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>1.88</v>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
@@ -3244,7 +3244,7 @@
         <v>5.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
         <v>3.8</v>
@@ -3277,52 +3277,52 @@
         <v>1.94</v>
       </c>
       <c r="U21" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V21" t="n">
         <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
         <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK21" t="n">
         <v>29</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="G22" t="n">
-        <v>980</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
         <v>980</v>
       </c>
       <c r="J22" t="n">
-        <v>1.09</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
         <v>980</v>
@@ -3418,7 +3418,7 @@
         <v>1.11</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G23" t="n">
         <v>2.46</v>
@@ -3514,7 +3514,7 @@
         <v>3.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
         <v>3.55</v>
@@ -3523,7 +3523,7 @@
         <v>1.42</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
         <v>3.4</v>
@@ -3541,7 +3541,7 @@
         <v>1.31</v>
       </c>
       <c r="S23" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T23" t="n">
         <v>1.78</v>
@@ -3571,28 +3571,28 @@
         <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AG23" t="n">
         <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK23" t="n">
         <v>1000</v>
@@ -3601,7 +3601,7 @@
         <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G24" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="J24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K24" t="n">
         <v>5.5</v>
@@ -3664,37 +3664,37 @@
         <v>4.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q24" t="n">
         <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3709,28 +3709,28 @@
         <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3781,10 +3781,10 @@
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
         <v>6</v>
@@ -3826,13 +3826,13 @@
         <v>2.96</v>
       </c>
       <c r="X25" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Y25" t="n">
         <v>980</v>
       </c>
       <c r="Z25" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3841,13 +3841,13 @@
         <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AD25" t="n">
         <v>980</v>
       </c>
       <c r="AE25" t="n">
-        <v>130</v>
+        <v>510</v>
       </c>
       <c r="AF25" t="n">
         <v>11.5</v>
@@ -3856,22 +3856,22 @@
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AI25" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
         <v>980</v>
       </c>
       <c r="AM25" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="AN25" t="n">
         <v>8.4</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G26" t="n">
         <v>1.96</v>
       </c>
       <c r="H26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
         <v>5.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3934,25 +3934,25 @@
         <v>3.15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q26" t="n">
         <v>2.26</v>
       </c>
       <c r="R26" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S26" t="n">
         <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V26" t="n">
         <v>1.24</v>
@@ -3964,22 +3964,22 @@
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>320</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
         <v>34</v>
       </c>
       <c r="AA26" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC26" t="n">
         <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE26" t="n">
         <v>75</v>
@@ -3991,19 +3991,19 @@
         <v>10.5</v>
       </c>
       <c r="AH26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>22</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>24</v>
       </c>
       <c r="AK26" t="n">
         <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM26" t="n">
         <v>160</v>
@@ -4045,13 +4045,13 @@
         <v>2.8</v>
       </c>
       <c r="G27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H27" t="n">
         <v>2.86</v>
       </c>
-      <c r="H27" t="n">
-        <v>2.88</v>
-      </c>
       <c r="I27" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
@@ -4075,7 +4075,7 @@
         <v>1.93</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R27" t="n">
         <v>1.37</v>
@@ -4084,7 +4084,7 @@
         <v>3.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U27" t="n">
         <v>2.24</v>
@@ -4120,7 +4120,7 @@
         <v>32</v>
       </c>
       <c r="AF27" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG27" t="n">
         <v>12.5</v>
@@ -4129,7 +4129,7 @@
         <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AJ27" t="n">
         <v>44</v>
@@ -4147,7 +4147,7 @@
         <v>27</v>
       </c>
       <c r="AO27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -4183,13 +4183,13 @@
         <v>1.69</v>
       </c>
       <c r="H28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I28" t="n">
         <v>5.6</v>
       </c>
       <c r="J28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K28" t="n">
         <v>4.7</v>
@@ -4201,40 +4201,40 @@
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P28" t="n">
         <v>2.72</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R28" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T28" t="n">
         <v>1.62</v>
       </c>
       <c r="U28" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V28" t="n">
         <v>1.22</v>
       </c>
       <c r="W28" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X28" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="Y28" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="Z28" t="n">
         <v>230</v>
@@ -4243,7 +4243,7 @@
         <v>140</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC28" t="n">
         <v>11.5</v>
@@ -4264,31 +4264,31 @@
         <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL28" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,118 +4303,118 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Erzgebirge</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.83</v>
+        <v>2.36</v>
       </c>
       <c r="G29" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="P29" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="R29" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="S29" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="T29" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="U29" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="V29" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="W29" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,73 +4438,73 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Erzgebirge</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="G30" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="H30" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="O30" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="R30" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="S30" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="T30" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="U30" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="W30" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="X30" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4513,13 +4513,13 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
@@ -4528,10 +4528,10 @@
         <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G31" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I31" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="J31" t="n">
         <v>3.35</v>
@@ -4600,7 +4600,7 @@
         <v>3.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -4612,28 +4612,28 @@
         <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q31" t="n">
         <v>1.88</v>
       </c>
       <c r="R31" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S31" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T31" t="n">
         <v>1.73</v>
       </c>
       <c r="U31" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="W31" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X31" t="n">
         <v>17.5</v>
@@ -4645,7 +4645,7 @@
         <v>18.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AB31" t="n">
         <v>16</v>
@@ -4657,7 +4657,7 @@
         <v>13.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AF31" t="n">
         <v>32</v>
@@ -4669,16 +4669,16 @@
         <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="H32" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="I32" t="n">
         <v>3.75</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4747,7 +4747,7 @@
         <v>1.17</v>
       </c>
       <c r="P32" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="Q32" t="n">
         <v>1.61</v>
@@ -4768,7 +4768,7 @@
         <v>1.37</v>
       </c>
       <c r="W32" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G33" t="n">
         <v>1.46</v>
@@ -4861,7 +4861,7 @@
         <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J33" t="n">
         <v>5</v>
@@ -4897,10 +4897,10 @@
         <v>1.9</v>
       </c>
       <c r="U33" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V33" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W33" t="n">
         <v>3.15</v>
@@ -4909,7 +4909,7 @@
         <v>25</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4924,7 +4924,7 @@
         <v>12</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AE33" t="n">
         <v>150</v>
@@ -4945,16 +4945,16 @@
         <v>13</v>
       </c>
       <c r="AK33" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM33" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="AN33" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -5056,7 +5056,7 @@
         <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD34" t="n">
         <v>1000</v>
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="G36" t="n">
-        <v>1.97</v>
+        <v>2.54</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>2.62</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>870</v>
       </c>
       <c r="J36" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,88 +5281,88 @@
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>5.6</v>
+        <v>1.92</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>2.56</v>
+        <v>1.9</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.54</v>
+        <v>1.13</v>
       </c>
       <c r="R36" t="n">
-        <v>1.63</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>2.32</v>
+        <v>1.13</v>
       </c>
       <c r="T36" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="U36" t="n">
-        <v>2.54</v>
+        <v>1.04</v>
       </c>
       <c r="V36" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="W36" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="X36" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5383,28 +5383,28 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="G37" t="n">
-        <v>3.25</v>
+        <v>1.54</v>
       </c>
       <c r="H37" t="n">
-        <v>2.62</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="K37" t="n">
         <v>5.1</v>
@@ -5416,85 +5416,85 @@
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>1.92</v>
+        <v>5.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P37" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="R37" t="n">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="S37" t="n">
-        <v>1.13</v>
+        <v>2.38</v>
       </c>
       <c r="T37" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="U37" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="V37" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="W37" t="n">
-        <v>1.64</v>
+        <v>2.74</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5518,31 +5518,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.53</v>
+        <v>2.7</v>
       </c>
       <c r="G38" t="n">
-        <v>1.58</v>
+        <v>2.94</v>
       </c>
       <c r="H38" t="n">
-        <v>5.9</v>
+        <v>2.46</v>
       </c>
       <c r="I38" t="n">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="J38" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="K38" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5551,76 +5551,76 @@
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P38" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="R38" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="S38" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="T38" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="U38" t="n">
-        <v>2.22</v>
+        <v>2.68</v>
       </c>
       <c r="V38" t="n">
-        <v>1.16</v>
+        <v>1.58</v>
       </c>
       <c r="W38" t="n">
-        <v>2.72</v>
+        <v>1.51</v>
       </c>
       <c r="X38" t="n">
         <v>90</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA38" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AC38" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AG38" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AH38" t="n">
         <v>20</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -5629,10 +5629,10 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>6.4</v>
+        <v>46</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -5653,31 +5653,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.7</v>
+        <v>1.89</v>
       </c>
       <c r="G39" t="n">
-        <v>2.96</v>
+        <v>1.98</v>
       </c>
       <c r="H39" t="n">
-        <v>2.46</v>
+        <v>3.8</v>
       </c>
       <c r="I39" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K39" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5686,88 +5686,88 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R39" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="S39" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="T39" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="U39" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="V39" t="n">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="W39" t="n">
-        <v>1.51</v>
+        <v>2.02</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y39" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Z39" t="n">
         <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC39" t="n">
         <v>10.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF39" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AO39" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5806,13 +5806,13 @@
         <v>1.46</v>
       </c>
       <c r="I40" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="J40" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K40" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.24</v>
@@ -5827,7 +5827,7 @@
         <v>1.15</v>
       </c>
       <c r="P40" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="Q40" t="n">
         <v>1.44</v>
@@ -5845,13 +5845,13 @@
         <v>2.36</v>
       </c>
       <c r="V40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W40" t="n">
         <v>1.15</v>
       </c>
       <c r="X40" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Y40" t="n">
         <v>16</v>
@@ -5896,7 +5896,7 @@
         <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H41" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="I41" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
         <v>1.29</v>
@@ -5956,88 +5956,88 @@
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R41" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S41" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T41" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="U41" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="V41" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W41" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X41" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y41" t="n">
         <v>14</v>
       </c>
       <c r="Z41" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AA41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC41" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AG41" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AH41" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI41" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AJ41" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK41" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AL41" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AM41" t="n">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="AO41" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -6070,7 +6070,7 @@
         <v>2.2</v>
       </c>
       <c r="G42" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
@@ -6118,10 +6118,10 @@
         <v>1.41</v>
       </c>
       <c r="W42" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X42" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="n">
         <v>980</v>
@@ -6151,10 +6151,10 @@
         <v>980</v>
       </c>
       <c r="AH42" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AI42" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AJ42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO42" t="n">
         <v>980</v>
@@ -6217,7 +6217,7 @@
         <v>3.35</v>
       </c>
       <c r="K43" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
         <v>1.26</v>
@@ -6235,7 +6235,7 @@
         <v>2.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R43" t="n">
         <v>1.52</v>
@@ -6262,7 +6262,7 @@
         <v>26</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA43" t="n">
         <v>1000</v>
@@ -6280,7 +6280,7 @@
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG43" t="n">
         <v>1000</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.2</v>
+        <v>2.14</v>
       </c>
       <c r="G44" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N44" t="n">
         <v>3.25</v>
       </c>
-      <c r="H44" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="O44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S44" t="n">
         <v>4</v>
       </c>
-      <c r="K44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N44" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.14</v>
-      </c>
       <c r="T44" t="n">
-        <v>1.46</v>
+        <v>1.89</v>
       </c>
       <c r="U44" t="n">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="W44" t="n">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="X44" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z44" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AA44" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>380</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH44" t="n">
         <v>23</v>
       </c>
-      <c r="AC44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AI44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN44" t="n">
         <v>24</v>
       </c>
-      <c r="AJ44" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AO44" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H45" t="n">
         <v>4</v>
@@ -6487,7 +6487,7 @@
         <v>4.2</v>
       </c>
       <c r="K45" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L45" t="n">
         <v>1.23</v>
@@ -6526,64 +6526,64 @@
         <v>2.1</v>
       </c>
       <c r="X45" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="Z45" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AC45" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD45" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AE45" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AF45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK45" t="n">
         <v>17.5</v>
       </c>
-      <c r="AG45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>21</v>
-      </c>
       <c r="AL45" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM45" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AO45" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.14</v>
+        <v>2.96</v>
       </c>
       <c r="G46" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="H46" t="n">
-        <v>3.9</v>
+        <v>2.38</v>
       </c>
       <c r="I46" t="n">
-        <v>4.3</v>
+        <v>2.58</v>
       </c>
       <c r="J46" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K46" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M46" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R46" t="n">
         <v>1.39</v>
       </c>
-      <c r="P46" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="T46" t="n">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="V46" t="n">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="W46" t="n">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="X46" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG46" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y46" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD46" t="n">
+      <c r="AH46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO46" t="n">
         <v>20</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G47" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
-        <v>2.38</v>
+        <v>2.78</v>
       </c>
       <c r="I47" t="n">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="J47" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="L47" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N47" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="P47" t="n">
-        <v>1.99</v>
+        <v>1.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.84</v>
+        <v>2.56</v>
       </c>
       <c r="R47" t="n">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="S47" t="n">
-        <v>3.05</v>
+        <v>5.2</v>
       </c>
       <c r="T47" t="n">
-        <v>1.69</v>
+        <v>2.04</v>
       </c>
       <c r="U47" t="n">
-        <v>2.22</v>
+        <v>1.87</v>
       </c>
       <c r="V47" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="W47" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X47" t="n">
-        <v>19</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y47" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD47" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z47" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE47" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AF47" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AH47" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK47" t="n">
         <v>44</v>
       </c>
-      <c r="AJ47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>42</v>
-      </c>
       <c r="AL47" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN47" t="n">
         <v>55</v>
       </c>
-      <c r="AM47" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>36</v>
-      </c>
       <c r="AO47" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="G48" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H48" t="n">
-        <v>2.68</v>
+        <v>2.24</v>
       </c>
       <c r="I48" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U48" t="n">
         <v>3.05</v>
       </c>
-      <c r="J48" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V48" t="n">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="W48" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,91 +7003,91 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H49" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I49" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M49" t="n">
         <v>1.01</v>
       </c>
-      <c r="M49" t="n">
-        <v>1.12</v>
-      </c>
       <c r="N49" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="P49" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.54</v>
+        <v>2.24</v>
       </c>
       <c r="R49" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="T49" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="U49" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="V49" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="W49" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X49" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Y49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA49" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC49" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD49" t="n">
         <v>13.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="AF49" t="n">
         <v>19.5</v>
@@ -7096,28 +7096,28 @@
         <v>14</v>
       </c>
       <c r="AH49" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AJ49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK49" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AL49" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G50" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H50" t="n">
         <v>5.4</v>
@@ -7171,16 +7171,16 @@
         <v>1.09</v>
       </c>
       <c r="N50" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O50" t="n">
         <v>1.44</v>
       </c>
       <c r="P50" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R50" t="n">
         <v>1.25</v>
@@ -7189,7 +7189,7 @@
         <v>4.2</v>
       </c>
       <c r="T50" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U50" t="n">
         <v>1.78</v>
@@ -7198,10 +7198,10 @@
         <v>1.18</v>
       </c>
       <c r="W50" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X50" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y50" t="n">
         <v>19</v>
@@ -7219,10 +7219,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD50" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AF50" t="n">
         <v>10</v>
@@ -7240,7 +7240,7 @@
         <v>24</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL50" t="n">
         <v>55</v>
@@ -7288,10 +7288,10 @@
         <v>4.1</v>
       </c>
       <c r="H51" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I51" t="n">
         <v>1.99</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2</v>
       </c>
       <c r="J51" t="n">
         <v>3.95</v>
@@ -7318,13 +7318,13 @@
         <v>1.75</v>
       </c>
       <c r="R51" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S51" t="n">
         <v>2.88</v>
       </c>
       <c r="T51" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U51" t="n">
         <v>2.36</v>
@@ -7357,13 +7357,13 @@
         <v>10.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF51" t="n">
         <v>32</v>
       </c>
       <c r="AG51" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH51" t="n">
         <v>16.5</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G52" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H52" t="n">
         <v>6</v>
@@ -7435,34 +7435,34 @@
         <v>4.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="O52" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P52" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R52" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S52" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T52" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U52" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V52" t="n">
         <v>1.19</v>
@@ -7471,10 +7471,10 @@
         <v>2.4</v>
       </c>
       <c r="X52" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y52" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z52" t="n">
         <v>46</v>
@@ -7483,10 +7483,10 @@
         <v>180</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD52" t="n">
         <v>23</v>
@@ -7519,7 +7519,7 @@
         <v>140</v>
       </c>
       <c r="AN52" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO52" t="n">
         <v>110</v>
@@ -7528,7 +7528,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,132 +7538,132 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.32</v>
+        <v>1.18</v>
       </c>
       <c r="G53" t="n">
-        <v>2.36</v>
+        <v>1.35</v>
       </c>
       <c r="H53" t="n">
-        <v>4.1</v>
+        <v>11</v>
       </c>
       <c r="I53" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>3.05</v>
+        <v>980</v>
       </c>
       <c r="L53" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>2.46</v>
+        <v>1.02</v>
       </c>
       <c r="O53" t="n">
-        <v>1.64</v>
+        <v>1.1</v>
       </c>
       <c r="P53" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="R53" t="n">
-        <v>1.16</v>
+        <v>1.82</v>
       </c>
       <c r="S53" t="n">
-        <v>6.4</v>
+        <v>1.73</v>
       </c>
       <c r="T53" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="U53" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="W53" t="n">
-        <v>1.73</v>
+        <v>3.85</v>
       </c>
       <c r="X53" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z53" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG53" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH53" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI53" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL53" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM53" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,132 +7673,132 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.65</v>
+        <v>1.09</v>
       </c>
       <c r="G54" t="n">
-        <v>1.69</v>
+        <v>980</v>
       </c>
       <c r="H54" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="J54" t="n">
-        <v>3.9</v>
+        <v>1.03</v>
       </c>
       <c r="K54" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L54" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>3.3</v>
+        <v>1.24</v>
       </c>
       <c r="O54" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P54" t="n">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R54" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S54" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="T54" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="U54" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W54" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="X54" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD54" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH54" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI54" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,132 +7808,132 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.96</v>
+        <v>2.34</v>
       </c>
       <c r="G55" t="n">
-        <v>3.25</v>
+        <v>2.36</v>
       </c>
       <c r="H55" t="n">
-        <v>2.36</v>
+        <v>4.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.54</v>
+        <v>4.2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="L55" t="n">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="N55" t="n">
-        <v>4.2</v>
+        <v>2.46</v>
       </c>
       <c r="O55" t="n">
-        <v>1.26</v>
+        <v>1.65</v>
       </c>
       <c r="P55" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.77</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="S55" t="n">
-        <v>2.94</v>
+        <v>6.4</v>
       </c>
       <c r="T55" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W55" t="n">
         <v>1.73</v>
       </c>
-      <c r="U55" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X55" t="n">
-        <v>22</v>
+        <v>7.2</v>
       </c>
       <c r="Y55" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z55" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA55" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AB55" t="n">
-        <v>17.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC55" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD55" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AG55" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AI55" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AJ55" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AK55" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL55" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM55" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN55" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AO55" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,132 +7943,132 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.6</v>
+        <v>1.64</v>
       </c>
       <c r="G56" t="n">
-        <v>3.75</v>
+        <v>1.68</v>
       </c>
       <c r="H56" t="n">
-        <v>2.22</v>
+        <v>6.4</v>
       </c>
       <c r="I56" t="n">
-        <v>2.28</v>
+        <v>7.2</v>
       </c>
       <c r="J56" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="K56" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L56" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P56" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="R56" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="S56" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="U56" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="V56" t="n">
-        <v>1.78</v>
+        <v>1.17</v>
       </c>
       <c r="W56" t="n">
-        <v>1.36</v>
+        <v>2.44</v>
       </c>
       <c r="X56" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Z56" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AA56" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE56" t="n">
         <v>120</v>
       </c>
-      <c r="AB56" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>34</v>
-      </c>
       <c r="AF56" t="n">
-        <v>85</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG56" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AH56" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AI56" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK56" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AM56" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN56" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AO56" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,132 +8078,132 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H57" t="n">
         <v>2.36</v>
       </c>
-      <c r="G57" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3.35</v>
-      </c>
       <c r="I57" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="J57" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K57" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="L57" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="O57" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="P57" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="R57" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="S57" t="n">
-        <v>3.75</v>
+        <v>2.96</v>
       </c>
       <c r="T57" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="U57" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="V57" t="n">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="W57" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="X57" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG57" t="n">
         <v>16</v>
       </c>
-      <c r="Y57" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH57" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ57" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL57" t="n">
         <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="AN57" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO57" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,132 +8213,132 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LDU</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Independiente (Ecu)</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.2</v>
+        <v>3.55</v>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="H58" t="n">
-        <v>3.3</v>
+        <v>2.22</v>
       </c>
       <c r="I58" t="n">
-        <v>3.85</v>
+        <v>2.28</v>
       </c>
       <c r="J58" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K58" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L58" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
         <v>3.75</v>
       </c>
       <c r="O58" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P58" t="n">
         <v>1.94</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W58" t="n">
         <v>1.36</v>
       </c>
-      <c r="S58" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U58" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W58" t="n">
-        <v>1.71</v>
-      </c>
       <c r="X58" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y58" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z58" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB58" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AD58" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE58" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF58" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG58" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI58" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK58" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL58" t="n">
         <v>1000</v>
       </c>
       <c r="AM58" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN58" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO58" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8348,123 +8348,123 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Academia de Balompie Boliviano</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5.5</v>
+        <v>2.34</v>
       </c>
       <c r="G59" t="n">
-        <v>8.4</v>
+        <v>2.42</v>
       </c>
       <c r="H59" t="n">
-        <v>1.44</v>
+        <v>3.35</v>
       </c>
       <c r="I59" t="n">
-        <v>1.52</v>
+        <v>3.45</v>
       </c>
       <c r="J59" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="K59" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="L59" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M59" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>1.68</v>
+        <v>3.45</v>
       </c>
       <c r="O59" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P59" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R59" t="n">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="S59" t="n">
-        <v>1.86</v>
+        <v>3.75</v>
       </c>
       <c r="T59" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U59" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V59" t="n">
-        <v>2.88</v>
+        <v>1.4</v>
       </c>
       <c r="W59" t="n">
-        <v>1.13</v>
+        <v>1.7</v>
       </c>
       <c r="X59" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y59" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA59" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB59" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC59" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD59" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF59" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG59" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI59" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK59" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL59" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM59" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN59" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO59" t="n">
         <v>1000</v>
@@ -8473,136 +8473,406 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>LDU</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Independiente (Ecu)</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Bolivian Liga de Futbol Profesional</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Academia de Balompie Boliviano</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K61" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>2025-11-28</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>21:30:00</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Santos</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>Sport Recife</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="F62" t="n">
         <v>1.33</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G62" t="n">
         <v>1.34</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H62" t="n">
         <v>11.5</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I62" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K62" t="n">
+        <v>6</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N62" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W62" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="X62" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>520</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC62" t="n">
         <v>13</v>
       </c>
-      <c r="J60" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K60" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N60" t="n">
+      <c r="AD62" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN62" t="n">
         <v>5.1</v>
       </c>
-      <c r="O60" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P60" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S60" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T60" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U60" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V60" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W60" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X60" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>1000</v>
+      <c r="AO62" t="n">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -673,10 +673,10 @@
         <v>2.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I2" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
@@ -685,7 +685,7 @@
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -694,67 +694,67 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
         <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
         <v>40</v>
@@ -772,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>1.3</v>
+        <v>2.96</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.13</v>
+        <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.81</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>1.91</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="V3" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>2.68</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,7 +940,7 @@
         <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="H4" t="n">
         <v>1.32</v>
@@ -952,25 +952,25 @@
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="O4" t="n">
         <v>1.05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -982,13 +982,13 @@
         <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.27</v>
@@ -1099,25 +1099,25 @@
         <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="R5" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="U5" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="V5" t="n">
         <v>1.53</v>
@@ -1126,28 +1126,28 @@
         <v>1.5</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF5" t="n">
         <v>24</v>
@@ -1159,25 +1159,25 @@
         <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>150</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U6" t="n">
         <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.5</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,100 +1342,100 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="H7" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
         <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="n">
         <v>85</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AF7" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>250</v>
       </c>
       <c r="AJ7" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="AK7" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="AL7" t="n">
         <v>420</v>
@@ -1447,7 +1447,7 @@
         <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         <v>2.44</v>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H8" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
         <v>2.98</v>
@@ -1510,7 +1510,7 @@
         <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
         <v>1.51</v>
@@ -1615,22 +1615,22 @@
         <v>2.82</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I9" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J9" t="n">
         <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
@@ -1639,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
         <v>1.68</v>
@@ -1648,52 +1648,52 @@
         <v>2.12</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="T9" t="n">
         <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="W9" t="n">
         <v>1.46</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
         <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AB9" t="n">
         <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AH9" t="n">
         <v>980</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,52 +1771,52 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
         <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="n">
         <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>19</v>
@@ -1831,25 +1831,25 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G11" t="n">
         <v>3.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I11" t="n">
         <v>3.15</v>
@@ -1897,37 +1897,37 @@
         <v>2.84</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="P11" t="n">
         <v>1.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R11" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>2.52</v>
+        <v>4.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="V11" t="n">
         <v>1.47</v>
@@ -1936,49 +1936,49 @@
         <v>1.45</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2020,16 +2020,16 @@
         <v>1.65</v>
       </c>
       <c r="G12" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H12" t="n">
         <v>5.9</v>
       </c>
       <c r="I12" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
@@ -2050,7 +2050,7 @@
         <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="R12" t="n">
         <v>1.25</v>
@@ -2068,7 +2068,7 @@
         <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2158,52 +2158,52 @@
         <v>980</v>
       </c>
       <c r="H13" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="I13" t="n">
         <v>980</v>
       </c>
       <c r="J13" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="K13" t="n">
         <v>980</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="R13" t="n">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
         <v>1.28</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2308,7 +2308,7 @@
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
         <v>2.74</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I15" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.37</v>
@@ -2446,34 +2446,34 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q15" t="n">
         <v>1.85</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2563,7 +2563,7 @@
         <v>2.64</v>
       </c>
       <c r="H16" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I16" t="n">
         <v>3.1</v>
@@ -2608,7 +2608,7 @@
         <v>1.48</v>
       </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
         <v>24</v>
@@ -2836,7 +2836,7 @@
         <v>1.77</v>
       </c>
       <c r="I18" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="J18" t="n">
         <v>3.55</v>
@@ -2851,7 +2851,7 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O18" t="n">
         <v>1.27</v>
@@ -2860,7 +2860,7 @@
         <v>1.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R18" t="n">
         <v>1.33</v>
@@ -2875,7 +2875,7 @@
         <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="W18" t="n">
         <v>1.18</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G19" t="n">
         <v>2.46</v>
@@ -2974,7 +2974,7 @@
         <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
         <v>3.95</v>
@@ -2986,7 +2986,7 @@
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.26</v>
@@ -3013,10 +3013,10 @@
         <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
@@ -3148,7 +3148,7 @@
         <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X20" t="n">
         <v>90</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G21" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
@@ -3259,31 +3259,31 @@
         <v>2.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
         <v>1.65</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R21" t="n">
         <v>1.24</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T21" t="n">
         <v>1.94</v>
       </c>
       <c r="U21" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W21" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
@@ -3505,10 +3505,10 @@
         <v>2.34</v>
       </c>
       <c r="G23" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
         <v>3.5</v>
@@ -3526,7 +3526,7 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
         <v>1.34</v>
@@ -3553,7 +3553,7 @@
         <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="X23" t="n">
         <v>16</v>
@@ -3574,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I24" t="n">
         <v>7.8</v>
       </c>
       <c r="J24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,34 +3661,34 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q24" t="n">
         <v>1.57</v>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T24" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="U24" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V24" t="n">
         <v>1.16</v>
       </c>
       <c r="W24" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="G25" t="n">
         <v>1.51</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I25" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.27</v>
@@ -3796,25 +3796,25 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="O25" t="n">
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S25" t="n">
         <v>2.74</v>
       </c>
       <c r="T25" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U25" t="n">
         <v>1.96</v>
@@ -3913,7 +3913,7 @@
         <v>1.96</v>
       </c>
       <c r="H26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
         <v>5.1</v>
@@ -3925,13 +3925,13 @@
         <v>3.55</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O26" t="n">
         <v>1.41</v>
@@ -3946,10 +3946,10 @@
         <v>1.27</v>
       </c>
       <c r="S26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U26" t="n">
         <v>1.89</v>
@@ -4012,7 +4012,7 @@
         <v>18.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>110</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27">
@@ -4045,10 +4045,10 @@
         <v>2.8</v>
       </c>
       <c r="G27" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H27" t="n">
         <v>2.88</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.86</v>
       </c>
       <c r="I27" t="n">
         <v>2.94</v>
@@ -4084,7 +4084,7 @@
         <v>3.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U27" t="n">
         <v>2.24</v>
@@ -4096,7 +4096,7 @@
         <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y27" t="n">
         <v>12</v>
@@ -4141,10 +4141,10 @@
         <v>44</v>
       </c>
       <c r="AM27" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>28</v>
@@ -4180,10 +4180,10 @@
         <v>1.65</v>
       </c>
       <c r="G28" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H28" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I28" t="n">
         <v>5.6</v>
@@ -4207,28 +4207,28 @@
         <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S28" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T28" t="n">
         <v>1.62</v>
       </c>
       <c r="U28" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W28" t="n">
         <v>2.46</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.44</v>
       </c>
       <c r="X28" t="n">
         <v>90</v>
@@ -4342,7 +4342,7 @@
         <v>1.23</v>
       </c>
       <c r="P29" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q29" t="n">
         <v>1.69</v>
@@ -4459,7 +4459,7 @@
         <v>4.4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
         <v>4.2</v>
@@ -4480,7 +4480,7 @@
         <v>2.16</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R30" t="n">
         <v>1.42</v>
@@ -4585,7 +4585,7 @@
         <v>3.1</v>
       </c>
       <c r="G31" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
         <v>2.34</v>
@@ -4594,10 +4594,10 @@
         <v>2.52</v>
       </c>
       <c r="J31" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
         <v>1.33</v>
@@ -4612,7 +4612,7 @@
         <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q31" t="n">
         <v>1.88</v>
@@ -4621,13 +4621,13 @@
         <v>1.36</v>
       </c>
       <c r="S31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U31" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V31" t="n">
         <v>1.65</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="G32" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I32" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
         <v>4.1</v>
@@ -4747,10 +4747,10 @@
         <v>1.17</v>
       </c>
       <c r="P32" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
         <v>1.41</v>
@@ -4759,7 +4759,7 @@
         <v>2.44</v>
       </c>
       <c r="T32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U32" t="n">
         <v>2.14</v>
@@ -4768,7 +4768,7 @@
         <v>1.37</v>
       </c>
       <c r="W32" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4858,7 +4858,7 @@
         <v>1.46</v>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I33" t="n">
         <v>9.4</v>
@@ -4876,7 +4876,7 @@
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O33" t="n">
         <v>1.22</v>
@@ -4942,19 +4942,19 @@
         <v>130</v>
       </c>
       <c r="AJ33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK33" t="n">
         <v>15.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AM33" t="n">
         <v>470</v>
       </c>
       <c r="AN33" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -5011,25 +5011,25 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>1.25</v>
+        <v>4.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P34" t="n">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="S34" t="n">
-        <v>1.13</v>
+        <v>2.24</v>
       </c>
       <c r="T34" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U34" t="n">
         <v>1.04</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G36" t="n">
         <v>2.54</v>
@@ -5266,10 +5266,10 @@
         <v>2.62</v>
       </c>
       <c r="I36" t="n">
-        <v>870</v>
+        <v>4.4</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="K36" t="n">
         <v>5.1</v>
@@ -5281,34 +5281,34 @@
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>1.92</v>
+        <v>3.2</v>
       </c>
       <c r="O36" t="n">
         <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="Q36" t="n">
         <v>1.13</v>
       </c>
       <c r="R36" t="n">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="S36" t="n">
-        <v>1.13</v>
+        <v>1.61</v>
       </c>
       <c r="T36" t="n">
         <v>1.52</v>
       </c>
       <c r="U36" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="V36" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="W36" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G37" t="n">
         <v>1.54</v>
@@ -5401,7 +5401,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J37" t="n">
         <v>4.8</v>
@@ -5422,13 +5422,13 @@
         <v>1.18</v>
       </c>
       <c r="P37" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q37" t="n">
         <v>1.56</v>
       </c>
       <c r="R37" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S37" t="n">
         <v>2.38</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="G38" t="n">
         <v>2.94</v>
       </c>
       <c r="H38" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I38" t="n">
         <v>2.7</v>
@@ -5560,7 +5560,7 @@
         <v>2.58</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R38" t="n">
         <v>1.67</v>
@@ -5602,10 +5602,10 @@
         <v>15.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF38" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
         <v>23</v>
@@ -5623,10 +5623,10 @@
         <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN38" t="n">
         <v>46</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G39" t="n">
         <v>1.98</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I39" t="n">
         <v>4.2</v>
@@ -5716,7 +5716,7 @@
         <v>2.02</v>
       </c>
       <c r="X39" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y39" t="n">
         <v>27</v>
@@ -5800,16 +5800,16 @@
         <v>6.8</v>
       </c>
       <c r="G40" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="H40" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I40" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J40" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K40" t="n">
         <v>5.6</v>
@@ -5845,64 +5845,64 @@
         <v>2.36</v>
       </c>
       <c r="V40" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="W40" t="n">
         <v>1.15</v>
       </c>
       <c r="X40" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="Y40" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE40" t="n">
         <v>14</v>
       </c>
-      <c r="AA40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>17</v>
-      </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG40" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AH40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI40" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AJ40" t="n">
         <v>210</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM40" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO40" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -5938,16 +5938,16 @@
         <v>4.1</v>
       </c>
       <c r="H41" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I41" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
         <v>1.29</v>
@@ -5956,31 +5956,31 @@
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O41" t="n">
         <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R41" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="S41" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="T41" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U41" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V41" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W41" t="n">
         <v>1.33</v>
@@ -6001,34 +6001,34 @@
         <v>21</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD41" t="n">
         <v>11.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF41" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG41" t="n">
         <v>16</v>
       </c>
       <c r="AH41" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ41" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AL41" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AM41" t="n">
         <v>65</v>
@@ -6067,13 +6067,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G42" t="n">
         <v>2.36</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I42" t="n">
         <v>3.45</v>
@@ -6151,7 +6151,7 @@
         <v>980</v>
       </c>
       <c r="AH42" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AI42" t="n">
         <v>120</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G43" t="n">
         <v>3.1</v>
@@ -6214,7 +6214,7 @@
         <v>2.64</v>
       </c>
       <c r="J43" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
         <v>4</v>
@@ -6235,13 +6235,13 @@
         <v>2.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R43" t="n">
         <v>1.52</v>
       </c>
       <c r="S43" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T43" t="n">
         <v>1.56</v>
@@ -6487,37 +6487,37 @@
         <v>4.2</v>
       </c>
       <c r="K45" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L45" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M45" t="n">
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="Q45" t="n">
         <v>1.52</v>
       </c>
       <c r="R45" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S45" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="T45" t="n">
         <v>1.56</v>
       </c>
       <c r="U45" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V45" t="n">
         <v>1.27</v>
@@ -6556,7 +6556,7 @@
         <v>11</v>
       </c>
       <c r="AH45" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI45" t="n">
         <v>1000</v>
@@ -6574,10 +6574,10 @@
         <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO45" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
         <v>3.25</v>
       </c>
       <c r="H46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I46" t="n">
         <v>2.58</v>
@@ -6631,16 +6631,16 @@
         <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O46" t="n">
         <v>1.28</v>
       </c>
       <c r="P46" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R46" t="n">
         <v>1.39</v>
@@ -6658,7 +6658,7 @@
         <v>1.63</v>
       </c>
       <c r="W46" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X46" t="n">
         <v>16.5</v>
@@ -6694,7 +6694,7 @@
         <v>17</v>
       </c>
       <c r="AI46" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="n">
         <v>210</v>
@@ -6763,43 +6763,43 @@
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N47" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="O47" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="P47" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="R47" t="n">
         <v>1.22</v>
       </c>
       <c r="S47" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T47" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U47" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V47" t="n">
         <v>1.53</v>
       </c>
       <c r="W47" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X47" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y47" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>9</v>
       </c>
       <c r="Z47" t="n">
         <v>17</v>
@@ -6808,7 +6808,7 @@
         <v>46</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC47" t="n">
         <v>6.8</v>
@@ -6823,10 +6823,10 @@
         <v>19.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI47" t="n">
         <v>65</v>
@@ -6835,7 +6835,7 @@
         <v>60</v>
       </c>
       <c r="AK47" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AL47" t="n">
         <v>70</v>
@@ -6847,7 +6847,7 @@
         <v>55</v>
       </c>
       <c r="AO47" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G48" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H48" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J48" t="n">
         <v>4</v>
@@ -6907,16 +6907,16 @@
         <v>1.15</v>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R48" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T48" t="n">
         <v>1.46</v>
@@ -6925,10 +6925,10 @@
         <v>3.05</v>
       </c>
       <c r="V48" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W48" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X48" t="n">
         <v>30</v>
@@ -6940,7 +6940,7 @@
         <v>19.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB48" t="n">
         <v>23</v>
@@ -6958,7 +6958,7 @@
         <v>29</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH48" t="n">
         <v>13.5</v>
@@ -6976,13 +6976,13 @@
         <v>30</v>
       </c>
       <c r="AM48" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AN48" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO48" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -7054,10 +7054,10 @@
         <v>3.7</v>
       </c>
       <c r="T49" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="U49" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="V49" t="n">
         <v>1.48</v>
@@ -7177,7 +7177,7 @@
         <v>1.44</v>
       </c>
       <c r="P50" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q50" t="n">
         <v>2.24</v>
@@ -7207,7 +7207,7 @@
         <v>19</v>
       </c>
       <c r="Z50" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
@@ -7288,10 +7288,10 @@
         <v>4.1</v>
       </c>
       <c r="H51" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="J51" t="n">
         <v>3.95</v>
@@ -7330,7 +7330,7 @@
         <v>2.36</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W51" t="n">
         <v>1.32</v>
@@ -7360,7 +7360,7 @@
         <v>18.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG51" t="n">
         <v>16</v>
@@ -7435,7 +7435,7 @@
         <v>4.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M52" t="n">
         <v>1.08</v>
@@ -7450,19 +7450,19 @@
         <v>1.91</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R52" t="n">
         <v>1.35</v>
       </c>
       <c r="S52" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T52" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V52" t="n">
         <v>1.19</v>
@@ -7471,7 +7471,7 @@
         <v>2.4</v>
       </c>
       <c r="X52" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y52" t="n">
         <v>18.5</v>
@@ -7504,7 +7504,7 @@
         <v>22</v>
       </c>
       <c r="AI52" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="n">
         <v>16</v>
@@ -7513,7 +7513,7 @@
         <v>18</v>
       </c>
       <c r="AL52" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM52" t="n">
         <v>140</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G53" t="n">
         <v>1.35</v>
@@ -7567,7 +7567,7 @@
         <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7588,7 +7588,7 @@
         <v>1.1</v>
       </c>
       <c r="R53" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="S53" t="n">
         <v>1.73</v>
@@ -7597,7 +7597,7 @@
         <v>1.01</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V53" t="n">
         <v>1.05</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G55" t="n">
         <v>2.34</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2.36</v>
       </c>
       <c r="H55" t="n">
         <v>4.1</v>
@@ -7858,7 +7858,7 @@
         <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S55" t="n">
         <v>6.4</v>
@@ -7873,7 +7873,7 @@
         <v>1.31</v>
       </c>
       <c r="W55" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X55" t="n">
         <v>7.2</v>
@@ -7909,7 +7909,7 @@
         <v>27</v>
       </c>
       <c r="AI55" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ55" t="n">
         <v>32</v>
@@ -7966,7 +7966,7 @@
         <v>6.4</v>
       </c>
       <c r="I56" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J56" t="n">
         <v>3.95</v>
@@ -7975,46 +7975,46 @@
         <v>4.1</v>
       </c>
       <c r="L56" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M56" t="n">
         <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O56" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P56" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R56" t="n">
         <v>1.29</v>
       </c>
       <c r="S56" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T56" t="n">
         <v>2.12</v>
       </c>
       <c r="U56" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V56" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W56" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X56" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y56" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z56" t="n">
         <v>55</v>
@@ -8041,7 +8041,7 @@
         <v>10</v>
       </c>
       <c r="AH56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI56" t="n">
         <v>120</v>
@@ -8053,10 +8053,10 @@
         <v>19.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM56" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN56" t="n">
         <v>13</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G57" t="n">
         <v>3.25</v>
@@ -8122,7 +8122,7 @@
         <v>1.27</v>
       </c>
       <c r="P57" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q57" t="n">
         <v>1.78</v>
@@ -8134,13 +8134,13 @@
         <v>2.96</v>
       </c>
       <c r="T57" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U57" t="n">
         <v>2.34</v>
       </c>
       <c r="V57" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W57" t="n">
         <v>1.45</v>
@@ -8149,7 +8149,7 @@
         <v>21</v>
       </c>
       <c r="Y57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z57" t="n">
         <v>18.5</v>
@@ -8161,10 +8161,10 @@
         <v>17.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD57" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE57" t="n">
         <v>27</v>
@@ -8230,7 +8230,7 @@
         <v>3.55</v>
       </c>
       <c r="G58" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H58" t="n">
         <v>2.22</v>
@@ -8251,19 +8251,19 @@
         <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O58" t="n">
         <v>1.34</v>
       </c>
       <c r="P58" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R58" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S58" t="n">
         <v>3.55</v>
@@ -8278,7 +8278,7 @@
         <v>1.78</v>
       </c>
       <c r="W58" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X58" t="n">
         <v>14</v>
@@ -8302,7 +8302,7 @@
         <v>11</v>
       </c>
       <c r="AE58" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AF58" t="n">
         <v>48</v>
@@ -8317,7 +8317,7 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK58" t="n">
         <v>220</v>
@@ -8332,7 +8332,7 @@
         <v>60</v>
       </c>
       <c r="AO58" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="G59" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H59" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J59" t="n">
         <v>3.4</v>
@@ -8386,64 +8386,64 @@
         <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O59" t="n">
         <v>1.36</v>
       </c>
       <c r="P59" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q59" t="n">
         <v>2.06</v>
       </c>
       <c r="R59" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S59" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T59" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U59" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V59" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W59" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="X59" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y59" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z59" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA59" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB59" t="n">
         <v>9.6</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD59" t="n">
         <v>14.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="AF59" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG59" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH59" t="n">
         <v>18</v>
@@ -8452,22 +8452,22 @@
         <v>55</v>
       </c>
       <c r="AJ59" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK59" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="AL59" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AM59" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN59" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO59" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="G61" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="I61" t="n">
         <v>1.52</v>
@@ -8647,25 +8647,25 @@
         <v>4.9</v>
       </c>
       <c r="K61" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
       </c>
       <c r="M61" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="O61" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P61" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="R61" t="n">
         <v>1.6</v>
@@ -8680,10 +8680,10 @@
         <v>1.01</v>
       </c>
       <c r="V61" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="W61" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8770,13 +8770,13 @@
         <v>1.33</v>
       </c>
       <c r="G62" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H62" t="n">
         <v>11.5</v>
       </c>
       <c r="I62" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J62" t="n">
         <v>5.8</v>
@@ -8785,7 +8785,7 @@
         <v>6</v>
       </c>
       <c r="L62" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M62" t="n">
         <v>1.04</v>
@@ -8803,13 +8803,13 @@
         <v>1.65</v>
       </c>
       <c r="R62" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S62" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T62" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U62" t="n">
         <v>1.86</v>
@@ -8833,7 +8833,7 @@
         <v>520</v>
       </c>
       <c r="AB62" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC62" t="n">
         <v>13</v>
@@ -8845,7 +8845,7 @@
         <v>200</v>
       </c>
       <c r="AF62" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG62" t="n">
         <v>10.5</v>
@@ -8866,13 +8866,13 @@
         <v>38</v>
       </c>
       <c r="AM62" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AN62" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO62" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -667,70 +667,70 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.66</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.7</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.6</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
         <v>1.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
@@ -751,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
         <v>42</v>
@@ -763,16 +763,16 @@
         <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
         <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
         <v>7.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P3" t="n">
         <v>3.45</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.96</v>
-      </c>
       <c r="Q3" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="R3" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="S3" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,55 +940,55 @@
         <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="I4" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>1.47</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.05</v>
+        <v>1.46</v>
       </c>
       <c r="P4" t="n">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.76</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.26</v>
+        <v>1.39</v>
       </c>
       <c r="T4" t="n">
         <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="W4" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.48</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.42</v>
+        <v>1.86</v>
       </c>
       <c r="I5" t="n">
-        <v>2.92</v>
+        <v>2.06</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.26</v>
+        <v>2.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="T5" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="W5" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="X5" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA5" t="n">
         <v>26</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG5" t="n">
         <v>18</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
         <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>16.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="6">
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J6" t="n">
         <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="T6" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>85</v>
@@ -1411,22 +1411,22 @@
         <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
         <v>250</v>
@@ -1447,7 +1447,7 @@
         <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1477,85 +1477,85 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="G8" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
         <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="W8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="n">
         <v>16</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
@@ -1564,25 +1564,25 @@
         <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>38</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
         <v>2.66</v>
       </c>
       <c r="I9" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="J9" t="n">
         <v>3.05</v>
@@ -1630,61 +1630,61 @@
         <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
         <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="V9" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W9" t="n">
         <v>1.46</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
         <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
         <v>44</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
         <v>36</v>
@@ -1693,13 +1693,13 @@
         <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ9" t="n">
         <v>55</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K10" t="n">
         <v>4</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.36</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="X10" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK10" t="n">
         <v>21</v>
       </c>
-      <c r="AK10" t="n">
-        <v>18</v>
-      </c>
       <c r="AL10" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="I11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
         <v>2.84</v>
@@ -1900,22 +1900,22 @@
         <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M11" t="n">
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P11" t="n">
         <v>1.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
         <v>1.22</v>
@@ -1924,28 +1924,28 @@
         <v>4.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
         <v>1.86</v>
       </c>
       <c r="V11" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="W11" t="n">
         <v>1.45</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y11" t="n">
         <v>9.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="AB11" t="n">
         <v>10.5</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO11" t="n">
         <v>600</v>
@@ -2017,109 +2017,109 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G12" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="Q12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.81</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.09</v>
+        <v>2.52</v>
       </c>
       <c r="G13" t="n">
-        <v>980</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.09</v>
+        <v>2.54</v>
       </c>
       <c r="I13" t="n">
-        <v>980</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.09</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>1.39</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>1.39</v>
+        <v>1.92</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.28</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>1.28</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
         <v>1.73</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14">
@@ -2287,31 +2287,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G14" t="n">
         <v>4.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I14" t="n">
         <v>2.38</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M14" t="n">
         <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.47</v>
@@ -2320,19 +2320,19 @@
         <v>1.59</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="R14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
         <v>1.72</v>
@@ -2341,22 +2341,22 @@
         <v>1.32</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
         <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
         <v>12</v>
@@ -2368,7 +2368,7 @@
         <v>26</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>25</v>
@@ -2389,7 +2389,7 @@
         <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="H15" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I15" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="V15" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2488,22 +2488,22 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
@@ -2515,10 +2515,10 @@
         <v>900</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G16" t="n">
         <v>2.64</v>
@@ -2566,7 +2566,7 @@
         <v>2.74</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2575,25 +2575,25 @@
         <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q16" t="n">
         <v>1.69</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
         <v>2.72</v>
@@ -2602,16 +2602,16 @@
         <v>1.6</v>
       </c>
       <c r="U16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
         <v>18</v>
@@ -2623,10 +2623,10 @@
         <v>55</v>
       </c>
       <c r="AB16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
         <v>16</v>
@@ -2635,13 +2635,13 @@
         <v>90</v>
       </c>
       <c r="AF16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2650,19 +2650,19 @@
         <v>130</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
         <v>19.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -2692,64 +2692,64 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="H17" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="J17" t="n">
         <v>3.45</v>
       </c>
       <c r="K17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.9</v>
       </c>
-      <c r="L17" t="n">
+      <c r="O17" t="n">
         <v>1.31</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.24</v>
       </c>
       <c r="P17" t="n">
         <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="Z17" t="n">
         <v>980</v>
@@ -2758,25 +2758,25 @@
         <v>200</v>
       </c>
       <c r="AB17" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AC17" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AE17" t="n">
         <v>200</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI17" t="n">
         <v>260</v>
@@ -2791,13 +2791,13 @@
         <v>200</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
         <v>4</v>
       </c>
-      <c r="G18" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>1.3</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.27</v>
-      </c>
       <c r="P18" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="U18" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V18" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="W18" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>310</v>
+        <v>600</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -2962,46 +2962,46 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R19" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S19" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
         <v>1.64</v>
@@ -3010,13 +3010,13 @@
         <v>2.24</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>
@@ -3031,7 +3031,7 @@
         <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3100,43 +3100,43 @@
         <v>1.96</v>
       </c>
       <c r="G20" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
         <v>1.7</v>
@@ -3145,10 +3145,10 @@
         <v>2.14</v>
       </c>
       <c r="V20" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X20" t="n">
         <v>90</v>
@@ -3232,88 +3232,88 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="G21" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
         <v>5.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O21" t="n">
         <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="R21" t="n">
         <v>1.24</v>
       </c>
       <c r="S21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="U21" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V21" t="n">
         <v>1.24</v>
       </c>
       <c r="W21" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
         <v>12</v>
       </c>
-      <c r="Y21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
         <v>23</v>
@@ -3322,13 +3322,13 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK21" t="n">
         <v>26</v>
       </c>
-      <c r="AK21" t="n">
-        <v>29</v>
-      </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -3367,58 +3367,58 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="K22" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.25</v>
+        <v>7.2</v>
       </c>
       <c r="O22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.13</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.11</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G23" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H23" t="n">
         <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -3523,76 +3523,76 @@
         <v>1.42</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P23" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="R23" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S23" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="U23" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X23" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
         <v>22</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="n">
         <v>30</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AI23" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
         <v>1000</v>
@@ -3604,10 +3604,10 @@
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO23" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -3637,46 +3637,46 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H24" t="n">
         <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J24" t="n">
         <v>4.5</v>
       </c>
       <c r="K24" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="R24" t="n">
         <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="T24" t="n">
         <v>1.83</v>
@@ -3694,7 +3694,7 @@
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3709,25 +3709,25 @@
         <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AK24" t="n">
         <v>34</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,55 +3772,55 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G25" t="n">
         <v>1.51</v>
       </c>
       <c r="H25" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J25" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K25" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="R25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S25" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="T25" t="n">
         <v>1.94</v>
       </c>
       <c r="U25" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W25" t="n">
         <v>2.96</v>
@@ -3877,7 +3877,7 @@
         <v>8.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G26" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J26" t="n">
         <v>3.45</v>
@@ -3925,22 +3925,22 @@
         <v>3.55</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
         <v>1.27</v>
@@ -3949,22 +3949,22 @@
         <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U26" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V26" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
         <v>34</v>
@@ -3976,13 +3976,13 @@
         <v>7.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>75</v>
+        <v>480</v>
       </c>
       <c r="AF26" t="n">
         <v>10.5</v>
@@ -3991,7 +3991,7 @@
         <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
         <v>380</v>
@@ -4003,10 +4003,10 @@
         <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AM26" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
         <v>18.5</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="G27" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="H27" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
@@ -4060,55 +4060,55 @@
         <v>3.35</v>
       </c>
       <c r="L27" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R27" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="S27" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T27" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U27" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="W27" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z27" t="n">
         <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
         <v>7.2</v>
@@ -4117,10 +4117,10 @@
         <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF27" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
         <v>12.5</v>
@@ -4129,10 +4129,10 @@
         <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="AJ27" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="n">
         <v>32</v>
@@ -4141,13 +4141,13 @@
         <v>44</v>
       </c>
       <c r="AM27" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -4177,85 +4177,85 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="G28" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="H28" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="J28" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K28" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O28" t="n">
         <v>1.17</v>
       </c>
       <c r="P28" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R28" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S28" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U28" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V28" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="X28" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="Y28" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="Z28" t="n">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="AA28" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AB28" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
         <v>11.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
         <v>10</v>
@@ -4264,25 +4264,25 @@
         <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN28" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AO28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G29" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H29" t="n">
         <v>3.05</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
         <v>3.7</v>
@@ -4336,22 +4336,22 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
         <v>1.23</v>
       </c>
       <c r="P29" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R29" t="n">
         <v>1.52</v>
       </c>
       <c r="S29" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T29" t="n">
         <v>1.64</v>
@@ -4360,19 +4360,19 @@
         <v>2.44</v>
       </c>
       <c r="V29" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W29" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X29" t="n">
         <v>25</v>
       </c>
       <c r="Y29" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Z29" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
@@ -4381,7 +4381,7 @@
         <v>25</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
         <v>14</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="G30" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
         <v>3.55</v>
@@ -4465,28 +4465,28 @@
         <v>4.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P30" t="n">
         <v>2.16</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S30" t="n">
-        <v>2.6</v>
+        <v>2.96</v>
       </c>
       <c r="T30" t="n">
         <v>1.54</v>
@@ -4495,10 +4495,10 @@
         <v>1.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W30" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G31" t="n">
         <v>3.4</v>
@@ -4591,37 +4591,37 @@
         <v>2.34</v>
       </c>
       <c r="I31" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O31" t="n">
         <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="R31" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
         <v>1.8</v>
@@ -4630,7 +4630,7 @@
         <v>2.18</v>
       </c>
       <c r="V31" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="W31" t="n">
         <v>1.41</v>
@@ -4639,7 +4639,7 @@
         <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Z31" t="n">
         <v>18.5</v>
@@ -4648,7 +4648,7 @@
         <v>130</v>
       </c>
       <c r="AB31" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
         <v>9.6</v>
@@ -4660,7 +4660,7 @@
         <v>60</v>
       </c>
       <c r="AF31" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG31" t="n">
         <v>17</v>
@@ -4669,7 +4669,7 @@
         <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
@@ -4678,7 +4678,7 @@
         <v>190</v>
       </c>
       <c r="AL31" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
@@ -4717,46 +4717,46 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="P32" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R32" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="S32" t="n">
-        <v>2.44</v>
+        <v>2.76</v>
       </c>
       <c r="T32" t="n">
         <v>1.65</v>
@@ -4765,10 +4765,10 @@
         <v>2.14</v>
       </c>
       <c r="V32" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="W32" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="G33" t="n">
         <v>1.46</v>
@@ -4861,7 +4861,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="J33" t="n">
         <v>5</v>
@@ -4870,31 +4870,31 @@
         <v>5.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="R33" t="n">
         <v>1.51</v>
       </c>
       <c r="S33" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="T33" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U33" t="n">
         <v>1.94</v>
@@ -4903,7 +4903,7 @@
         <v>1.12</v>
       </c>
       <c r="W33" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X33" t="n">
         <v>25</v>
@@ -4918,7 +4918,7 @@
         <v>330</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
@@ -4945,7 +4945,7 @@
         <v>12.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="AL33" t="n">
         <v>36</v>
@@ -4987,103 +4987,103 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H34" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="I34" t="n">
         <v>1.88</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K34" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S34" t="n">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="T34" t="n">
         <v>1.68</v>
       </c>
       <c r="U34" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="V34" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W34" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC34" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="n">
         <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
@@ -5092,7 +5092,7 @@
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="35">
@@ -5122,76 +5122,76 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="G35" t="n">
-        <v>2.54</v>
+        <v>2.26</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I35" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="J35" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
         <v>3.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="S35" t="n">
-        <v>2.76</v>
+        <v>3.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="U35" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V35" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="W35" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB35" t="n">
         <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
@@ -5203,16 +5203,16 @@
         <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK35" t="n">
         <v>1000</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5257,58 +5257,58 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G36" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>2.62</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K36" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P36" t="n">
-        <v>2.04</v>
+        <v>2.96</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.13</v>
+        <v>1.46</v>
       </c>
       <c r="R36" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>1.61</v>
+        <v>2.12</v>
       </c>
       <c r="T36" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="U36" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="V36" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W36" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5395,28 +5395,28 @@
         <v>1.52</v>
       </c>
       <c r="G37" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J37" t="n">
         <v>4.8</v>
       </c>
       <c r="K37" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="O37" t="n">
         <v>1.18</v>
@@ -5431,10 +5431,10 @@
         <v>1.65</v>
       </c>
       <c r="S37" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T37" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U37" t="n">
         <v>2.28</v>
@@ -5443,7 +5443,7 @@
         <v>1.17</v>
       </c>
       <c r="W37" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="X37" t="n">
         <v>55</v>
@@ -5452,7 +5452,7 @@
         <v>80</v>
       </c>
       <c r="Z37" t="n">
-        <v>370</v>
+        <v>170</v>
       </c>
       <c r="AA37" t="n">
         <v>180</v>
@@ -5476,13 +5476,13 @@
         <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK37" t="n">
         <v>15.5</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,79 +5527,79 @@
         </is>
       </c>
       <c r="F38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I38" t="n">
         <v>2.66</v>
       </c>
-      <c r="G38" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.7</v>
-      </c>
       <c r="J38" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K38" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P38" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R38" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S38" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="T38" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U38" t="n">
         <v>2.68</v>
       </c>
       <c r="V38" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W38" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X38" t="n">
         <v>90</v>
       </c>
       <c r="Y38" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
         <v>18.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AE38" t="n">
         <v>60</v>
@@ -5608,19 +5608,19 @@
         <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AH38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI38" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AJ38" t="n">
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL38" t="n">
         <v>60</v>
@@ -5629,10 +5629,10 @@
         <v>200</v>
       </c>
       <c r="AN38" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AO38" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I39" t="n">
         <v>4.2</v>
@@ -5677,97 +5677,97 @@
         <v>4.2</v>
       </c>
       <c r="K39" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P39" t="n">
         <v>2.56</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="R39" t="n">
         <v>1.63</v>
       </c>
       <c r="S39" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="T39" t="n">
         <v>1.6</v>
       </c>
       <c r="U39" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V39" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W39" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X39" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="Y39" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA39" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB39" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="AC39" t="n">
         <v>10.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE39" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF39" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK39" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL39" t="n">
         <v>26</v>
       </c>
       <c r="AM39" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO39" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5797,112 +5797,112 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="G40" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="I40" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="J40" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="K40" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L40" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M40" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="R40" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S40" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="T40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U40" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="V40" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="W40" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X40" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AB40" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AC40" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE40" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AG40" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AH40" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AI40" t="n">
         <v>25</v>
       </c>
       <c r="AJ40" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AK40" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL40" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AM40" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO40" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="41">
@@ -5932,88 +5932,88 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="G41" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J41" t="n">
         <v>4.1</v>
       </c>
-      <c r="H41" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4</v>
-      </c>
       <c r="K41" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L41" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R41" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="S41" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="T41" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U41" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="W41" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="X41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z41" t="n">
         <v>15</v>
       </c>
       <c r="AA41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB41" t="n">
         <v>25</v>
       </c>
-      <c r="AB41" t="n">
-        <v>21</v>
-      </c>
       <c r="AC41" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AG41" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AH41" t="n">
         <v>15.5</v>
@@ -6022,22 +6022,22 @@
         <v>26</v>
       </c>
       <c r="AJ41" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AL41" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM41" t="n">
         <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO41" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="42">
@@ -6085,7 +6085,7 @@
         <v>3.95</v>
       </c>
       <c r="L42" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
@@ -6100,13 +6100,13 @@
         <v>1.98</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R42" t="n">
         <v>1.37</v>
       </c>
       <c r="S42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T42" t="n">
         <v>1.73</v>
@@ -6202,55 +6202,55 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H43" t="n">
         <v>2.38</v>
       </c>
       <c r="I43" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L43" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="R43" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S43" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="T43" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U43" t="n">
         <v>2.44</v>
       </c>
       <c r="V43" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="W43" t="n">
         <v>1.47</v>
@@ -6286,13 +6286,13 @@
         <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AI43" t="n">
         <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK43" t="n">
         <v>1000</v>
@@ -6304,7 +6304,7 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO43" t="n">
         <v>42</v>
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G44" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J44" t="n">
         <v>3.35</v>
@@ -6355,13 +6355,13 @@
         <v>3.45</v>
       </c>
       <c r="L44" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M44" t="n">
         <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O44" t="n">
         <v>1.4</v>
@@ -6370,31 +6370,31 @@
         <v>1.77</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R44" t="n">
         <v>1.29</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T44" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V44" t="n">
         <v>1.31</v>
       </c>
       <c r="W44" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X44" t="n">
         <v>14.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z44" t="n">
         <v>36</v>
@@ -6403,34 +6403,34 @@
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE44" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI44" t="n">
         <v>380</v>
       </c>
-      <c r="AF44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ44" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL44" t="n">
         <v>55</v>
@@ -6475,55 +6475,55 @@
         <v>1.76</v>
       </c>
       <c r="G45" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="I45" t="n">
         <v>4.7</v>
       </c>
       <c r="J45" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K45" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L45" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R45" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S45" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="T45" t="n">
         <v>1.56</v>
       </c>
       <c r="U45" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V45" t="n">
         <v>1.27</v>
       </c>
       <c r="W45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X45" t="n">
         <v>80</v>
@@ -6532,7 +6532,7 @@
         <v>65</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
@@ -6547,7 +6547,7 @@
         <v>29</v>
       </c>
       <c r="AE45" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
         <v>15</v>
@@ -6562,10 +6562,10 @@
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AK45" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AL45" t="n">
         <v>60</v>
@@ -6574,10 +6574,10 @@
         <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO45" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
@@ -6607,94 +6607,94 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G46" t="n">
         <v>3.25</v>
       </c>
       <c r="H46" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="I46" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J46" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K46" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S46" t="n">
         <v>3.7</v>
       </c>
-      <c r="L46" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T46" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="U46" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="V46" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W46" t="n">
         <v>1.44</v>
       </c>
       <c r="X46" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y46" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB46" t="n">
         <v>12</v>
       </c>
-      <c r="Z46" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>14</v>
-      </c>
       <c r="AC46" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD46" t="n">
         <v>12.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AF46" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG46" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI46" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ46" t="n">
         <v>210</v>
@@ -6709,10 +6709,10 @@
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AO46" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="G47" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="H47" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="I47" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="J47" t="n">
         <v>3</v>
@@ -6760,94 +6760,94 @@
         <v>3.1</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M47" t="n">
         <v>1.13</v>
       </c>
       <c r="N47" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="O47" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="P47" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="R47" t="n">
         <v>1.22</v>
       </c>
       <c r="S47" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T47" t="n">
         <v>2.08</v>
       </c>
       <c r="U47" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V47" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="W47" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="X47" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y47" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="Z47" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AC47" t="n">
         <v>6.8</v>
       </c>
       <c r="AD47" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AF47" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH47" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ47" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK47" t="n">
         <v>60</v>
       </c>
-      <c r="AK47" t="n">
-        <v>48</v>
-      </c>
       <c r="AL47" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN47" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AO47" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H48" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I48" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="J48" t="n">
         <v>4</v>
@@ -6895,67 +6895,67 @@
         <v>4.1</v>
       </c>
       <c r="L48" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P48" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q48" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W48" t="n">
         <v>1.49</v>
       </c>
-      <c r="R48" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U48" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.46</v>
-      </c>
       <c r="X48" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y48" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z48" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD48" t="n">
         <v>12</v>
       </c>
       <c r="AE48" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AF48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG48" t="n">
         <v>14</v>
@@ -6964,25 +6964,25 @@
         <v>13.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ48" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AK48" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL48" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM48" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN48" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="49">
@@ -7012,94 +7012,94 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="G49" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="I49" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N49" t="n">
         <v>3.1</v>
       </c>
-      <c r="J49" t="n">
-        <v>3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.8</v>
-      </c>
       <c r="O49" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="P49" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="R49" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S49" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="T49" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U49" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V49" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W49" t="n">
         <v>1.47</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z49" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AA49" t="n">
-        <v>130</v>
+        <v>340</v>
       </c>
       <c r="AB49" t="n">
         <v>10</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD49" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG49" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE49" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>14</v>
-      </c>
       <c r="AH49" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI49" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AJ49" t="n">
         <v>55</v>
@@ -7147,13 +7147,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="G50" t="n">
         <v>1.88</v>
       </c>
       <c r="H50" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I50" t="n">
         <v>6.4</v>
@@ -7165,10 +7165,10 @@
         <v>3.85</v>
       </c>
       <c r="L50" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
         <v>2.88</v>
@@ -7177,16 +7177,16 @@
         <v>1.44</v>
       </c>
       <c r="P50" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R50" t="n">
         <v>1.25</v>
       </c>
       <c r="S50" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T50" t="n">
         <v>2.08</v>
@@ -7213,7 +7213,7 @@
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC50" t="n">
         <v>9.800000000000001</v>
@@ -7222,7 +7222,7 @@
         <v>46</v>
       </c>
       <c r="AE50" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
         <v>10</v>
@@ -7231,7 +7231,7 @@
         <v>11</v>
       </c>
       <c r="AH50" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI50" t="n">
         <v>1000</v>
@@ -7288,7 +7288,7 @@
         <v>4.1</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="I51" t="n">
         <v>2.02</v>
@@ -7324,7 +7324,7 @@
         <v>2.88</v>
       </c>
       <c r="T51" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U51" t="n">
         <v>2.36</v>
@@ -7354,7 +7354,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD51" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE51" t="n">
         <v>18.5</v>
@@ -7417,25 +7417,25 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G52" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H52" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I52" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J52" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K52" t="n">
         <v>4</v>
       </c>
-      <c r="K52" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M52" t="n">
         <v>1.08</v>
@@ -7447,43 +7447,43 @@
         <v>1.35</v>
       </c>
       <c r="P52" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q52" t="n">
         <v>2.06</v>
       </c>
       <c r="R52" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S52" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T52" t="n">
         <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V52" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="X52" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y52" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z52" t="n">
         <v>46</v>
       </c>
       <c r="AA52" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB52" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC52" t="n">
         <v>8.6</v>
@@ -7504,13 +7504,13 @@
         <v>22</v>
       </c>
       <c r="AI52" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ52" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK52" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL52" t="n">
         <v>40</v>
@@ -7519,7 +7519,7 @@
         <v>140</v>
       </c>
       <c r="AN52" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO52" t="n">
         <v>110</v>
@@ -7552,112 +7552,112 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="G53" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="H53" t="n">
         <v>11</v>
       </c>
       <c r="I53" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="J53" t="n">
         <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>22</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L53" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M53" t="n">
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.02</v>
+        <v>8</v>
       </c>
       <c r="O53" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P53" t="n">
-        <v>1.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="R53" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S53" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U53" t="n">
         <v>2.16</v>
       </c>
       <c r="V53" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="W53" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54">
@@ -7687,112 +7687,112 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.09</v>
+        <v>1.94</v>
       </c>
       <c r="G54" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X54" t="n">
         <v>980</v>
       </c>
-      <c r="H54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="Y54" t="n">
         <v>980</v>
       </c>
-      <c r="J54" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K54" t="n">
+      <c r="Z54" t="n">
         <v>980</v>
       </c>
-      <c r="L54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA54" t="n">
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM54" t="n">
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
@@ -7825,7 +7825,7 @@
         <v>2.32</v>
       </c>
       <c r="G55" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H55" t="n">
         <v>4.1</v>
@@ -7840,7 +7840,7 @@
         <v>3.05</v>
       </c>
       <c r="L55" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="M55" t="n">
         <v>1.15</v>
@@ -7849,22 +7849,22 @@
         <v>2.46</v>
       </c>
       <c r="O55" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P55" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R55" t="n">
         <v>1.17</v>
       </c>
       <c r="S55" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T55" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U55" t="n">
         <v>1.7</v>
@@ -7876,7 +7876,7 @@
         <v>1.74</v>
       </c>
       <c r="X55" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y55" t="n">
         <v>9.800000000000001</v>
@@ -7957,64 +7957,64 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="G56" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>6.4</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J56" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K56" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="P56" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R56" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T56" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U56" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V56" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W56" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="X56" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y56" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="Z56" t="n">
         <v>55</v>
@@ -8023,13 +8023,13 @@
         <v>230</v>
       </c>
       <c r="AB56" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC56" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE56" t="n">
         <v>120</v>
@@ -8041,25 +8041,25 @@
         <v>10</v>
       </c>
       <c r="AH56" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI56" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ56" t="n">
         <v>16.5</v>
       </c>
       <c r="AK56" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL56" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM56" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN56" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO56" t="n">
         <v>180</v>
@@ -8092,46 +8092,46 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="G57" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H57" t="n">
         <v>2.36</v>
       </c>
       <c r="I57" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="J57" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K57" t="n">
         <v>3.9</v>
       </c>
       <c r="L57" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M57" t="n">
         <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O57" t="n">
         <v>1.27</v>
       </c>
       <c r="P57" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R57" t="n">
         <v>1.45</v>
       </c>
       <c r="S57" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T57" t="n">
         <v>1.66</v>
@@ -8140,10 +8140,10 @@
         <v>2.34</v>
       </c>
       <c r="V57" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W57" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X57" t="n">
         <v>21</v>
@@ -8164,7 +8164,7 @@
         <v>9.4</v>
       </c>
       <c r="AD57" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE57" t="n">
         <v>27</v>
@@ -8182,7 +8182,7 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK57" t="n">
         <v>40</v>
@@ -8239,13 +8239,13 @@
         <v>2.28</v>
       </c>
       <c r="J58" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K58" t="n">
         <v>3.65</v>
       </c>
       <c r="L58" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M58" t="n">
         <v>1.07</v>
@@ -8254,25 +8254,25 @@
         <v>3.8</v>
       </c>
       <c r="O58" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P58" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
         <v>1.36</v>
       </c>
       <c r="S58" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T58" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U58" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V58" t="n">
         <v>1.78</v>
@@ -8281,10 +8281,10 @@
         <v>1.37</v>
       </c>
       <c r="X58" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z58" t="n">
         <v>14.5</v>
@@ -8302,7 +8302,7 @@
         <v>11</v>
       </c>
       <c r="AE58" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AF58" t="n">
         <v>48</v>
@@ -8311,10 +8311,10 @@
         <v>15.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI58" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="n">
         <v>1000</v>
@@ -8323,7 +8323,7 @@
         <v>220</v>
       </c>
       <c r="AL58" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM58" t="n">
         <v>580</v>
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="G59" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="H59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I59" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.6</v>
       </c>
       <c r="J59" t="n">
         <v>3.4</v>
@@ -8380,46 +8380,46 @@
         <v>3.5</v>
       </c>
       <c r="L59" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M59" t="n">
         <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O59" t="n">
         <v>1.36</v>
       </c>
       <c r="P59" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R59" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S59" t="n">
         <v>3.8</v>
       </c>
       <c r="T59" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U59" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V59" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W59" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="X59" t="n">
         <v>13</v>
       </c>
       <c r="Y59" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z59" t="n">
         <v>23</v>
@@ -8437,10 +8437,10 @@
         <v>14.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF59" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG59" t="n">
         <v>11</v>
@@ -8452,7 +8452,7 @@
         <v>55</v>
       </c>
       <c r="AJ59" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK59" t="n">
         <v>26</v>
@@ -8464,7 +8464,7 @@
         <v>110</v>
       </c>
       <c r="AN59" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO59" t="n">
         <v>44</v>
@@ -8497,58 +8497,58 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J60" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.15</v>
       </c>
       <c r="K60" t="n">
         <v>3.7</v>
       </c>
       <c r="L60" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M60" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O60" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P60" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R60" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S60" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T60" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U60" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V60" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W60" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8566,7 +8566,7 @@
         <v>1000</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD60" t="n">
         <v>1000</v>
@@ -8635,43 +8635,43 @@
         <v>6.4</v>
       </c>
       <c r="G61" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H61" t="n">
         <v>1.43</v>
       </c>
       <c r="I61" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="J61" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K61" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L61" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M61" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N61" t="n">
-        <v>2.44</v>
+        <v>1.1</v>
       </c>
       <c r="O61" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="P61" t="n">
-        <v>2.44</v>
+        <v>1.25</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="R61" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="S61" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="T61" t="n">
         <v>1.01</v>
@@ -8680,7 +8680,7 @@
         <v>1.01</v>
       </c>
       <c r="V61" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="W61" t="n">
         <v>1.14</v>
@@ -8767,52 +8767,52 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G62" t="n">
         <v>1.35</v>
       </c>
       <c r="H62" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J62" t="n">
         <v>5.8</v>
       </c>
       <c r="K62" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L62" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M62" t="n">
         <v>1.04</v>
       </c>
       <c r="N62" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="O62" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P62" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="R62" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="S62" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="T62" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="U62" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V62" t="n">
         <v>1.08</v>
@@ -8824,37 +8824,37 @@
         <v>23</v>
       </c>
       <c r="Y62" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z62" t="n">
         <v>120</v>
       </c>
       <c r="AA62" t="n">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="AB62" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC62" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE62" t="n">
         <v>200</v>
       </c>
       <c r="AF62" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AG62" t="n">
         <v>10.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI62" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ62" t="n">
         <v>10.5</v>
@@ -8866,13 +8866,13 @@
         <v>38</v>
       </c>
       <c r="AM62" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO62" t="n">
         <v>220</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO62"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,67 +667,67 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="G2" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
         <v>55</v>
@@ -736,40 +736,40 @@
         <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AO2" t="n">
         <v>26</v>
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
         <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P3" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="S3" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="U3" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,10 +880,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -895,16 +895,16 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,55 +937,55 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="I4" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.39</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
         <v>1.08</v>
@@ -994,22 +994,22 @@
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>270</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="I5" t="n">
         <v>2.06</v>
@@ -1087,97 +1087,97 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="R5" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="T5" t="n">
         <v>1.47</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X5" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH5" t="n">
         <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
         <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6">
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.35</v>
+        <v>2.16</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.34</v>
+        <v>1.87</v>
       </c>
       <c r="I7" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O7" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>1.86</v>
       </c>
       <c r="R7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.22</v>
       </c>
-      <c r="S7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.37</v>
-      </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AE7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,31 +1477,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="G8" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I8" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
@@ -1513,40 +1513,40 @@
         <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="V8" t="n">
         <v>1.54</v>
       </c>
       <c r="W8" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X8" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>12.5</v>
@@ -1555,31 +1555,31 @@
         <v>27</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO8" t="n">
         <v>42</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.9</v>
+        <v>2.44</v>
       </c>
       <c r="G9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.66</v>
-      </c>
       <c r="I9" t="n">
-        <v>2.92</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1636,88 +1636,88 @@
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
         <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AH9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>36</v>
       </c>
-      <c r="AF9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO9" t="n">
         <v>55</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
         <v>4.4</v>
@@ -1762,10 +1762,10 @@
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1777,13 +1777,13 @@
         <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
         <v>3.25</v>
@@ -1795,10 +1795,10 @@
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X10" t="n">
         <v>16</v>
@@ -1807,19 +1807,19 @@
         <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE10" t="n">
         <v>160</v>
@@ -1831,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1846,13 +1846,13 @@
         <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>13.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,52 +1882,52 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N11" t="n">
         <v>2.66</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.72</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="P11" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="R11" t="n">
         <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="U11" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
         <v>1.49</v>
@@ -1936,55 +1936,55 @@
         <v>1.45</v>
       </c>
       <c r="X11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB11" t="n">
         <v>9.6</v>
       </c>
-      <c r="Z11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
         <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>290</v>
       </c>
       <c r="AJ11" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AK11" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="AL11" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>600</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.45</v>
@@ -2041,85 +2041,85 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
         <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
         <v>3.85</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG12" t="n">
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,55 +2152,55 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
         <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
         <v>1.73</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W13" t="n">
         <v>1.59</v>
@@ -2221,7 +2221,7 @@
         <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
         <v>980</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
         <v>3.25</v>
@@ -2311,49 +2311,49 @@
         <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O14" t="n">
         <v>1.47</v>
       </c>
       <c r="P14" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R14" t="n">
         <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T14" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U14" t="n">
         <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="W14" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X14" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
         <v>7.6</v>
@@ -2362,25 +2362,25 @@
         <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH14" t="n">
         <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL14" t="n">
         <v>95</v>
@@ -2389,10 +2389,10 @@
         <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G15" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
         <v>6.2</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.43</v>
@@ -2446,25 +2446,25 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="Q15" t="n">
         <v>1.97</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
         <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U15" t="n">
         <v>1.89</v>
@@ -2473,7 +2473,7 @@
         <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2488,19 +2488,19 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
         <v>21</v>
@@ -2515,10 +2515,10 @@
         <v>900</v>
       </c>
       <c r="AK15" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2569,10 +2569,10 @@
         <v>3.05</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
@@ -2587,16 +2587,16 @@
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
         <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T16" t="n">
         <v>1.6</v>
@@ -2614,34 +2614,34 @@
         <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
         <v>90</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2650,16 +2650,16 @@
         <v>130</v>
       </c>
       <c r="AK16" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
@@ -2695,58 +2695,58 @@
         <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
         <v>3.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
         <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R17" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
         <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y17" t="n">
         <v>65</v>
@@ -2758,10 +2758,10 @@
         <v>200</v>
       </c>
       <c r="AB17" t="n">
-        <v>48</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AD17" t="n">
         <v>70</v>
@@ -2770,7 +2770,7 @@
         <v>200</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AG17" t="n">
         <v>50</v>
@@ -2794,7 +2794,7 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
         <v>600</v>
@@ -2827,64 +2827,64 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H18" t="n">
         <v>1.82</v>
       </c>
       <c r="I18" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X18" t="n">
         <v>19.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Z18" t="n">
         <v>11.5</v>
@@ -2905,34 +2905,34 @@
         <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AG18" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AJ18" t="n">
         <v>350</v>
       </c>
       <c r="AK18" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="AL18" t="n">
-        <v>470</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>600</v>
+        <v>310</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
         <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
         <v>1.37</v>
@@ -2986,37 +2986,37 @@
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
         <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>
@@ -3031,19 +3031,19 @@
         <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF19" t="n">
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="G20" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H20" t="n">
         <v>4.1</v>
@@ -3112,13 +3112,13 @@
         <v>3.85</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.38</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
         <v>4.2</v>
@@ -3127,7 +3127,7 @@
         <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
         <v>1.86</v>
@@ -3142,7 +3142,7 @@
         <v>1.7</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
         <v>1.3</v>
@@ -3163,10 +3163,10 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3175,13 +3175,13 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
         <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3232,109 +3232,109 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="G21" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.05</v>
+        <v>2.66</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="P21" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="R21" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="V21" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y21" t="n">
         <v>14.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG21" t="n">
         <v>12</v>
       </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="G22" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L22" t="n">
         <v>1.19</v>
@@ -3391,34 +3391,34 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O22" t="n">
         <v>1.1</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="R22" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="S22" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="T22" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W22" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -3535,7 +3535,7 @@
         <v>1.98</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R23" t="n">
         <v>1.37</v>
@@ -3550,13 +3550,13 @@
         <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="X23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
         <v>22</v>
@@ -3574,10 +3574,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
         <v>30</v>
@@ -3604,10 +3604,10 @@
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J24" t="n">
         <v>4.5</v>
@@ -3661,25 +3661,25 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
         <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T24" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U24" t="n">
         <v>2.16</v>
@@ -3688,7 +3688,7 @@
         <v>1.16</v>
       </c>
       <c r="W24" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3715,7 +3715,7 @@
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
@@ -3778,7 +3778,7 @@
         <v>1.51</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I25" t="n">
         <v>8.4</v>
@@ -3787,7 +3787,7 @@
         <v>4.6</v>
       </c>
       <c r="K25" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.35</v>
@@ -3805,7 +3805,7 @@
         <v>2.22</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R25" t="n">
         <v>1.48</v>
@@ -3820,13 +3820,13 @@
         <v>1.98</v>
       </c>
       <c r="V25" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W25" t="n">
         <v>2.96</v>
       </c>
       <c r="X25" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="Y25" t="n">
         <v>980</v>
@@ -3856,13 +3856,13 @@
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
         <v>400</v>
       </c>
       <c r="AJ25" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="AK25" t="n">
         <v>34</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.96</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.97</v>
-      </c>
       <c r="H26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J26" t="n">
         <v>3.45</v>
@@ -3925,7 +3925,7 @@
         <v>3.55</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
@@ -3934,13 +3934,13 @@
         <v>3.25</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
         <v>1.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
         <v>1.27</v>
@@ -3949,22 +3949,22 @@
         <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
         <v>34</v>
@@ -3976,13 +3976,13 @@
         <v>7.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>480</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="n">
         <v>10.5</v>
@@ -3994,13 +3994,13 @@
         <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
         <v>46</v>
@@ -4009,10 +4009,10 @@
         <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO26" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G27" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
         <v>3.3</v>
@@ -4060,34 +4060,34 @@
         <v>3.35</v>
       </c>
       <c r="L27" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O27" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U27" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V27" t="n">
         <v>1.48</v>
@@ -4096,7 +4096,7 @@
         <v>1.58</v>
       </c>
       <c r="X27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y27" t="n">
         <v>12.5</v>
@@ -4105,7 +4105,7 @@
         <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB27" t="n">
         <v>11</v>
@@ -4126,10 +4126,10 @@
         <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ27" t="n">
         <v>40</v>
@@ -4141,13 +4141,13 @@
         <v>44</v>
       </c>
       <c r="AM27" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -4177,88 +4177,88 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="G28" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I28" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.17</v>
       </c>
-      <c r="P28" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W28" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="X28" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Y28" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z28" t="n">
         <v>65</v>
       </c>
       <c r="AA28" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
         <v>70</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH28" t="n">
         <v>18</v>
@@ -4270,16 +4270,16 @@
         <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM28" t="n">
         <v>70</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>60</v>
@@ -4312,88 +4312,88 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G29" t="n">
         <v>2.38</v>
       </c>
-      <c r="G29" t="n">
-        <v>2.42</v>
-      </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="J29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S29" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="T29" t="n">
         <v>1.64</v>
       </c>
       <c r="U29" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V29" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="W29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
         <v>25</v>
       </c>
       <c r="Y29" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB29" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
         <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
         <v>16</v>
@@ -4402,10 +4402,10 @@
         <v>150</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK29" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AL29" t="n">
         <v>80</v>
@@ -4417,7 +4417,7 @@
         <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G30" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.36</v>
@@ -4471,85 +4471,85 @@
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q30" t="n">
         <v>1.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S30" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="T30" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="U30" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W30" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H31" t="n">
         <v>2.34</v>
@@ -4600,34 +4600,34 @@
         <v>3.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O31" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q31" t="n">
         <v>2.02</v>
       </c>
       <c r="R31" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T31" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U31" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="V31" t="n">
         <v>1.69</v>
@@ -4636,16 +4636,16 @@
         <v>1.41</v>
       </c>
       <c r="X31" t="n">
-        <v>17.5</v>
+        <v>90</v>
       </c>
       <c r="Y31" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="n">
         <v>18.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
         <v>1000</v>
@@ -4654,10 +4654,10 @@
         <v>9.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE31" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF31" t="n">
         <v>980</v>
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I32" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="R32" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="S32" t="n">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="T32" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="U32" t="n">
-        <v>2.14</v>
+        <v>2.52</v>
       </c>
       <c r="V32" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W32" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G33" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H33" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K33" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L33" t="n">
         <v>1.33</v>
@@ -4891,73 +4891,73 @@
         <v>1.51</v>
       </c>
       <c r="S33" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T33" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U33" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V33" t="n">
         <v>1.12</v>
       </c>
       <c r="W33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X33" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
         <v>75</v>
       </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA33" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AB33" t="n">
         <v>9.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD33" t="n">
         <v>90</v>
       </c>
       <c r="AE33" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ33" t="n">
         <v>12.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="n">
-        <v>470</v>
+        <v>130</v>
       </c>
       <c r="AN33" t="n">
         <v>6.2</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34">
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G34" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I34" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="J34" t="n">
         <v>4.1</v>
@@ -5014,31 +5014,31 @@
         <v>5.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
         <v>2.44</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R34" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S34" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="T34" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U34" t="n">
         <v>2.34</v>
       </c>
       <c r="V34" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="W34" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X34" t="n">
         <v>48</v>
@@ -5047,13 +5047,13 @@
         <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AA34" t="n">
         <v>42</v>
       </c>
       <c r="AB34" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AC34" t="n">
         <v>10.5</v>
@@ -5062,13 +5062,13 @@
         <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="n">
         <v>220</v>
       </c>
       <c r="AG34" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AH34" t="n">
         <v>17.5</v>
@@ -5080,7 +5080,7 @@
         <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AL34" t="n">
         <v>460</v>
@@ -5092,7 +5092,7 @@
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="G35" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="H35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I35" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.8</v>
       </c>
       <c r="J35" t="n">
         <v>3.5</v>
@@ -5164,16 +5164,16 @@
         <v>3.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U35" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V35" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5206,13 +5206,13 @@
         <v>40</v>
       </c>
       <c r="AH35" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
         <v>1000</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5257,64 +5257,64 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="J36" t="n">
         <v>4.1</v>
       </c>
       <c r="K36" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.25</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
         <v>6.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P36" t="n">
         <v>2.96</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R36" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S36" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U36" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="V36" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W36" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -5323,46 +5323,46 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -5392,25 +5392,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="G37" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="H37" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="J37" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K37" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -5425,7 +5425,7 @@
         <v>2.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R37" t="n">
         <v>1.65</v>
@@ -5434,16 +5434,16 @@
         <v>2.42</v>
       </c>
       <c r="T37" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U37" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V37" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W37" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="X37" t="n">
         <v>55</v>
@@ -5452,16 +5452,16 @@
         <v>80</v>
       </c>
       <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
         <v>170</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>180</v>
       </c>
       <c r="AB37" t="n">
         <v>12.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD37" t="n">
         <v>48</v>
@@ -5473,16 +5473,16 @@
         <v>12</v>
       </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH37" t="n">
         <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK37" t="n">
         <v>15.5</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G38" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H38" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I38" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J38" t="n">
         <v>3.8</v>
@@ -5545,7 +5545,7 @@
         <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -5557,25 +5557,25 @@
         <v>1.17</v>
       </c>
       <c r="P38" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R38" t="n">
         <v>1.69</v>
       </c>
       <c r="S38" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T38" t="n">
         <v>1.53</v>
       </c>
       <c r="U38" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="V38" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W38" t="n">
         <v>1.54</v>
@@ -5623,13 +5623,13 @@
         <v>75</v>
       </c>
       <c r="AL38" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AM38" t="n">
         <v>200</v>
       </c>
       <c r="AN38" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AO38" t="n">
         <v>42</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
         <v>4.2</v>
@@ -5677,7 +5677,7 @@
         <v>4.2</v>
       </c>
       <c r="K39" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.29</v>
@@ -5686,19 +5686,19 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O39" t="n">
         <v>1.19</v>
       </c>
       <c r="P39" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q39" t="n">
         <v>1.58</v>
       </c>
       <c r="R39" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S39" t="n">
         <v>2.44</v>
@@ -5707,64 +5707,64 @@
         <v>1.6</v>
       </c>
       <c r="U39" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V39" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X39" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Y39" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Z39" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA39" t="n">
         <v>85</v>
       </c>
       <c r="AB39" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AC39" t="n">
         <v>10.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE39" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI39" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AK39" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL39" t="n">
         <v>26</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN39" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H40" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="I40" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="J40" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K40" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L40" t="n">
         <v>1.28</v>
@@ -5821,34 +5821,34 @@
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P40" t="n">
         <v>2.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R40" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S40" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T40" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U40" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="V40" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="W40" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X40" t="n">
         <v>27</v>
@@ -5857,22 +5857,22 @@
         <v>12.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB40" t="n">
         <v>36</v>
       </c>
       <c r="AC40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD40" t="n">
         <v>10</v>
       </c>
       <c r="AE40" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF40" t="n">
         <v>55</v>
@@ -5881,7 +5881,7 @@
         <v>22</v>
       </c>
       <c r="AH40" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI40" t="n">
         <v>25</v>
@@ -5890,10 +5890,10 @@
         <v>160</v>
       </c>
       <c r="AK40" t="n">
-        <v>65</v>
+        <v>510</v>
       </c>
       <c r="AL40" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
@@ -5932,28 +5932,28 @@
         </is>
       </c>
       <c r="F41" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K41" t="n">
         <v>4.4</v>
-      </c>
-      <c r="G41" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.3</v>
       </c>
       <c r="L41" t="n">
         <v>1.3</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
         <v>6</v>
@@ -5962,7 +5962,7 @@
         <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q41" t="n">
         <v>1.57</v>
@@ -5971,31 +5971,31 @@
         <v>1.66</v>
       </c>
       <c r="S41" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T41" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U41" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="V41" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="W41" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X41" t="n">
         <v>26</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB41" t="n">
         <v>25</v>
@@ -6007,34 +6007,34 @@
         <v>10.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF41" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG41" t="n">
         <v>18.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI41" t="n">
         <v>26</v>
       </c>
       <c r="AJ41" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK41" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AL41" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM41" t="n">
         <v>65</v>
       </c>
       <c r="AN41" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO41" t="n">
         <v>7.6</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G42" t="n">
         <v>2.36</v>
@@ -6076,10 +6076,10 @@
         <v>3.15</v>
       </c>
       <c r="I42" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K42" t="n">
         <v>3.95</v>
@@ -6091,37 +6091,37 @@
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R42" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U42" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="V42" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W42" t="n">
         <v>1.73</v>
       </c>
       <c r="X42" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="Y42" t="n">
         <v>980</v>
@@ -6151,7 +6151,7 @@
         <v>980</v>
       </c>
       <c r="AH42" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI42" t="n">
         <v>120</v>
@@ -6169,10 +6169,10 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO42" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
@@ -6205,7 +6205,7 @@
         <v>3.05</v>
       </c>
       <c r="G43" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
         <v>2.38</v>
@@ -6214,31 +6214,31 @@
         <v>2.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K43" t="n">
         <v>3.95</v>
       </c>
       <c r="L43" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O43" t="n">
         <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q43" t="n">
         <v>1.67</v>
       </c>
       <c r="R43" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S43" t="n">
         <v>2.68</v>
@@ -6259,34 +6259,34 @@
         <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH43" t="n">
         <v>60</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>18.5</v>
       </c>
       <c r="AI43" t="n">
         <v>1000</v>
@@ -6304,10 +6304,10 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H44" t="n">
         <v>4</v>
@@ -6352,7 +6352,7 @@
         <v>3.35</v>
       </c>
       <c r="K44" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L44" t="n">
         <v>1.47</v>
@@ -6361,85 +6361,85 @@
         <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P44" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R44" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S44" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U44" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V44" t="n">
         <v>1.31</v>
       </c>
       <c r="W44" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X44" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y44" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>380</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH44" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE44" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>22</v>
-      </c>
       <c r="AI44" t="n">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AK44" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AL44" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM44" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G45" t="n">
         <v>1.82</v>
@@ -6484,10 +6484,10 @@
         <v>4.7</v>
       </c>
       <c r="J45" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K45" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L45" t="n">
         <v>1.28</v>
@@ -6562,7 +6562,7 @@
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AK45" t="n">
         <v>32</v>
@@ -6574,7 +6574,7 @@
         <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO45" t="n">
         <v>36</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I46" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J46" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K46" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L46" t="n">
         <v>1.44</v>
@@ -6631,13 +6631,13 @@
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q46" t="n">
         <v>2.04</v>
@@ -6649,16 +6649,16 @@
         <v>3.7</v>
       </c>
       <c r="T46" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V46" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W46" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X46" t="n">
         <v>13.5</v>
@@ -6670,7 +6670,7 @@
         <v>17.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AB46" t="n">
         <v>12</v>
@@ -6682,7 +6682,7 @@
         <v>12.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AF46" t="n">
         <v>22</v>
@@ -6691,10 +6691,10 @@
         <v>14</v>
       </c>
       <c r="AH46" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="AJ46" t="n">
         <v>210</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,121 +6733,121 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.7</v>
+        <v>1.71</v>
       </c>
       <c r="G47" t="n">
-        <v>3.85</v>
+        <v>1.85</v>
       </c>
       <c r="H47" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="I47" t="n">
-        <v>2.5</v>
+        <v>6.4</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K47" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="L47" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="O47" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="P47" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="R47" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S47" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="T47" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U47" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="V47" t="n">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="W47" t="n">
-        <v>1.35</v>
+        <v>2.16</v>
       </c>
       <c r="X47" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG47" t="n">
         <v>11</v>
       </c>
-      <c r="AC47" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>16</v>
-      </c>
       <c r="AH47" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AI47" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>80</v>
+        <v>19.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AL47" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM47" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>75</v>
+        <v>16.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -6901,28 +6901,28 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P48" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="R48" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="T48" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U48" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>1.71</v>
@@ -6931,10 +6931,10 @@
         <v>1.49</v>
       </c>
       <c r="X48" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y48" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z48" t="n">
         <v>20</v>
@@ -6946,25 +6946,25 @@
         <v>21</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD48" t="n">
         <v>12</v>
       </c>
       <c r="AE48" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF48" t="n">
         <v>26</v>
       </c>
       <c r="AG48" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH48" t="n">
         <v>13.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ48" t="n">
         <v>46</v>
@@ -6976,13 +6976,13 @@
         <v>29</v>
       </c>
       <c r="AM48" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AN48" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -7021,13 +7021,13 @@
         <v>2.8</v>
       </c>
       <c r="I49" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="J49" t="n">
         <v>3.05</v>
       </c>
       <c r="K49" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L49" t="n">
         <v>1.51</v>
@@ -7039,10 +7039,10 @@
         <v>3.1</v>
       </c>
       <c r="O49" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q49" t="n">
         <v>2.38</v>
@@ -7054,10 +7054,10 @@
         <v>4.5</v>
       </c>
       <c r="T49" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U49" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V49" t="n">
         <v>1.51</v>
@@ -7072,13 +7072,13 @@
         <v>9.6</v>
       </c>
       <c r="Z49" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AA49" t="n">
         <v>340</v>
       </c>
       <c r="AB49" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC49" t="n">
         <v>7.4</v>
@@ -7114,7 +7114,7 @@
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,121 +7138,121 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.78</v>
+        <v>3.4</v>
       </c>
       <c r="G50" t="n">
-        <v>1.88</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="I50" t="n">
-        <v>6.4</v>
+        <v>2.64</v>
       </c>
       <c r="J50" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K50" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="L50" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N50" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="O50" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="P50" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="R50" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S50" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="T50" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U50" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="V50" t="n">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="W50" t="n">
-        <v>2.12</v>
+        <v>1.4</v>
       </c>
       <c r="X50" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y50" t="n">
-        <v>19</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB50" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC50" t="n">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AD50" t="n">
-        <v>46</v>
+        <v>12.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF50" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AG50" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ50" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AK50" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AL50" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM50" t="n">
         <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>16.5</v>
+        <v>65</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
@@ -7291,7 +7291,7 @@
         <v>1.99</v>
       </c>
       <c r="I51" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
         <v>3.95</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -7312,25 +7312,25 @@
         <v>1.25</v>
       </c>
       <c r="P51" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R51" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S51" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T51" t="n">
         <v>1.68</v>
       </c>
       <c r="U51" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V51" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W51" t="n">
         <v>1.32</v>
@@ -7345,7 +7345,7 @@
         <v>13.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB51" t="n">
         <v>18</v>
@@ -7360,13 +7360,13 @@
         <v>18.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG51" t="n">
         <v>16</v>
       </c>
       <c r="AH51" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI51" t="n">
         <v>30</v>
@@ -7375,7 +7375,7 @@
         <v>75</v>
       </c>
       <c r="AK51" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="n">
         <v>46</v>
@@ -7417,112 +7417,112 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G52" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H52" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I52" t="n">
         <v>5.8</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5.9</v>
       </c>
       <c r="J52" t="n">
         <v>3.95</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M52" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="O52" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P52" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="R52" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S52" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="U52" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="V52" t="n">
         <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="X52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y52" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA52" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB52" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC52" t="n">
         <v>8.6</v>
       </c>
       <c r="AD52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE52" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO52" t="n">
         <v>90</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="53">
@@ -7555,16 +7555,16 @@
         <v>1.25</v>
       </c>
       <c r="G53" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>11</v>
       </c>
       <c r="I53" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="K53" t="n">
         <v>8.199999999999999</v>
@@ -7585,25 +7585,25 @@
         <v>3.35</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S53" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T53" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="U53" t="n">
         <v>2.16</v>
       </c>
       <c r="V53" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W53" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X53" t="n">
         <v>55</v>
@@ -7639,7 +7639,7 @@
         <v>34</v>
       </c>
       <c r="AI53" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ53" t="n">
         <v>14</v>
@@ -7690,10 +7690,10 @@
         <v>1.94</v>
       </c>
       <c r="G54" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I54" t="n">
         <v>4.5</v>
@@ -7729,10 +7729,10 @@
         <v>3.1</v>
       </c>
       <c r="T54" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U54" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V54" t="n">
         <v>1.3</v>
@@ -7774,7 +7774,7 @@
         <v>980</v>
       </c>
       <c r="AI54" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ54" t="n">
         <v>980</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G55" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I55" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J55" t="n">
         <v>3</v>
@@ -7849,16 +7849,16 @@
         <v>2.46</v>
       </c>
       <c r="O55" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="P55" t="n">
         <v>1.48</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S55" t="n">
         <v>6.6</v>
@@ -7867,13 +7867,13 @@
         <v>2.36</v>
       </c>
       <c r="U55" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V55" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W55" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X55" t="n">
         <v>7.4</v>
@@ -7957,25 +7957,25 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="H56" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="I56" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="J56" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K56" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L56" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M56" t="n">
         <v>1.09</v>
@@ -7987,82 +7987,82 @@
         <v>1.43</v>
       </c>
       <c r="P56" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R56" t="n">
         <v>1.27</v>
       </c>
       <c r="S56" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T56" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U56" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="V56" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W56" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="X56" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y56" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AA56" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="AB56" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC56" t="n">
         <v>8.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE56" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AF56" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG56" t="n">
         <v>10</v>
       </c>
       <c r="AH56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI56" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ56" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AK56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL56" t="n">
         <v>48</v>
       </c>
       <c r="AM56" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN56" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57">
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="G57" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="I57" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="J57" t="n">
         <v>3.65</v>
@@ -8116,13 +8116,13 @@
         <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O57" t="n">
         <v>1.27</v>
       </c>
       <c r="P57" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q57" t="n">
         <v>1.8</v>
@@ -8131,79 +8131,79 @@
         <v>1.45</v>
       </c>
       <c r="S57" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T57" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U57" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V57" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W57" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X57" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y57" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB57" t="n">
         <v>15</v>
       </c>
-      <c r="Z57" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AC57" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD57" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AF57" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AG57" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO57" t="n">
         <v>16</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8218,121 +8218,121 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>CDT Real Oruro</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.55</v>
+        <v>1.59</v>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>1.68</v>
       </c>
       <c r="H58" t="n">
-        <v>2.22</v>
+        <v>5.2</v>
       </c>
       <c r="I58" t="n">
-        <v>2.28</v>
+        <v>6.6</v>
       </c>
       <c r="J58" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="K58" t="n">
-        <v>3.65</v>
+        <v>5.2</v>
       </c>
       <c r="L58" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="M58" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N58" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="O58" t="n">
-        <v>1.33</v>
